--- a/terrebone/v12_api/input.xlsx
+++ b/terrebone/v12_api/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\steve\random stuff\Terrebone\FHR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B26EFD-6FE9-48D1-95BD-F2FC900EB13B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8518C2A-7CC1-4868-B932-ED056F2CC750}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,3004 +69,3004 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
-    <t>2025</t>
-  </si>
-  <si>
-    <t>2026</t>
-  </si>
-  <si>
-    <t>2027</t>
-  </si>
-  <si>
-    <t>2028</t>
-  </si>
-  <si>
-    <t>2029</t>
-  </si>
-  <si>
-    <t>2030</t>
-  </si>
-  <si>
-    <t>2031</t>
-  </si>
-  <si>
-    <t>2032</t>
-  </si>
-  <si>
-    <t>2033</t>
-  </si>
-  <si>
-    <t>2034</t>
-  </si>
-  <si>
-    <t>2035</t>
-  </si>
-  <si>
-    <t>2036</t>
-  </si>
-  <si>
-    <t>2037</t>
-  </si>
-  <si>
-    <t>2038</t>
-  </si>
-  <si>
-    <t>2039</t>
-  </si>
-  <si>
-    <t>2040</t>
-  </si>
-  <si>
-    <t>2041</t>
-  </si>
-  <si>
-    <t>2042</t>
-  </si>
-  <si>
-    <t>2043</t>
-  </si>
-  <si>
-    <t>2044</t>
-  </si>
-  <si>
-    <t>2045</t>
-  </si>
-  <si>
-    <t>2046</t>
-  </si>
-  <si>
-    <t>2047</t>
-  </si>
-  <si>
-    <t>2048</t>
-  </si>
-  <si>
-    <t>2049</t>
-  </si>
-  <si>
-    <t>2050</t>
-  </si>
-  <si>
-    <t>2051</t>
-  </si>
-  <si>
-    <t>2052</t>
-  </si>
-  <si>
-    <t>2053</t>
-  </si>
-  <si>
-    <t>2054</t>
-  </si>
-  <si>
-    <t>2055</t>
-  </si>
-  <si>
-    <t>2056</t>
-  </si>
-  <si>
-    <t>2057</t>
-  </si>
-  <si>
-    <t>2058</t>
-  </si>
-  <si>
-    <t>2059</t>
-  </si>
-  <si>
-    <t>2060</t>
-  </si>
-  <si>
-    <t>2061</t>
-  </si>
-  <si>
-    <t>2062</t>
-  </si>
-  <si>
-    <t>2063</t>
-  </si>
-  <si>
-    <t>2064</t>
-  </si>
-  <si>
-    <t>2065</t>
-  </si>
-  <si>
-    <t>2066</t>
-  </si>
-  <si>
-    <t>2067</t>
-  </si>
-  <si>
-    <t>2068</t>
-  </si>
-  <si>
-    <t>2069</t>
-  </si>
-  <si>
-    <t>2070</t>
-  </si>
-  <si>
-    <t>2071</t>
-  </si>
-  <si>
-    <t>2072</t>
-  </si>
-  <si>
-    <t>2073</t>
-  </si>
-  <si>
-    <t>2074</t>
-  </si>
-  <si>
-    <t>2075</t>
-  </si>
-  <si>
-    <t>2076</t>
-  </si>
-  <si>
-    <t>2077</t>
-  </si>
-  <si>
-    <t>2078</t>
-  </si>
-  <si>
-    <t>2079</t>
-  </si>
-  <si>
-    <t>2080</t>
-  </si>
-  <si>
-    <t>2081</t>
-  </si>
-  <si>
-    <t>2082</t>
-  </si>
-  <si>
-    <t>2083</t>
-  </si>
-  <si>
-    <t>2084</t>
-  </si>
-  <si>
-    <t>2085</t>
-  </si>
-  <si>
-    <t>2086</t>
-  </si>
-  <si>
-    <t>2087</t>
-  </si>
-  <si>
-    <t>2088</t>
-  </si>
-  <si>
-    <t>2089</t>
-  </si>
-  <si>
-    <t>2090</t>
-  </si>
-  <si>
-    <t>2091</t>
-  </si>
-  <si>
-    <t>2092</t>
-  </si>
-  <si>
-    <t>2093</t>
-  </si>
-  <si>
-    <t>2094</t>
-  </si>
-  <si>
-    <t>2095</t>
-  </si>
-  <si>
-    <t>2096</t>
-  </si>
-  <si>
-    <t>2097</t>
-  </si>
-  <si>
-    <t>2098</t>
-  </si>
-  <si>
-    <t>2099</t>
-  </si>
-  <si>
-    <t>2100</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2113</t>
-  </si>
-  <si>
-    <t>2114</t>
-  </si>
-  <si>
-    <t>2115</t>
-  </si>
-  <si>
-    <t>2116</t>
-  </si>
-  <si>
-    <t>2117</t>
-  </si>
-  <si>
-    <t>2118</t>
-  </si>
-  <si>
-    <t>2119</t>
-  </si>
-  <si>
-    <t>2120</t>
-  </si>
-  <si>
-    <t>2121</t>
-  </si>
-  <si>
-    <t>2122</t>
-  </si>
-  <si>
-    <t>2123</t>
-  </si>
-  <si>
-    <t>2124</t>
-  </si>
-  <si>
-    <t>2125</t>
-  </si>
-  <si>
-    <t>2126</t>
-  </si>
-  <si>
-    <t>2127</t>
-  </si>
-  <si>
-    <t>2128</t>
-  </si>
-  <si>
-    <t>2129</t>
-  </si>
-  <si>
-    <t>2130</t>
-  </si>
-  <si>
-    <t>2131</t>
-  </si>
-  <si>
-    <t>2132</t>
-  </si>
-  <si>
-    <t>2133</t>
-  </si>
-  <si>
-    <t>2134</t>
-  </si>
-  <si>
-    <t>2135</t>
-  </si>
-  <si>
-    <t>2136</t>
-  </si>
-  <si>
-    <t>2137</t>
-  </si>
-  <si>
-    <t>2138</t>
-  </si>
-  <si>
-    <t>2139</t>
-  </si>
-  <si>
-    <t>2140</t>
-  </si>
-  <si>
-    <t>2141</t>
-  </si>
-  <si>
-    <t>2142</t>
-  </si>
-  <si>
-    <t>2143</t>
-  </si>
-  <si>
-    <t>2144</t>
-  </si>
-  <si>
-    <t>2145</t>
-  </si>
-  <si>
-    <t>2146</t>
-  </si>
-  <si>
-    <t>2147</t>
-  </si>
-  <si>
-    <t>2148</t>
-  </si>
-  <si>
-    <t>2149</t>
-  </si>
-  <si>
-    <t>2150</t>
-  </si>
-  <si>
-    <t>2151</t>
-  </si>
-  <si>
-    <t>2152</t>
-  </si>
-  <si>
-    <t>2153</t>
-  </si>
-  <si>
-    <t>2154</t>
-  </si>
-  <si>
-    <t>2155</t>
-  </si>
-  <si>
-    <t>2156</t>
-  </si>
-  <si>
-    <t>2157</t>
-  </si>
-  <si>
-    <t>2158</t>
-  </si>
-  <si>
-    <t>2159</t>
-  </si>
-  <si>
-    <t>2160</t>
-  </si>
-  <si>
-    <t>2161</t>
-  </si>
-  <si>
-    <t>2162</t>
-  </si>
-  <si>
-    <t>2163</t>
-  </si>
-  <si>
-    <t>2164</t>
-  </si>
-  <si>
-    <t>2165</t>
-  </si>
-  <si>
-    <t>2166</t>
-  </si>
-  <si>
-    <t>2167</t>
-  </si>
-  <si>
-    <t>2168</t>
-  </si>
-  <si>
-    <t>2169</t>
-  </si>
-  <si>
-    <t>2170</t>
-  </si>
-  <si>
-    <t>2171</t>
-  </si>
-  <si>
-    <t>2172</t>
-  </si>
-  <si>
-    <t>2173</t>
-  </si>
-  <si>
-    <t>2174</t>
-  </si>
-  <si>
-    <t>2175</t>
-  </si>
-  <si>
-    <t>2176</t>
-  </si>
-  <si>
-    <t>2177</t>
-  </si>
-  <si>
-    <t>2178</t>
-  </si>
-  <si>
-    <t>2179</t>
-  </si>
-  <si>
-    <t>2180</t>
-  </si>
-  <si>
-    <t>2181</t>
-  </si>
-  <si>
-    <t>2182</t>
-  </si>
-  <si>
-    <t>2183</t>
-  </si>
-  <si>
-    <t>2184</t>
-  </si>
-  <si>
-    <t>2185</t>
-  </si>
-  <si>
-    <t>2186</t>
-  </si>
-  <si>
-    <t>2187</t>
-  </si>
-  <si>
-    <t>2188</t>
-  </si>
-  <si>
-    <t>2189</t>
-  </si>
-  <si>
-    <t>2190</t>
-  </si>
-  <si>
-    <t>2191</t>
-  </si>
-  <si>
-    <t>2192</t>
-  </si>
-  <si>
-    <t>2193</t>
-  </si>
-  <si>
-    <t>2194</t>
-  </si>
-  <si>
-    <t>2195</t>
-  </si>
-  <si>
-    <t>2196</t>
-  </si>
-  <si>
-    <t>2197</t>
-  </si>
-  <si>
-    <t>2198</t>
-  </si>
-  <si>
-    <t>2199</t>
-  </si>
-  <si>
-    <t>2200</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2213</t>
-  </si>
-  <si>
-    <t>2214</t>
-  </si>
-  <si>
-    <t>2215</t>
-  </si>
-  <si>
-    <t>2216</t>
-  </si>
-  <si>
-    <t>2217</t>
-  </si>
-  <si>
-    <t>2218</t>
-  </si>
-  <si>
-    <t>2219</t>
-  </si>
-  <si>
-    <t>2220</t>
-  </si>
-  <si>
-    <t>2221</t>
-  </si>
-  <si>
-    <t>2222</t>
-  </si>
-  <si>
-    <t>2223</t>
-  </si>
-  <si>
-    <t>2224</t>
-  </si>
-  <si>
-    <t>2225</t>
-  </si>
-  <si>
-    <t>2226</t>
-  </si>
-  <si>
-    <t>2227</t>
-  </si>
-  <si>
-    <t>2228</t>
-  </si>
-  <si>
-    <t>2229</t>
-  </si>
-  <si>
-    <t>2230</t>
-  </si>
-  <si>
-    <t>2231</t>
-  </si>
-  <si>
-    <t>2232</t>
-  </si>
-  <si>
-    <t>2233</t>
-  </si>
-  <si>
-    <t>2234</t>
-  </si>
-  <si>
-    <t>2235</t>
-  </si>
-  <si>
-    <t>2236</t>
-  </si>
-  <si>
-    <t>2237</t>
-  </si>
-  <si>
-    <t>2238</t>
-  </si>
-  <si>
-    <t>2239</t>
-  </si>
-  <si>
-    <t>2240</t>
-  </si>
-  <si>
-    <t>2241</t>
-  </si>
-  <si>
-    <t>2242</t>
-  </si>
-  <si>
-    <t>2243</t>
-  </si>
-  <si>
-    <t>2244</t>
-  </si>
-  <si>
-    <t>2245</t>
-  </si>
-  <si>
-    <t>2246</t>
-  </si>
-  <si>
-    <t>2247</t>
-  </si>
-  <si>
-    <t>2248</t>
-  </si>
-  <si>
-    <t>2249</t>
-  </si>
-  <si>
-    <t>2250</t>
-  </si>
-  <si>
-    <t>2251</t>
-  </si>
-  <si>
-    <t>2252</t>
-  </si>
-  <si>
-    <t>2253</t>
-  </si>
-  <si>
-    <t>2254</t>
-  </si>
-  <si>
-    <t>2255</t>
-  </si>
-  <si>
-    <t>2256</t>
-  </si>
-  <si>
-    <t>2257</t>
-  </si>
-  <si>
-    <t>2258</t>
-  </si>
-  <si>
-    <t>2259</t>
-  </si>
-  <si>
-    <t>2260</t>
-  </si>
-  <si>
-    <t>2261</t>
-  </si>
-  <si>
-    <t>2262</t>
-  </si>
-  <si>
-    <t>2263</t>
-  </si>
-  <si>
-    <t>2264</t>
-  </si>
-  <si>
-    <t>2265</t>
-  </si>
-  <si>
-    <t>2266</t>
-  </si>
-  <si>
-    <t>2267</t>
-  </si>
-  <si>
-    <t>2268</t>
-  </si>
-  <si>
-    <t>2269</t>
-  </si>
-  <si>
-    <t>2270</t>
-  </si>
-  <si>
-    <t>2271</t>
-  </si>
-  <si>
-    <t>2272</t>
-  </si>
-  <si>
-    <t>2273</t>
-  </si>
-  <si>
-    <t>2274</t>
-  </si>
-  <si>
-    <t>2275</t>
-  </si>
-  <si>
-    <t>2276</t>
-  </si>
-  <si>
-    <t>2277</t>
-  </si>
-  <si>
-    <t>2278</t>
-  </si>
-  <si>
-    <t>2279</t>
-  </si>
-  <si>
-    <t>2280</t>
-  </si>
-  <si>
-    <t>2281</t>
-  </si>
-  <si>
-    <t>2282</t>
-  </si>
-  <si>
-    <t>2283</t>
-  </si>
-  <si>
-    <t>2284</t>
-  </si>
-  <si>
-    <t>2285</t>
-  </si>
-  <si>
-    <t>2286</t>
-  </si>
-  <si>
-    <t>2287</t>
-  </si>
-  <si>
-    <t>2288</t>
-  </si>
-  <si>
-    <t>2289</t>
-  </si>
-  <si>
-    <t>2290</t>
-  </si>
-  <si>
-    <t>2291</t>
-  </si>
-  <si>
-    <t>2292</t>
-  </si>
-  <si>
-    <t>2293</t>
-  </si>
-  <si>
-    <t>2294</t>
-  </si>
-  <si>
-    <t>2295</t>
-  </si>
-  <si>
-    <t>2296</t>
-  </si>
-  <si>
-    <t>2297</t>
-  </si>
-  <si>
-    <t>2298</t>
-  </si>
-  <si>
-    <t>2299</t>
-  </si>
-  <si>
-    <t>2300</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2313</t>
-  </si>
-  <si>
-    <t>2314</t>
-  </si>
-  <si>
-    <t>2315</t>
-  </si>
-  <si>
-    <t>2316</t>
-  </si>
-  <si>
-    <t>2317</t>
-  </si>
-  <si>
-    <t>2318</t>
-  </si>
-  <si>
-    <t>2319</t>
-  </si>
-  <si>
-    <t>2320</t>
-  </si>
-  <si>
-    <t>2321</t>
-  </si>
-  <si>
-    <t>2322</t>
-  </si>
-  <si>
-    <t>2323</t>
-  </si>
-  <si>
-    <t>2324</t>
-  </si>
-  <si>
-    <t>2325</t>
-  </si>
-  <si>
-    <t>2326</t>
-  </si>
-  <si>
-    <t>2327</t>
-  </si>
-  <si>
-    <t>2328</t>
-  </si>
-  <si>
-    <t>2329</t>
-  </si>
-  <si>
-    <t>2330</t>
-  </si>
-  <si>
-    <t>2331</t>
-  </si>
-  <si>
-    <t>2332</t>
-  </si>
-  <si>
-    <t>2333</t>
-  </si>
-  <si>
-    <t>2334</t>
-  </si>
-  <si>
-    <t>2335</t>
-  </si>
-  <si>
-    <t>2336</t>
-  </si>
-  <si>
-    <t>2337</t>
-  </si>
-  <si>
-    <t>2338</t>
-  </si>
-  <si>
-    <t>2339</t>
-  </si>
-  <si>
-    <t>2340</t>
-  </si>
-  <si>
-    <t>2341</t>
-  </si>
-  <si>
-    <t>2342</t>
-  </si>
-  <si>
-    <t>2343</t>
-  </si>
-  <si>
-    <t>2344</t>
-  </si>
-  <si>
-    <t>2345</t>
-  </si>
-  <si>
-    <t>2346</t>
-  </si>
-  <si>
-    <t>2347</t>
-  </si>
-  <si>
-    <t>2348</t>
-  </si>
-  <si>
-    <t>2349</t>
-  </si>
-  <si>
-    <t>2350</t>
-  </si>
-  <si>
-    <t>2351</t>
-  </si>
-  <si>
-    <t>2352</t>
-  </si>
-  <si>
-    <t>2353</t>
-  </si>
-  <si>
-    <t>2354</t>
-  </si>
-  <si>
-    <t>2355</t>
-  </si>
-  <si>
-    <t>2356</t>
-  </si>
-  <si>
-    <t>2357</t>
-  </si>
-  <si>
-    <t>2358</t>
-  </si>
-  <si>
-    <t>2359</t>
-  </si>
-  <si>
-    <t>2360</t>
-  </si>
-  <si>
-    <t>2361</t>
-  </si>
-  <si>
-    <t>2362</t>
-  </si>
-  <si>
-    <t>2363</t>
-  </si>
-  <si>
-    <t>2364</t>
-  </si>
-  <si>
-    <t>2365</t>
-  </si>
-  <si>
-    <t>2366</t>
-  </si>
-  <si>
-    <t>2367</t>
-  </si>
-  <si>
-    <t>2368</t>
-  </si>
-  <si>
-    <t>2369</t>
-  </si>
-  <si>
-    <t>2370</t>
-  </si>
-  <si>
-    <t>2371</t>
-  </si>
-  <si>
-    <t>2372</t>
-  </si>
-  <si>
-    <t>2373</t>
-  </si>
-  <si>
-    <t>2374</t>
-  </si>
-  <si>
-    <t>2375</t>
-  </si>
-  <si>
-    <t>2376</t>
-  </si>
-  <si>
-    <t>2377</t>
-  </si>
-  <si>
-    <t>2378</t>
-  </si>
-  <si>
-    <t>2379</t>
-  </si>
-  <si>
-    <t>2380</t>
-  </si>
-  <si>
-    <t>2381</t>
-  </si>
-  <si>
-    <t>2382</t>
-  </si>
-  <si>
-    <t>2383</t>
-  </si>
-  <si>
-    <t>2384</t>
-  </si>
-  <si>
-    <t>2385</t>
-  </si>
-  <si>
-    <t>2386</t>
-  </si>
-  <si>
-    <t>2387</t>
-  </si>
-  <si>
-    <t>2388</t>
-  </si>
-  <si>
-    <t>2389</t>
-  </si>
-  <si>
-    <t>2390</t>
-  </si>
-  <si>
-    <t>2391</t>
-  </si>
-  <si>
-    <t>2392</t>
-  </si>
-  <si>
-    <t>2393</t>
-  </si>
-  <si>
-    <t>2394</t>
-  </si>
-  <si>
-    <t>2395</t>
-  </si>
-  <si>
-    <t>2396</t>
-  </si>
-  <si>
-    <t>2397</t>
-  </si>
-  <si>
-    <t>2398</t>
-  </si>
-  <si>
-    <t>2399</t>
-  </si>
-  <si>
-    <t>2400</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2413</t>
-  </si>
-  <si>
-    <t>2414</t>
-  </si>
-  <si>
-    <t>2415</t>
-  </si>
-  <si>
-    <t>2416</t>
-  </si>
-  <si>
-    <t>2417</t>
-  </si>
-  <si>
-    <t>2418</t>
-  </si>
-  <si>
-    <t>2419</t>
-  </si>
-  <si>
-    <t>2420</t>
-  </si>
-  <si>
-    <t>2421</t>
-  </si>
-  <si>
-    <t>2422</t>
-  </si>
-  <si>
-    <t>2423</t>
-  </si>
-  <si>
-    <t>2424</t>
-  </si>
-  <si>
-    <t>2425</t>
-  </si>
-  <si>
-    <t>2426</t>
-  </si>
-  <si>
-    <t>2427</t>
-  </si>
-  <si>
-    <t>2428</t>
-  </si>
-  <si>
-    <t>2429</t>
-  </si>
-  <si>
-    <t>2430</t>
-  </si>
-  <si>
-    <t>2431</t>
-  </si>
-  <si>
-    <t>2432</t>
-  </si>
-  <si>
-    <t>2433</t>
-  </si>
-  <si>
-    <t>2434</t>
-  </si>
-  <si>
-    <t>2435</t>
-  </si>
-  <si>
-    <t>2436</t>
-  </si>
-  <si>
-    <t>2437</t>
-  </si>
-  <si>
-    <t>2438</t>
-  </si>
-  <si>
-    <t>2439</t>
-  </si>
-  <si>
-    <t>2440</t>
-  </si>
-  <si>
-    <t>2441</t>
-  </si>
-  <si>
-    <t>2442</t>
-  </si>
-  <si>
-    <t>2443</t>
-  </si>
-  <si>
-    <t>2444</t>
-  </si>
-  <si>
-    <t>2445</t>
-  </si>
-  <si>
-    <t>2446</t>
-  </si>
-  <si>
-    <t>2447</t>
-  </si>
-  <si>
-    <t>2448</t>
-  </si>
-  <si>
-    <t>2449</t>
-  </si>
-  <si>
-    <t>2450</t>
-  </si>
-  <si>
-    <t>2451</t>
-  </si>
-  <si>
-    <t>2452</t>
-  </si>
-  <si>
-    <t>2453</t>
-  </si>
-  <si>
-    <t>2454</t>
-  </si>
-  <si>
-    <t>2455</t>
-  </si>
-  <si>
-    <t>2456</t>
-  </si>
-  <si>
-    <t>2457</t>
-  </si>
-  <si>
-    <t>2458</t>
-  </si>
-  <si>
-    <t>2459</t>
-  </si>
-  <si>
-    <t>2460</t>
-  </si>
-  <si>
-    <t>2461</t>
-  </si>
-  <si>
-    <t>2462</t>
-  </si>
-  <si>
-    <t>2463</t>
-  </si>
-  <si>
-    <t>2464</t>
-  </si>
-  <si>
-    <t>2465</t>
-  </si>
-  <si>
-    <t>2466</t>
-  </si>
-  <si>
-    <t>2467</t>
-  </si>
-  <si>
-    <t>2468</t>
-  </si>
-  <si>
-    <t>2469</t>
-  </si>
-  <si>
-    <t>2470</t>
-  </si>
-  <si>
-    <t>2471</t>
-  </si>
-  <si>
-    <t>2472</t>
-  </si>
-  <si>
-    <t>2473</t>
-  </si>
-  <si>
-    <t>2474</t>
-  </si>
-  <si>
-    <t>2475</t>
-  </si>
-  <si>
-    <t>2476</t>
-  </si>
-  <si>
-    <t>2477</t>
-  </si>
-  <si>
-    <t>2478</t>
-  </si>
-  <si>
-    <t>2479</t>
-  </si>
-  <si>
-    <t>2480</t>
-  </si>
-  <si>
-    <t>2481</t>
-  </si>
-  <si>
-    <t>2482</t>
-  </si>
-  <si>
-    <t>2483</t>
-  </si>
-  <si>
-    <t>2484</t>
-  </si>
-  <si>
-    <t>2485</t>
-  </si>
-  <si>
-    <t>2486</t>
-  </si>
-  <si>
-    <t>2487</t>
-  </si>
-  <si>
-    <t>2488</t>
-  </si>
-  <si>
-    <t>2489</t>
-  </si>
-  <si>
-    <t>2490</t>
-  </si>
-  <si>
-    <t>2491</t>
-  </si>
-  <si>
-    <t>2492</t>
-  </si>
-  <si>
-    <t>2493</t>
-  </si>
-  <si>
-    <t>2494</t>
-  </si>
-  <si>
-    <t>2495</t>
-  </si>
-  <si>
-    <t>2496</t>
-  </si>
-  <si>
-    <t>2497</t>
-  </si>
-  <si>
-    <t>2498</t>
-  </si>
-  <si>
-    <t>2499</t>
-  </si>
-  <si>
-    <t>2500</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>2508</t>
-  </si>
-  <si>
-    <t>2509</t>
-  </si>
-  <si>
-    <t>2510</t>
-  </si>
-  <si>
-    <t>2511</t>
-  </si>
-  <si>
-    <t>2512</t>
-  </si>
-  <si>
-    <t>2513</t>
-  </si>
-  <si>
-    <t>2514</t>
-  </si>
-  <si>
-    <t>2515</t>
-  </si>
-  <si>
-    <t>2516</t>
-  </si>
-  <si>
-    <t>2517</t>
-  </si>
-  <si>
-    <t>2518</t>
-  </si>
-  <si>
-    <t>2519</t>
-  </si>
-  <si>
-    <t>2520</t>
-  </si>
-  <si>
-    <t>2521</t>
-  </si>
-  <si>
-    <t>2522</t>
-  </si>
-  <si>
-    <t>2523</t>
-  </si>
-  <si>
-    <t>2524</t>
-  </si>
-  <si>
-    <t>2525</t>
-  </si>
-  <si>
-    <t>2526</t>
-  </si>
-  <si>
-    <t>2527</t>
-  </si>
-  <si>
-    <t>2528</t>
-  </si>
-  <si>
-    <t>2529</t>
-  </si>
-  <si>
-    <t>2530</t>
-  </si>
-  <si>
-    <t>2531</t>
-  </si>
-  <si>
-    <t>2532</t>
-  </si>
-  <si>
-    <t>2533</t>
-  </si>
-  <si>
-    <t>2534</t>
-  </si>
-  <si>
-    <t>2535</t>
-  </si>
-  <si>
-    <t>2536</t>
-  </si>
-  <si>
-    <t>2537</t>
-  </si>
-  <si>
-    <t>2538</t>
-  </si>
-  <si>
-    <t>2539</t>
-  </si>
-  <si>
-    <t>2540</t>
-  </si>
-  <si>
-    <t>2541</t>
-  </si>
-  <si>
-    <t>2542</t>
-  </si>
-  <si>
-    <t>2543</t>
-  </si>
-  <si>
-    <t>2544</t>
-  </si>
-  <si>
-    <t>2545</t>
-  </si>
-  <si>
-    <t>2546</t>
-  </si>
-  <si>
-    <t>2547</t>
-  </si>
-  <si>
-    <t>2548</t>
-  </si>
-  <si>
-    <t>2549</t>
-  </si>
-  <si>
-    <t>2550</t>
-  </si>
-  <si>
-    <t>2551</t>
-  </si>
-  <si>
-    <t>2552</t>
-  </si>
-  <si>
-    <t>2553</t>
-  </si>
-  <si>
-    <t>2554</t>
-  </si>
-  <si>
-    <t>2555</t>
-  </si>
-  <si>
-    <t>2556</t>
-  </si>
-  <si>
-    <t>2557</t>
-  </si>
-  <si>
-    <t>2558</t>
-  </si>
-  <si>
-    <t>2559</t>
-  </si>
-  <si>
-    <t>2560</t>
-  </si>
-  <si>
-    <t>2561</t>
-  </si>
-  <si>
-    <t>2562</t>
-  </si>
-  <si>
-    <t>2563</t>
-  </si>
-  <si>
-    <t>2564</t>
-  </si>
-  <si>
-    <t>2565</t>
-  </si>
-  <si>
-    <t>2566</t>
-  </si>
-  <si>
-    <t>2567</t>
-  </si>
-  <si>
-    <t>2568</t>
-  </si>
-  <si>
-    <t>2569</t>
-  </si>
-  <si>
-    <t>2570</t>
-  </si>
-  <si>
-    <t>2571</t>
-  </si>
-  <si>
-    <t>2572</t>
-  </si>
-  <si>
-    <t>2573</t>
-  </si>
-  <si>
-    <t>2574</t>
-  </si>
-  <si>
-    <t>2575</t>
-  </si>
-  <si>
-    <t>2576</t>
-  </si>
-  <si>
-    <t>2577</t>
-  </si>
-  <si>
-    <t>2578</t>
-  </si>
-  <si>
-    <t>2579</t>
-  </si>
-  <si>
-    <t>2580</t>
-  </si>
-  <si>
-    <t>2581</t>
-  </si>
-  <si>
-    <t>2582</t>
-  </si>
-  <si>
-    <t>2583</t>
-  </si>
-  <si>
-    <t>2584</t>
-  </si>
-  <si>
-    <t>2585</t>
-  </si>
-  <si>
-    <t>2586</t>
-  </si>
-  <si>
-    <t>2587</t>
-  </si>
-  <si>
-    <t>2588</t>
-  </si>
-  <si>
-    <t>2589</t>
-  </si>
-  <si>
-    <t>2590</t>
-  </si>
-  <si>
-    <t>2591</t>
-  </si>
-  <si>
-    <t>2592</t>
-  </si>
-  <si>
-    <t>2593</t>
-  </si>
-  <si>
-    <t>2594</t>
-  </si>
-  <si>
-    <t>2595</t>
-  </si>
-  <si>
-    <t>2596</t>
-  </si>
-  <si>
-    <t>2597</t>
-  </si>
-  <si>
-    <t>2598</t>
-  </si>
-  <si>
-    <t>2599</t>
-  </si>
-  <si>
-    <t>2600</t>
-  </si>
-  <si>
-    <t>2601</t>
-  </si>
-  <si>
-    <t>2602</t>
-  </si>
-  <si>
-    <t>2603</t>
-  </si>
-  <si>
-    <t>2604</t>
-  </si>
-  <si>
-    <t>2605</t>
-  </si>
-  <si>
-    <t>2606</t>
-  </si>
-  <si>
-    <t>2607</t>
-  </si>
-  <si>
-    <t>2608</t>
-  </si>
-  <si>
-    <t>2609</t>
-  </si>
-  <si>
-    <t>2610</t>
-  </si>
-  <si>
-    <t>2611</t>
-  </si>
-  <si>
-    <t>2612</t>
-  </si>
-  <si>
-    <t>2613</t>
-  </si>
-  <si>
-    <t>2614</t>
-  </si>
-  <si>
-    <t>2615</t>
-  </si>
-  <si>
-    <t>2616</t>
-  </si>
-  <si>
-    <t>2617</t>
-  </si>
-  <si>
-    <t>2618</t>
-  </si>
-  <si>
-    <t>2619</t>
-  </si>
-  <si>
-    <t>2620</t>
-  </si>
-  <si>
-    <t>2621</t>
-  </si>
-  <si>
-    <t>2622</t>
-  </si>
-  <si>
-    <t>2623</t>
-  </si>
-  <si>
-    <t>2624</t>
-  </si>
-  <si>
-    <t>2625</t>
-  </si>
-  <si>
-    <t>2626</t>
-  </si>
-  <si>
-    <t>2627</t>
-  </si>
-  <si>
-    <t>2628</t>
-  </si>
-  <si>
-    <t>2629</t>
-  </si>
-  <si>
-    <t>2630</t>
-  </si>
-  <si>
-    <t>2631</t>
-  </si>
-  <si>
-    <t>2632</t>
-  </si>
-  <si>
-    <t>2633</t>
-  </si>
-  <si>
-    <t>2634</t>
-  </si>
-  <si>
-    <t>2635</t>
-  </si>
-  <si>
-    <t>2636</t>
-  </si>
-  <si>
-    <t>2637</t>
-  </si>
-  <si>
-    <t>2638</t>
-  </si>
-  <si>
-    <t>2639</t>
-  </si>
-  <si>
-    <t>2640</t>
-  </si>
-  <si>
-    <t>2641</t>
-  </si>
-  <si>
-    <t>2642</t>
-  </si>
-  <si>
-    <t>2643</t>
-  </si>
-  <si>
-    <t>2644</t>
-  </si>
-  <si>
-    <t>2645</t>
-  </si>
-  <si>
-    <t>2646</t>
-  </si>
-  <si>
-    <t>2647</t>
-  </si>
-  <si>
-    <t>2648</t>
-  </si>
-  <si>
-    <t>2649</t>
-  </si>
-  <si>
-    <t>2650</t>
-  </si>
-  <si>
-    <t>2651</t>
-  </si>
-  <si>
-    <t>2652</t>
-  </si>
-  <si>
-    <t>2653</t>
-  </si>
-  <si>
-    <t>2654</t>
-  </si>
-  <si>
-    <t>2655</t>
-  </si>
-  <si>
-    <t>2656</t>
-  </si>
-  <si>
-    <t>2657</t>
-  </si>
-  <si>
-    <t>2658</t>
-  </si>
-  <si>
-    <t>2659</t>
-  </si>
-  <si>
-    <t>2660</t>
-  </si>
-  <si>
-    <t>2661</t>
-  </si>
-  <si>
-    <t>2662</t>
-  </si>
-  <si>
-    <t>2663</t>
-  </si>
-  <si>
-    <t>2664</t>
-  </si>
-  <si>
-    <t>2665</t>
-  </si>
-  <si>
-    <t>2666</t>
-  </si>
-  <si>
-    <t>2667</t>
-  </si>
-  <si>
-    <t>2668</t>
-  </si>
-  <si>
-    <t>2669</t>
-  </si>
-  <si>
-    <t>2670</t>
-  </si>
-  <si>
-    <t>2671</t>
-  </si>
-  <si>
-    <t>2672</t>
-  </si>
-  <si>
-    <t>2673</t>
-  </si>
-  <si>
-    <t>2674</t>
-  </si>
-  <si>
-    <t>2675</t>
-  </si>
-  <si>
-    <t>2676</t>
-  </si>
-  <si>
-    <t>2677</t>
-  </si>
-  <si>
-    <t>2678</t>
-  </si>
-  <si>
-    <t>2679</t>
-  </si>
-  <si>
-    <t>2680</t>
-  </si>
-  <si>
-    <t>2681</t>
-  </si>
-  <si>
-    <t>2682</t>
-  </si>
-  <si>
-    <t>2683</t>
-  </si>
-  <si>
-    <t>2684</t>
-  </si>
-  <si>
-    <t>2685</t>
-  </si>
-  <si>
-    <t>2686</t>
-  </si>
-  <si>
-    <t>2687</t>
-  </si>
-  <si>
-    <t>2688</t>
-  </si>
-  <si>
-    <t>2689</t>
-  </si>
-  <si>
-    <t>2690</t>
-  </si>
-  <si>
-    <t>2691</t>
-  </si>
-  <si>
-    <t>2692</t>
-  </si>
-  <si>
-    <t>2693</t>
-  </si>
-  <si>
-    <t>2694</t>
-  </si>
-  <si>
-    <t>2695</t>
-  </si>
-  <si>
-    <t>2696</t>
-  </si>
-  <si>
-    <t>2697</t>
-  </si>
-  <si>
-    <t>2698</t>
-  </si>
-  <si>
-    <t>2699</t>
-  </si>
-  <si>
-    <t>2700</t>
-  </si>
-  <si>
-    <t>2701</t>
-  </si>
-  <si>
-    <t>2702</t>
-  </si>
-  <si>
-    <t>2703</t>
-  </si>
-  <si>
-    <t>2704</t>
-  </si>
-  <si>
-    <t>2705</t>
-  </si>
-  <si>
-    <t>2706</t>
-  </si>
-  <si>
-    <t>2707</t>
-  </si>
-  <si>
-    <t>2708</t>
-  </si>
-  <si>
-    <t>2709</t>
-  </si>
-  <si>
-    <t>2710</t>
-  </si>
-  <si>
-    <t>2711</t>
-  </si>
-  <si>
-    <t>2712</t>
-  </si>
-  <si>
-    <t>2713</t>
-  </si>
-  <si>
-    <t>2714</t>
-  </si>
-  <si>
-    <t>2715</t>
-  </si>
-  <si>
-    <t>2716</t>
-  </si>
-  <si>
-    <t>2717</t>
-  </si>
-  <si>
-    <t>2718</t>
-  </si>
-  <si>
-    <t>2719</t>
-  </si>
-  <si>
-    <t>2720</t>
-  </si>
-  <si>
-    <t>2721</t>
-  </si>
-  <si>
-    <t>2722</t>
-  </si>
-  <si>
-    <t>2723</t>
-  </si>
-  <si>
-    <t>2724</t>
-  </si>
-  <si>
-    <t>2725</t>
-  </si>
-  <si>
-    <t>2726</t>
-  </si>
-  <si>
-    <t>2727</t>
-  </si>
-  <si>
-    <t>2728</t>
-  </si>
-  <si>
-    <t>2729</t>
-  </si>
-  <si>
-    <t>2730</t>
-  </si>
-  <si>
-    <t>2731</t>
-  </si>
-  <si>
-    <t>2732</t>
-  </si>
-  <si>
-    <t>2733</t>
-  </si>
-  <si>
-    <t>2734</t>
-  </si>
-  <si>
-    <t>2735</t>
-  </si>
-  <si>
-    <t>2736</t>
-  </si>
-  <si>
-    <t>2737</t>
-  </si>
-  <si>
-    <t>2738</t>
-  </si>
-  <si>
-    <t>2739</t>
-  </si>
-  <si>
-    <t>2740</t>
-  </si>
-  <si>
-    <t>2741</t>
-  </si>
-  <si>
-    <t>2742</t>
-  </si>
-  <si>
-    <t>2743</t>
-  </si>
-  <si>
-    <t>2744</t>
-  </si>
-  <si>
-    <t>2745</t>
-  </si>
-  <si>
-    <t>2746</t>
-  </si>
-  <si>
-    <t>2747</t>
-  </si>
-  <si>
-    <t>2748</t>
-  </si>
-  <si>
-    <t>2749</t>
-  </si>
-  <si>
-    <t>2750</t>
-  </si>
-  <si>
-    <t>2751</t>
-  </si>
-  <si>
-    <t>2752</t>
-  </si>
-  <si>
-    <t>2753</t>
-  </si>
-  <si>
-    <t>2754</t>
-  </si>
-  <si>
-    <t>2755</t>
-  </si>
-  <si>
-    <t>2756</t>
-  </si>
-  <si>
-    <t>2757</t>
-  </si>
-  <si>
-    <t>2758</t>
-  </si>
-  <si>
-    <t>2759</t>
-  </si>
-  <si>
-    <t>2760</t>
-  </si>
-  <si>
-    <t>2761</t>
-  </si>
-  <si>
-    <t>2762</t>
-  </si>
-  <si>
-    <t>2763</t>
-  </si>
-  <si>
-    <t>2764</t>
-  </si>
-  <si>
-    <t>2765</t>
-  </si>
-  <si>
-    <t>2766</t>
-  </si>
-  <si>
-    <t>2767</t>
-  </si>
-  <si>
-    <t>2768</t>
-  </si>
-  <si>
-    <t>2769</t>
-  </si>
-  <si>
-    <t>2770</t>
-  </si>
-  <si>
-    <t>2771</t>
-  </si>
-  <si>
-    <t>2772</t>
-  </si>
-  <si>
-    <t>2773</t>
-  </si>
-  <si>
-    <t>2774</t>
-  </si>
-  <si>
-    <t>2775</t>
-  </si>
-  <si>
-    <t>2776</t>
-  </si>
-  <si>
-    <t>2777</t>
-  </si>
-  <si>
-    <t>2778</t>
-  </si>
-  <si>
-    <t>2779</t>
-  </si>
-  <si>
-    <t>2780</t>
-  </si>
-  <si>
-    <t>2781</t>
-  </si>
-  <si>
-    <t>2782</t>
-  </si>
-  <si>
-    <t>2783</t>
-  </si>
-  <si>
-    <t>2784</t>
-  </si>
-  <si>
-    <t>2785</t>
-  </si>
-  <si>
-    <t>2786</t>
-  </si>
-  <si>
-    <t>2787</t>
-  </si>
-  <si>
-    <t>2788</t>
-  </si>
-  <si>
-    <t>2789</t>
-  </si>
-  <si>
-    <t>2790</t>
-  </si>
-  <si>
-    <t>2791</t>
-  </si>
-  <si>
-    <t>2792</t>
-  </si>
-  <si>
-    <t>2793</t>
-  </si>
-  <si>
-    <t>2794</t>
-  </si>
-  <si>
-    <t>2795</t>
-  </si>
-  <si>
-    <t>2796</t>
-  </si>
-  <si>
-    <t>2797</t>
-  </si>
-  <si>
-    <t>2798</t>
-  </si>
-  <si>
-    <t>2799</t>
-  </si>
-  <si>
-    <t>2800</t>
-  </si>
-  <si>
-    <t>2801</t>
-  </si>
-  <si>
-    <t>2802</t>
-  </si>
-  <si>
-    <t>2803</t>
-  </si>
-  <si>
-    <t>2804</t>
-  </si>
-  <si>
-    <t>2805</t>
-  </si>
-  <si>
-    <t>2806</t>
-  </si>
-  <si>
-    <t>2807</t>
-  </si>
-  <si>
-    <t>2808</t>
-  </si>
-  <si>
-    <t>2809</t>
-  </si>
-  <si>
-    <t>2810</t>
-  </si>
-  <si>
-    <t>2811</t>
-  </si>
-  <si>
-    <t>2812</t>
-  </si>
-  <si>
-    <t>2813</t>
-  </si>
-  <si>
-    <t>2814</t>
-  </si>
-  <si>
-    <t>2815</t>
-  </si>
-  <si>
-    <t>2816</t>
-  </si>
-  <si>
-    <t>2817</t>
-  </si>
-  <si>
-    <t>2818</t>
-  </si>
-  <si>
-    <t>2819</t>
-  </si>
-  <si>
-    <t>2820</t>
-  </si>
-  <si>
-    <t>2821</t>
-  </si>
-  <si>
-    <t>2822</t>
-  </si>
-  <si>
-    <t>2823</t>
-  </si>
-  <si>
-    <t>2824</t>
-  </si>
-  <si>
-    <t>2825</t>
-  </si>
-  <si>
-    <t>2826</t>
-  </si>
-  <si>
-    <t>2827</t>
-  </si>
-  <si>
-    <t>2828</t>
-  </si>
-  <si>
-    <t>2829</t>
-  </si>
-  <si>
-    <t>2830</t>
-  </si>
-  <si>
-    <t>2831</t>
-  </si>
-  <si>
-    <t>2832</t>
-  </si>
-  <si>
-    <t>2833</t>
-  </si>
-  <si>
-    <t>2834</t>
-  </si>
-  <si>
-    <t>2835</t>
-  </si>
-  <si>
-    <t>2836</t>
-  </si>
-  <si>
-    <t>2837</t>
-  </si>
-  <si>
-    <t>2838</t>
-  </si>
-  <si>
-    <t>2839</t>
-  </si>
-  <si>
-    <t>2840</t>
-  </si>
-  <si>
-    <t>2841</t>
-  </si>
-  <si>
-    <t>2842</t>
-  </si>
-  <si>
-    <t>2843</t>
-  </si>
-  <si>
-    <t>2844</t>
-  </si>
-  <si>
-    <t>2845</t>
-  </si>
-  <si>
-    <t>2846</t>
-  </si>
-  <si>
-    <t>2847</t>
-  </si>
-  <si>
-    <t>2848</t>
-  </si>
-  <si>
-    <t>2849</t>
-  </si>
-  <si>
-    <t>2850</t>
-  </si>
-  <si>
-    <t>2851</t>
-  </si>
-  <si>
-    <t>2852</t>
-  </si>
-  <si>
-    <t>2853</t>
-  </si>
-  <si>
-    <t>2854</t>
-  </si>
-  <si>
-    <t>2855</t>
-  </si>
-  <si>
-    <t>2856</t>
-  </si>
-  <si>
-    <t>2857</t>
-  </si>
-  <si>
-    <t>2858</t>
-  </si>
-  <si>
-    <t>2859</t>
-  </si>
-  <si>
-    <t>2860</t>
-  </si>
-  <si>
-    <t>2861</t>
-  </si>
-  <si>
-    <t>2862</t>
-  </si>
-  <si>
-    <t>2863</t>
-  </si>
-  <si>
-    <t>2864</t>
-  </si>
-  <si>
-    <t>2865</t>
-  </si>
-  <si>
-    <t>2866</t>
-  </si>
-  <si>
-    <t>2867</t>
-  </si>
-  <si>
-    <t>2868</t>
-  </si>
-  <si>
-    <t>2869</t>
-  </si>
-  <si>
-    <t>2870</t>
-  </si>
-  <si>
-    <t>2871</t>
-  </si>
-  <si>
-    <t>2872</t>
-  </si>
-  <si>
-    <t>2873</t>
-  </si>
-  <si>
-    <t>2874</t>
-  </si>
-  <si>
-    <t>2875</t>
-  </si>
-  <si>
-    <t>2876</t>
-  </si>
-  <si>
-    <t>2877</t>
-  </si>
-  <si>
-    <t>2878</t>
-  </si>
-  <si>
-    <t>2879</t>
-  </si>
-  <si>
-    <t>2880</t>
-  </si>
-  <si>
-    <t>2881</t>
-  </si>
-  <si>
-    <t>2882</t>
-  </si>
-  <si>
-    <t>2883</t>
-  </si>
-  <si>
-    <t>2884</t>
-  </si>
-  <si>
-    <t>2885</t>
-  </si>
-  <si>
-    <t>2886</t>
-  </si>
-  <si>
-    <t>2887</t>
-  </si>
-  <si>
-    <t>2888</t>
-  </si>
-  <si>
-    <t>2889</t>
-  </si>
-  <si>
-    <t>2890</t>
-  </si>
-  <si>
-    <t>2891</t>
-  </si>
-  <si>
-    <t>2892</t>
-  </si>
-  <si>
-    <t>2893</t>
-  </si>
-  <si>
-    <t>2894</t>
-  </si>
-  <si>
-    <t>2895</t>
-  </si>
-  <si>
-    <t>2896</t>
-  </si>
-  <si>
-    <t>2897</t>
-  </si>
-  <si>
-    <t>2898</t>
-  </si>
-  <si>
-    <t>2899</t>
-  </si>
-  <si>
-    <t>2900</t>
-  </si>
-  <si>
-    <t>2901</t>
-  </si>
-  <si>
-    <t>2902</t>
-  </si>
-  <si>
-    <t>2903</t>
-  </si>
-  <si>
-    <t>2904</t>
-  </si>
-  <si>
-    <t>2905</t>
-  </si>
-  <si>
-    <t>2906</t>
-  </si>
-  <si>
-    <t>2907</t>
-  </si>
-  <si>
-    <t>2908</t>
-  </si>
-  <si>
-    <t>2909</t>
-  </si>
-  <si>
-    <t>2910</t>
-  </si>
-  <si>
-    <t>2911</t>
-  </si>
-  <si>
-    <t>2912</t>
-  </si>
-  <si>
-    <t>2913</t>
-  </si>
-  <si>
-    <t>2914</t>
-  </si>
-  <si>
-    <t>2915</t>
-  </si>
-  <si>
-    <t>2916</t>
-  </si>
-  <si>
-    <t>2917</t>
-  </si>
-  <si>
-    <t>2918</t>
-  </si>
-  <si>
-    <t>2919</t>
-  </si>
-  <si>
-    <t>2920</t>
-  </si>
-  <si>
-    <t>2921</t>
-  </si>
-  <si>
-    <t>2922</t>
-  </si>
-  <si>
-    <t>2923</t>
-  </si>
-  <si>
-    <t>2924</t>
-  </si>
-  <si>
-    <t>2925</t>
-  </si>
-  <si>
-    <t>2926</t>
-  </si>
-  <si>
-    <t>2927</t>
-  </si>
-  <si>
-    <t>2928</t>
-  </si>
-  <si>
-    <t>2929</t>
-  </si>
-  <si>
-    <t>2930</t>
-  </si>
-  <si>
-    <t>2931</t>
-  </si>
-  <si>
-    <t>2932</t>
-  </si>
-  <si>
-    <t>2933</t>
-  </si>
-  <si>
-    <t>2934</t>
-  </si>
-  <si>
-    <t>2935</t>
-  </si>
-  <si>
-    <t>2936</t>
-  </si>
-  <si>
-    <t>2937</t>
-  </si>
-  <si>
-    <t>2938</t>
-  </si>
-  <si>
-    <t>2939</t>
-  </si>
-  <si>
-    <t>2940</t>
-  </si>
-  <si>
-    <t>2941</t>
-  </si>
-  <si>
-    <t>2942</t>
-  </si>
-  <si>
-    <t>2943</t>
-  </si>
-  <si>
-    <t>2944</t>
-  </si>
-  <si>
-    <t>2945</t>
-  </si>
-  <si>
-    <t>2946</t>
-  </si>
-  <si>
-    <t>2947</t>
-  </si>
-  <si>
-    <t>2948</t>
-  </si>
-  <si>
-    <t>2949</t>
-  </si>
-  <si>
-    <t>2950</t>
-  </si>
-  <si>
-    <t>2951</t>
-  </si>
-  <si>
-    <t>2952</t>
-  </si>
-  <si>
-    <t>2953</t>
-  </si>
-  <si>
-    <t>2954</t>
-  </si>
-  <si>
-    <t>2955</t>
-  </si>
-  <si>
-    <t>2956</t>
-  </si>
-  <si>
-    <t>2957</t>
-  </si>
-  <si>
-    <t>2958</t>
-  </si>
-  <si>
-    <t>2959</t>
-  </si>
-  <si>
-    <t>2960</t>
-  </si>
-  <si>
-    <t>2961</t>
-  </si>
-  <si>
-    <t>2962</t>
-  </si>
-  <si>
-    <t>2963</t>
-  </si>
-  <si>
-    <t>2964</t>
-  </si>
-  <si>
-    <t>2965</t>
-  </si>
-  <si>
-    <t>2966</t>
-  </si>
-  <si>
-    <t>2967</t>
-  </si>
-  <si>
-    <t>2968</t>
-  </si>
-  <si>
-    <t>2969</t>
-  </si>
-  <si>
-    <t>2970</t>
-  </si>
-  <si>
-    <t>2971</t>
-  </si>
-  <si>
-    <t>2972</t>
-  </si>
-  <si>
-    <t>2973</t>
-  </si>
-  <si>
-    <t>2974</t>
-  </si>
-  <si>
-    <t>2975</t>
-  </si>
-  <si>
-    <t>2976</t>
-  </si>
-  <si>
-    <t>2977</t>
-  </si>
-  <si>
-    <t>2978</t>
-  </si>
-  <si>
-    <t>2979</t>
-  </si>
-  <si>
-    <t>2980</t>
-  </si>
-  <si>
-    <t>2981</t>
-  </si>
-  <si>
-    <t>2982</t>
-  </si>
-  <si>
-    <t>2983</t>
-  </si>
-  <si>
-    <t>2984</t>
-  </si>
-  <si>
-    <t>2985</t>
-  </si>
-  <si>
-    <t>2986</t>
-  </si>
-  <si>
-    <t>2987</t>
-  </si>
-  <si>
-    <t>2988</t>
-  </si>
-  <si>
-    <t>2989</t>
-  </si>
-  <si>
-    <t>2990</t>
-  </si>
-  <si>
-    <t>2991</t>
-  </si>
-  <si>
-    <t>2992</t>
-  </si>
-  <si>
-    <t>2993</t>
-  </si>
-  <si>
-    <t>2994</t>
-  </si>
-  <si>
-    <t>2995</t>
-  </si>
-  <si>
-    <t>2996</t>
-  </si>
-  <si>
-    <t>2997</t>
-  </si>
-  <si>
-    <t>2998</t>
-  </si>
-  <si>
-    <t>2999</t>
-  </si>
-  <si>
-    <t>3000</t>
+    <t>9001</t>
+  </si>
+  <si>
+    <t>9002</t>
+  </si>
+  <si>
+    <t>9003</t>
+  </si>
+  <si>
+    <t>9004</t>
+  </si>
+  <si>
+    <t>9005</t>
+  </si>
+  <si>
+    <t>9006</t>
+  </si>
+  <si>
+    <t>9007</t>
+  </si>
+  <si>
+    <t>9008</t>
+  </si>
+  <si>
+    <t>9009</t>
+  </si>
+  <si>
+    <t>9010</t>
+  </si>
+  <si>
+    <t>9011</t>
+  </si>
+  <si>
+    <t>9012</t>
+  </si>
+  <si>
+    <t>9013</t>
+  </si>
+  <si>
+    <t>9014</t>
+  </si>
+  <si>
+    <t>9015</t>
+  </si>
+  <si>
+    <t>9016</t>
+  </si>
+  <si>
+    <t>9017</t>
+  </si>
+  <si>
+    <t>9018</t>
+  </si>
+  <si>
+    <t>9019</t>
+  </si>
+  <si>
+    <t>9020</t>
+  </si>
+  <si>
+    <t>9021</t>
+  </si>
+  <si>
+    <t>9022</t>
+  </si>
+  <si>
+    <t>9023</t>
+  </si>
+  <si>
+    <t>9024</t>
+  </si>
+  <si>
+    <t>9025</t>
+  </si>
+  <si>
+    <t>9026</t>
+  </si>
+  <si>
+    <t>9027</t>
+  </si>
+  <si>
+    <t>9028</t>
+  </si>
+  <si>
+    <t>9029</t>
+  </si>
+  <si>
+    <t>9030</t>
+  </si>
+  <si>
+    <t>9031</t>
+  </si>
+  <si>
+    <t>9032</t>
+  </si>
+  <si>
+    <t>9033</t>
+  </si>
+  <si>
+    <t>9034</t>
+  </si>
+  <si>
+    <t>9035</t>
+  </si>
+  <si>
+    <t>9036</t>
+  </si>
+  <si>
+    <t>9037</t>
+  </si>
+  <si>
+    <t>9038</t>
+  </si>
+  <si>
+    <t>9039</t>
+  </si>
+  <si>
+    <t>9040</t>
+  </si>
+  <si>
+    <t>9041</t>
+  </si>
+  <si>
+    <t>9042</t>
+  </si>
+  <si>
+    <t>9043</t>
+  </si>
+  <si>
+    <t>9044</t>
+  </si>
+  <si>
+    <t>9045</t>
+  </si>
+  <si>
+    <t>9046</t>
+  </si>
+  <si>
+    <t>9047</t>
+  </si>
+  <si>
+    <t>9048</t>
+  </si>
+  <si>
+    <t>9049</t>
+  </si>
+  <si>
+    <t>9050</t>
+  </si>
+  <si>
+    <t>9051</t>
+  </si>
+  <si>
+    <t>9052</t>
+  </si>
+  <si>
+    <t>9053</t>
+  </si>
+  <si>
+    <t>9054</t>
+  </si>
+  <si>
+    <t>9055</t>
+  </si>
+  <si>
+    <t>9056</t>
+  </si>
+  <si>
+    <t>9057</t>
+  </si>
+  <si>
+    <t>9058</t>
+  </si>
+  <si>
+    <t>9059</t>
+  </si>
+  <si>
+    <t>9060</t>
+  </si>
+  <si>
+    <t>9061</t>
+  </si>
+  <si>
+    <t>9062</t>
+  </si>
+  <si>
+    <t>9063</t>
+  </si>
+  <si>
+    <t>9064</t>
+  </si>
+  <si>
+    <t>9065</t>
+  </si>
+  <si>
+    <t>9066</t>
+  </si>
+  <si>
+    <t>9067</t>
+  </si>
+  <si>
+    <t>9068</t>
+  </si>
+  <si>
+    <t>9069</t>
+  </si>
+  <si>
+    <t>9070</t>
+  </si>
+  <si>
+    <t>9071</t>
+  </si>
+  <si>
+    <t>9072</t>
+  </si>
+  <si>
+    <t>9073</t>
+  </si>
+  <si>
+    <t>9074</t>
+  </si>
+  <si>
+    <t>9075</t>
+  </si>
+  <si>
+    <t>9076</t>
+  </si>
+  <si>
+    <t>9077</t>
+  </si>
+  <si>
+    <t>9078</t>
+  </si>
+  <si>
+    <t>9079</t>
+  </si>
+  <si>
+    <t>9080</t>
+  </si>
+  <si>
+    <t>9081</t>
+  </si>
+  <si>
+    <t>9082</t>
+  </si>
+  <si>
+    <t>9083</t>
+  </si>
+  <si>
+    <t>9084</t>
+  </si>
+  <si>
+    <t>9085</t>
+  </si>
+  <si>
+    <t>9086</t>
+  </si>
+  <si>
+    <t>9087</t>
+  </si>
+  <si>
+    <t>9088</t>
+  </si>
+  <si>
+    <t>9089</t>
+  </si>
+  <si>
+    <t>9090</t>
+  </si>
+  <si>
+    <t>9091</t>
+  </si>
+  <si>
+    <t>9092</t>
+  </si>
+  <si>
+    <t>9093</t>
+  </si>
+  <si>
+    <t>9094</t>
+  </si>
+  <si>
+    <t>9095</t>
+  </si>
+  <si>
+    <t>9096</t>
+  </si>
+  <si>
+    <t>9097</t>
+  </si>
+  <si>
+    <t>9098</t>
+  </si>
+  <si>
+    <t>9099</t>
+  </si>
+  <si>
+    <t>9100</t>
+  </si>
+  <si>
+    <t>9101</t>
+  </si>
+  <si>
+    <t>9102</t>
+  </si>
+  <si>
+    <t>9103</t>
+  </si>
+  <si>
+    <t>9104</t>
+  </si>
+  <si>
+    <t>9105</t>
+  </si>
+  <si>
+    <t>9106</t>
+  </si>
+  <si>
+    <t>9107</t>
+  </si>
+  <si>
+    <t>9108</t>
+  </si>
+  <si>
+    <t>9109</t>
+  </si>
+  <si>
+    <t>9110</t>
+  </si>
+  <si>
+    <t>9111</t>
+  </si>
+  <si>
+    <t>9112</t>
+  </si>
+  <si>
+    <t>9113</t>
+  </si>
+  <si>
+    <t>9114</t>
+  </si>
+  <si>
+    <t>9115</t>
+  </si>
+  <si>
+    <t>9116</t>
+  </si>
+  <si>
+    <t>9117</t>
+  </si>
+  <si>
+    <t>9118</t>
+  </si>
+  <si>
+    <t>9119</t>
+  </si>
+  <si>
+    <t>9120</t>
+  </si>
+  <si>
+    <t>9121</t>
+  </si>
+  <si>
+    <t>9122</t>
+  </si>
+  <si>
+    <t>9123</t>
+  </si>
+  <si>
+    <t>9124</t>
+  </si>
+  <si>
+    <t>9125</t>
+  </si>
+  <si>
+    <t>9126</t>
+  </si>
+  <si>
+    <t>9127</t>
+  </si>
+  <si>
+    <t>9128</t>
+  </si>
+  <si>
+    <t>9129</t>
+  </si>
+  <si>
+    <t>9130</t>
+  </si>
+  <si>
+    <t>9131</t>
+  </si>
+  <si>
+    <t>9132</t>
+  </si>
+  <si>
+    <t>9133</t>
+  </si>
+  <si>
+    <t>9134</t>
+  </si>
+  <si>
+    <t>9135</t>
+  </si>
+  <si>
+    <t>9136</t>
+  </si>
+  <si>
+    <t>9137</t>
+  </si>
+  <si>
+    <t>9138</t>
+  </si>
+  <si>
+    <t>9139</t>
+  </si>
+  <si>
+    <t>9140</t>
+  </si>
+  <si>
+    <t>9141</t>
+  </si>
+  <si>
+    <t>9142</t>
+  </si>
+  <si>
+    <t>9143</t>
+  </si>
+  <si>
+    <t>9144</t>
+  </si>
+  <si>
+    <t>9145</t>
+  </si>
+  <si>
+    <t>9146</t>
+  </si>
+  <si>
+    <t>9147</t>
+  </si>
+  <si>
+    <t>9148</t>
+  </si>
+  <si>
+    <t>9149</t>
+  </si>
+  <si>
+    <t>9150</t>
+  </si>
+  <si>
+    <t>9151</t>
+  </si>
+  <si>
+    <t>9152</t>
+  </si>
+  <si>
+    <t>9153</t>
+  </si>
+  <si>
+    <t>9154</t>
+  </si>
+  <si>
+    <t>9155</t>
+  </si>
+  <si>
+    <t>9156</t>
+  </si>
+  <si>
+    <t>9157</t>
+  </si>
+  <si>
+    <t>9158</t>
+  </si>
+  <si>
+    <t>9159</t>
+  </si>
+  <si>
+    <t>9160</t>
+  </si>
+  <si>
+    <t>9161</t>
+  </si>
+  <si>
+    <t>9162</t>
+  </si>
+  <si>
+    <t>9163</t>
+  </si>
+  <si>
+    <t>9164</t>
+  </si>
+  <si>
+    <t>9165</t>
+  </si>
+  <si>
+    <t>9166</t>
+  </si>
+  <si>
+    <t>9167</t>
+  </si>
+  <si>
+    <t>9168</t>
+  </si>
+  <si>
+    <t>9169</t>
+  </si>
+  <si>
+    <t>9170</t>
+  </si>
+  <si>
+    <t>9171</t>
+  </si>
+  <si>
+    <t>9172</t>
+  </si>
+  <si>
+    <t>9173</t>
+  </si>
+  <si>
+    <t>9174</t>
+  </si>
+  <si>
+    <t>9175</t>
+  </si>
+  <si>
+    <t>9176</t>
+  </si>
+  <si>
+    <t>9177</t>
+  </si>
+  <si>
+    <t>9178</t>
+  </si>
+  <si>
+    <t>9179</t>
+  </si>
+  <si>
+    <t>9180</t>
+  </si>
+  <si>
+    <t>9181</t>
+  </si>
+  <si>
+    <t>9182</t>
+  </si>
+  <si>
+    <t>9183</t>
+  </si>
+  <si>
+    <t>9184</t>
+  </si>
+  <si>
+    <t>9185</t>
+  </si>
+  <si>
+    <t>9186</t>
+  </si>
+  <si>
+    <t>9187</t>
+  </si>
+  <si>
+    <t>9188</t>
+  </si>
+  <si>
+    <t>9189</t>
+  </si>
+  <si>
+    <t>9190</t>
+  </si>
+  <si>
+    <t>9191</t>
+  </si>
+  <si>
+    <t>9192</t>
+  </si>
+  <si>
+    <t>9193</t>
+  </si>
+  <si>
+    <t>9194</t>
+  </si>
+  <si>
+    <t>9195</t>
+  </si>
+  <si>
+    <t>9196</t>
+  </si>
+  <si>
+    <t>9197</t>
+  </si>
+  <si>
+    <t>9198</t>
+  </si>
+  <si>
+    <t>9199</t>
+  </si>
+  <si>
+    <t>9200</t>
+  </si>
+  <si>
+    <t>9201</t>
+  </si>
+  <si>
+    <t>9202</t>
+  </si>
+  <si>
+    <t>9203</t>
+  </si>
+  <si>
+    <t>9204</t>
+  </si>
+  <si>
+    <t>9205</t>
+  </si>
+  <si>
+    <t>9206</t>
+  </si>
+  <si>
+    <t>9207</t>
+  </si>
+  <si>
+    <t>9208</t>
+  </si>
+  <si>
+    <t>9209</t>
+  </si>
+  <si>
+    <t>9210</t>
+  </si>
+  <si>
+    <t>9211</t>
+  </si>
+  <si>
+    <t>9212</t>
+  </si>
+  <si>
+    <t>9213</t>
+  </si>
+  <si>
+    <t>9214</t>
+  </si>
+  <si>
+    <t>9215</t>
+  </si>
+  <si>
+    <t>9216</t>
+  </si>
+  <si>
+    <t>9217</t>
+  </si>
+  <si>
+    <t>9218</t>
+  </si>
+  <si>
+    <t>9219</t>
+  </si>
+  <si>
+    <t>9220</t>
+  </si>
+  <si>
+    <t>9221</t>
+  </si>
+  <si>
+    <t>9222</t>
+  </si>
+  <si>
+    <t>9223</t>
+  </si>
+  <si>
+    <t>9224</t>
+  </si>
+  <si>
+    <t>9225</t>
+  </si>
+  <si>
+    <t>9226</t>
+  </si>
+  <si>
+    <t>9227</t>
+  </si>
+  <si>
+    <t>9228</t>
+  </si>
+  <si>
+    <t>9229</t>
+  </si>
+  <si>
+    <t>9230</t>
+  </si>
+  <si>
+    <t>9231</t>
+  </si>
+  <si>
+    <t>9232</t>
+  </si>
+  <si>
+    <t>9233</t>
+  </si>
+  <si>
+    <t>9234</t>
+  </si>
+  <si>
+    <t>9235</t>
+  </si>
+  <si>
+    <t>9236</t>
+  </si>
+  <si>
+    <t>9237</t>
+  </si>
+  <si>
+    <t>9238</t>
+  </si>
+  <si>
+    <t>9239</t>
+  </si>
+  <si>
+    <t>9240</t>
+  </si>
+  <si>
+    <t>9241</t>
+  </si>
+  <si>
+    <t>9242</t>
+  </si>
+  <si>
+    <t>9243</t>
+  </si>
+  <si>
+    <t>9244</t>
+  </si>
+  <si>
+    <t>9245</t>
+  </si>
+  <si>
+    <t>9246</t>
+  </si>
+  <si>
+    <t>9247</t>
+  </si>
+  <si>
+    <t>9248</t>
+  </si>
+  <si>
+    <t>9249</t>
+  </si>
+  <si>
+    <t>9250</t>
+  </si>
+  <si>
+    <t>9251</t>
+  </si>
+  <si>
+    <t>9252</t>
+  </si>
+  <si>
+    <t>9253</t>
+  </si>
+  <si>
+    <t>9254</t>
+  </si>
+  <si>
+    <t>9255</t>
+  </si>
+  <si>
+    <t>9256</t>
+  </si>
+  <si>
+    <t>9257</t>
+  </si>
+  <si>
+    <t>9258</t>
+  </si>
+  <si>
+    <t>9259</t>
+  </si>
+  <si>
+    <t>9260</t>
+  </si>
+  <si>
+    <t>9261</t>
+  </si>
+  <si>
+    <t>9262</t>
+  </si>
+  <si>
+    <t>9263</t>
+  </si>
+  <si>
+    <t>9264</t>
+  </si>
+  <si>
+    <t>9265</t>
+  </si>
+  <si>
+    <t>9266</t>
+  </si>
+  <si>
+    <t>9267</t>
+  </si>
+  <si>
+    <t>9268</t>
+  </si>
+  <si>
+    <t>9269</t>
+  </si>
+  <si>
+    <t>9270</t>
+  </si>
+  <si>
+    <t>9271</t>
+  </si>
+  <si>
+    <t>9272</t>
+  </si>
+  <si>
+    <t>9273</t>
+  </si>
+  <si>
+    <t>9274</t>
+  </si>
+  <si>
+    <t>9275</t>
+  </si>
+  <si>
+    <t>9276</t>
+  </si>
+  <si>
+    <t>9277</t>
+  </si>
+  <si>
+    <t>9278</t>
+  </si>
+  <si>
+    <t>9279</t>
+  </si>
+  <si>
+    <t>9280</t>
+  </si>
+  <si>
+    <t>9281</t>
+  </si>
+  <si>
+    <t>9282</t>
+  </si>
+  <si>
+    <t>9283</t>
+  </si>
+  <si>
+    <t>9284</t>
+  </si>
+  <si>
+    <t>9285</t>
+  </si>
+  <si>
+    <t>9286</t>
+  </si>
+  <si>
+    <t>9287</t>
+  </si>
+  <si>
+    <t>9288</t>
+  </si>
+  <si>
+    <t>9289</t>
+  </si>
+  <si>
+    <t>9290</t>
+  </si>
+  <si>
+    <t>9291</t>
+  </si>
+  <si>
+    <t>9292</t>
+  </si>
+  <si>
+    <t>9293</t>
+  </si>
+  <si>
+    <t>9294</t>
+  </si>
+  <si>
+    <t>9295</t>
+  </si>
+  <si>
+    <t>9296</t>
+  </si>
+  <si>
+    <t>9297</t>
+  </si>
+  <si>
+    <t>9298</t>
+  </si>
+  <si>
+    <t>9299</t>
+  </si>
+  <si>
+    <t>9300</t>
+  </si>
+  <si>
+    <t>9301</t>
+  </si>
+  <si>
+    <t>9302</t>
+  </si>
+  <si>
+    <t>9303</t>
+  </si>
+  <si>
+    <t>9304</t>
+  </si>
+  <si>
+    <t>9305</t>
+  </si>
+  <si>
+    <t>9306</t>
+  </si>
+  <si>
+    <t>9307</t>
+  </si>
+  <si>
+    <t>9308</t>
+  </si>
+  <si>
+    <t>9309</t>
+  </si>
+  <si>
+    <t>9310</t>
+  </si>
+  <si>
+    <t>9311</t>
+  </si>
+  <si>
+    <t>9312</t>
+  </si>
+  <si>
+    <t>9313</t>
+  </si>
+  <si>
+    <t>9314</t>
+  </si>
+  <si>
+    <t>9315</t>
+  </si>
+  <si>
+    <t>9316</t>
+  </si>
+  <si>
+    <t>9317</t>
+  </si>
+  <si>
+    <t>9318</t>
+  </si>
+  <si>
+    <t>9319</t>
+  </si>
+  <si>
+    <t>9320</t>
+  </si>
+  <si>
+    <t>9321</t>
+  </si>
+  <si>
+    <t>9322</t>
+  </si>
+  <si>
+    <t>9323</t>
+  </si>
+  <si>
+    <t>9324</t>
+  </si>
+  <si>
+    <t>9325</t>
+  </si>
+  <si>
+    <t>9326</t>
+  </si>
+  <si>
+    <t>9327</t>
+  </si>
+  <si>
+    <t>9328</t>
+  </si>
+  <si>
+    <t>9329</t>
+  </si>
+  <si>
+    <t>9330</t>
+  </si>
+  <si>
+    <t>9331</t>
+  </si>
+  <si>
+    <t>9332</t>
+  </si>
+  <si>
+    <t>9333</t>
+  </si>
+  <si>
+    <t>9334</t>
+  </si>
+  <si>
+    <t>9335</t>
+  </si>
+  <si>
+    <t>9336</t>
+  </si>
+  <si>
+    <t>9337</t>
+  </si>
+  <si>
+    <t>9338</t>
+  </si>
+  <si>
+    <t>9339</t>
+  </si>
+  <si>
+    <t>9340</t>
+  </si>
+  <si>
+    <t>9341</t>
+  </si>
+  <si>
+    <t>9342</t>
+  </si>
+  <si>
+    <t>9343</t>
+  </si>
+  <si>
+    <t>9344</t>
+  </si>
+  <si>
+    <t>9345</t>
+  </si>
+  <si>
+    <t>9346</t>
+  </si>
+  <si>
+    <t>9347</t>
+  </si>
+  <si>
+    <t>9348</t>
+  </si>
+  <si>
+    <t>9349</t>
+  </si>
+  <si>
+    <t>9350</t>
+  </si>
+  <si>
+    <t>9351</t>
+  </si>
+  <si>
+    <t>9352</t>
+  </si>
+  <si>
+    <t>9353</t>
+  </si>
+  <si>
+    <t>9354</t>
+  </si>
+  <si>
+    <t>9355</t>
+  </si>
+  <si>
+    <t>9356</t>
+  </si>
+  <si>
+    <t>9357</t>
+  </si>
+  <si>
+    <t>9358</t>
+  </si>
+  <si>
+    <t>9359</t>
+  </si>
+  <si>
+    <t>9360</t>
+  </si>
+  <si>
+    <t>9361</t>
+  </si>
+  <si>
+    <t>9362</t>
+  </si>
+  <si>
+    <t>9363</t>
+  </si>
+  <si>
+    <t>9364</t>
+  </si>
+  <si>
+    <t>9365</t>
+  </si>
+  <si>
+    <t>9366</t>
+  </si>
+  <si>
+    <t>9367</t>
+  </si>
+  <si>
+    <t>9368</t>
+  </si>
+  <si>
+    <t>9369</t>
+  </si>
+  <si>
+    <t>9370</t>
+  </si>
+  <si>
+    <t>9371</t>
+  </si>
+  <si>
+    <t>9372</t>
+  </si>
+  <si>
+    <t>9373</t>
+  </si>
+  <si>
+    <t>9374</t>
+  </si>
+  <si>
+    <t>9375</t>
+  </si>
+  <si>
+    <t>9376</t>
+  </si>
+  <si>
+    <t>9377</t>
+  </si>
+  <si>
+    <t>9378</t>
+  </si>
+  <si>
+    <t>9379</t>
+  </si>
+  <si>
+    <t>9380</t>
+  </si>
+  <si>
+    <t>9381</t>
+  </si>
+  <si>
+    <t>9382</t>
+  </si>
+  <si>
+    <t>9383</t>
+  </si>
+  <si>
+    <t>9384</t>
+  </si>
+  <si>
+    <t>9385</t>
+  </si>
+  <si>
+    <t>9386</t>
+  </si>
+  <si>
+    <t>9387</t>
+  </si>
+  <si>
+    <t>9388</t>
+  </si>
+  <si>
+    <t>9389</t>
+  </si>
+  <si>
+    <t>9390</t>
+  </si>
+  <si>
+    <t>9391</t>
+  </si>
+  <si>
+    <t>9392</t>
+  </si>
+  <si>
+    <t>9393</t>
+  </si>
+  <si>
+    <t>9394</t>
+  </si>
+  <si>
+    <t>9395</t>
+  </si>
+  <si>
+    <t>9396</t>
+  </si>
+  <si>
+    <t>9397</t>
+  </si>
+  <si>
+    <t>9398</t>
+  </si>
+  <si>
+    <t>9399</t>
+  </si>
+  <si>
+    <t>9400</t>
+  </si>
+  <si>
+    <t>9401</t>
+  </si>
+  <si>
+    <t>9402</t>
+  </si>
+  <si>
+    <t>9403</t>
+  </si>
+  <si>
+    <t>9404</t>
+  </si>
+  <si>
+    <t>9405</t>
+  </si>
+  <si>
+    <t>9406</t>
+  </si>
+  <si>
+    <t>9407</t>
+  </si>
+  <si>
+    <t>9408</t>
+  </si>
+  <si>
+    <t>9409</t>
+  </si>
+  <si>
+    <t>9410</t>
+  </si>
+  <si>
+    <t>9411</t>
+  </si>
+  <si>
+    <t>9412</t>
+  </si>
+  <si>
+    <t>9413</t>
+  </si>
+  <si>
+    <t>9414</t>
+  </si>
+  <si>
+    <t>9415</t>
+  </si>
+  <si>
+    <t>9416</t>
+  </si>
+  <si>
+    <t>9417</t>
+  </si>
+  <si>
+    <t>9418</t>
+  </si>
+  <si>
+    <t>9419</t>
+  </si>
+  <si>
+    <t>9420</t>
+  </si>
+  <si>
+    <t>9421</t>
+  </si>
+  <si>
+    <t>9422</t>
+  </si>
+  <si>
+    <t>9423</t>
+  </si>
+  <si>
+    <t>9424</t>
+  </si>
+  <si>
+    <t>9425</t>
+  </si>
+  <si>
+    <t>9426</t>
+  </si>
+  <si>
+    <t>9427</t>
+  </si>
+  <si>
+    <t>9428</t>
+  </si>
+  <si>
+    <t>9429</t>
+  </si>
+  <si>
+    <t>9430</t>
+  </si>
+  <si>
+    <t>9431</t>
+  </si>
+  <si>
+    <t>9432</t>
+  </si>
+  <si>
+    <t>9433</t>
+  </si>
+  <si>
+    <t>9434</t>
+  </si>
+  <si>
+    <t>9435</t>
+  </si>
+  <si>
+    <t>9436</t>
+  </si>
+  <si>
+    <t>9437</t>
+  </si>
+  <si>
+    <t>9438</t>
+  </si>
+  <si>
+    <t>9439</t>
+  </si>
+  <si>
+    <t>9440</t>
+  </si>
+  <si>
+    <t>9441</t>
+  </si>
+  <si>
+    <t>9442</t>
+  </si>
+  <si>
+    <t>9443</t>
+  </si>
+  <si>
+    <t>9444</t>
+  </si>
+  <si>
+    <t>9445</t>
+  </si>
+  <si>
+    <t>9446</t>
+  </si>
+  <si>
+    <t>9447</t>
+  </si>
+  <si>
+    <t>9448</t>
+  </si>
+  <si>
+    <t>9449</t>
+  </si>
+  <si>
+    <t>9450</t>
+  </si>
+  <si>
+    <t>9451</t>
+  </si>
+  <si>
+    <t>9452</t>
+  </si>
+  <si>
+    <t>9453</t>
+  </si>
+  <si>
+    <t>9454</t>
+  </si>
+  <si>
+    <t>9455</t>
+  </si>
+  <si>
+    <t>9456</t>
+  </si>
+  <si>
+    <t>9457</t>
+  </si>
+  <si>
+    <t>9458</t>
+  </si>
+  <si>
+    <t>9459</t>
+  </si>
+  <si>
+    <t>9460</t>
+  </si>
+  <si>
+    <t>9461</t>
+  </si>
+  <si>
+    <t>9462</t>
+  </si>
+  <si>
+    <t>9463</t>
+  </si>
+  <si>
+    <t>9464</t>
+  </si>
+  <si>
+    <t>9465</t>
+  </si>
+  <si>
+    <t>9466</t>
+  </si>
+  <si>
+    <t>9467</t>
+  </si>
+  <si>
+    <t>9468</t>
+  </si>
+  <si>
+    <t>9469</t>
+  </si>
+  <si>
+    <t>9470</t>
+  </si>
+  <si>
+    <t>9471</t>
+  </si>
+  <si>
+    <t>9472</t>
+  </si>
+  <si>
+    <t>9473</t>
+  </si>
+  <si>
+    <t>9474</t>
+  </si>
+  <si>
+    <t>9475</t>
+  </si>
+  <si>
+    <t>9476</t>
+  </si>
+  <si>
+    <t>9477</t>
+  </si>
+  <si>
+    <t>9478</t>
+  </si>
+  <si>
+    <t>9479</t>
+  </si>
+  <si>
+    <t>9480</t>
+  </si>
+  <si>
+    <t>9481</t>
+  </si>
+  <si>
+    <t>9482</t>
+  </si>
+  <si>
+    <t>9483</t>
+  </si>
+  <si>
+    <t>9484</t>
+  </si>
+  <si>
+    <t>9485</t>
+  </si>
+  <si>
+    <t>9486</t>
+  </si>
+  <si>
+    <t>9487</t>
+  </si>
+  <si>
+    <t>9488</t>
+  </si>
+  <si>
+    <t>9489</t>
+  </si>
+  <si>
+    <t>9490</t>
+  </si>
+  <si>
+    <t>9491</t>
+  </si>
+  <si>
+    <t>9492</t>
+  </si>
+  <si>
+    <t>9493</t>
+  </si>
+  <si>
+    <t>9494</t>
+  </si>
+  <si>
+    <t>9495</t>
+  </si>
+  <si>
+    <t>9496</t>
+  </si>
+  <si>
+    <t>9497</t>
+  </si>
+  <si>
+    <t>9498</t>
+  </si>
+  <si>
+    <t>9499</t>
+  </si>
+  <si>
+    <t>9500</t>
+  </si>
+  <si>
+    <t>9501</t>
+  </si>
+  <si>
+    <t>9502</t>
+  </si>
+  <si>
+    <t>9503</t>
+  </si>
+  <si>
+    <t>9504</t>
+  </si>
+  <si>
+    <t>9505</t>
+  </si>
+  <si>
+    <t>9506</t>
+  </si>
+  <si>
+    <t>9507</t>
+  </si>
+  <si>
+    <t>9508</t>
+  </si>
+  <si>
+    <t>9509</t>
+  </si>
+  <si>
+    <t>9510</t>
+  </si>
+  <si>
+    <t>9511</t>
+  </si>
+  <si>
+    <t>9512</t>
+  </si>
+  <si>
+    <t>9513</t>
+  </si>
+  <si>
+    <t>9514</t>
+  </si>
+  <si>
+    <t>9515</t>
+  </si>
+  <si>
+    <t>9516</t>
+  </si>
+  <si>
+    <t>9517</t>
+  </si>
+  <si>
+    <t>9518</t>
+  </si>
+  <si>
+    <t>9519</t>
+  </si>
+  <si>
+    <t>9520</t>
+  </si>
+  <si>
+    <t>9521</t>
+  </si>
+  <si>
+    <t>9522</t>
+  </si>
+  <si>
+    <t>9523</t>
+  </si>
+  <si>
+    <t>9524</t>
+  </si>
+  <si>
+    <t>9525</t>
+  </si>
+  <si>
+    <t>9526</t>
+  </si>
+  <si>
+    <t>9527</t>
+  </si>
+  <si>
+    <t>9528</t>
+  </si>
+  <si>
+    <t>9529</t>
+  </si>
+  <si>
+    <t>9530</t>
+  </si>
+  <si>
+    <t>9531</t>
+  </si>
+  <si>
+    <t>9532</t>
+  </si>
+  <si>
+    <t>9533</t>
+  </si>
+  <si>
+    <t>9534</t>
+  </si>
+  <si>
+    <t>9535</t>
+  </si>
+  <si>
+    <t>9536</t>
+  </si>
+  <si>
+    <t>9537</t>
+  </si>
+  <si>
+    <t>9538</t>
+  </si>
+  <si>
+    <t>9539</t>
+  </si>
+  <si>
+    <t>9540</t>
+  </si>
+  <si>
+    <t>9541</t>
+  </si>
+  <si>
+    <t>9542</t>
+  </si>
+  <si>
+    <t>9543</t>
+  </si>
+  <si>
+    <t>9544</t>
+  </si>
+  <si>
+    <t>9545</t>
+  </si>
+  <si>
+    <t>9546</t>
+  </si>
+  <si>
+    <t>9547</t>
+  </si>
+  <si>
+    <t>9548</t>
+  </si>
+  <si>
+    <t>9549</t>
+  </si>
+  <si>
+    <t>9550</t>
+  </si>
+  <si>
+    <t>9551</t>
+  </si>
+  <si>
+    <t>9552</t>
+  </si>
+  <si>
+    <t>9553</t>
+  </si>
+  <si>
+    <t>9554</t>
+  </si>
+  <si>
+    <t>9555</t>
+  </si>
+  <si>
+    <t>9556</t>
+  </si>
+  <si>
+    <t>9557</t>
+  </si>
+  <si>
+    <t>9558</t>
+  </si>
+  <si>
+    <t>9559</t>
+  </si>
+  <si>
+    <t>9560</t>
+  </si>
+  <si>
+    <t>9561</t>
+  </si>
+  <si>
+    <t>9562</t>
+  </si>
+  <si>
+    <t>9563</t>
+  </si>
+  <si>
+    <t>9564</t>
+  </si>
+  <si>
+    <t>9565</t>
+  </si>
+  <si>
+    <t>9566</t>
+  </si>
+  <si>
+    <t>9567</t>
+  </si>
+  <si>
+    <t>9568</t>
+  </si>
+  <si>
+    <t>9569</t>
+  </si>
+  <si>
+    <t>9570</t>
+  </si>
+  <si>
+    <t>9571</t>
+  </si>
+  <si>
+    <t>9572</t>
+  </si>
+  <si>
+    <t>9573</t>
+  </si>
+  <si>
+    <t>9574</t>
+  </si>
+  <si>
+    <t>9575</t>
+  </si>
+  <si>
+    <t>9576</t>
+  </si>
+  <si>
+    <t>9577</t>
+  </si>
+  <si>
+    <t>9578</t>
+  </si>
+  <si>
+    <t>9579</t>
+  </si>
+  <si>
+    <t>9580</t>
+  </si>
+  <si>
+    <t>9581</t>
+  </si>
+  <si>
+    <t>9582</t>
+  </si>
+  <si>
+    <t>9583</t>
+  </si>
+  <si>
+    <t>9584</t>
+  </si>
+  <si>
+    <t>9585</t>
+  </si>
+  <si>
+    <t>9586</t>
+  </si>
+  <si>
+    <t>9587</t>
+  </si>
+  <si>
+    <t>9588</t>
+  </si>
+  <si>
+    <t>9589</t>
+  </si>
+  <si>
+    <t>9590</t>
+  </si>
+  <si>
+    <t>9591</t>
+  </si>
+  <si>
+    <t>9592</t>
+  </si>
+  <si>
+    <t>9593</t>
+  </si>
+  <si>
+    <t>9594</t>
+  </si>
+  <si>
+    <t>9595</t>
+  </si>
+  <si>
+    <t>9596</t>
+  </si>
+  <si>
+    <t>9597</t>
+  </si>
+  <si>
+    <t>9598</t>
+  </si>
+  <si>
+    <t>9599</t>
+  </si>
+  <si>
+    <t>9600</t>
+  </si>
+  <si>
+    <t>9601</t>
+  </si>
+  <si>
+    <t>9602</t>
+  </si>
+  <si>
+    <t>9603</t>
+  </si>
+  <si>
+    <t>9604</t>
+  </si>
+  <si>
+    <t>9605</t>
+  </si>
+  <si>
+    <t>9606</t>
+  </si>
+  <si>
+    <t>9607</t>
+  </si>
+  <si>
+    <t>9608</t>
+  </si>
+  <si>
+    <t>9609</t>
+  </si>
+  <si>
+    <t>9610</t>
+  </si>
+  <si>
+    <t>9611</t>
+  </si>
+  <si>
+    <t>9612</t>
+  </si>
+  <si>
+    <t>9613</t>
+  </si>
+  <si>
+    <t>9614</t>
+  </si>
+  <si>
+    <t>9615</t>
+  </si>
+  <si>
+    <t>9616</t>
+  </si>
+  <si>
+    <t>9617</t>
+  </si>
+  <si>
+    <t>9618</t>
+  </si>
+  <si>
+    <t>9619</t>
+  </si>
+  <si>
+    <t>9620</t>
+  </si>
+  <si>
+    <t>9621</t>
+  </si>
+  <si>
+    <t>9622</t>
+  </si>
+  <si>
+    <t>9623</t>
+  </si>
+  <si>
+    <t>9624</t>
+  </si>
+  <si>
+    <t>9625</t>
+  </si>
+  <si>
+    <t>9626</t>
+  </si>
+  <si>
+    <t>9627</t>
+  </si>
+  <si>
+    <t>9628</t>
+  </si>
+  <si>
+    <t>9629</t>
+  </si>
+  <si>
+    <t>9630</t>
+  </si>
+  <si>
+    <t>9631</t>
+  </si>
+  <si>
+    <t>9632</t>
+  </si>
+  <si>
+    <t>9633</t>
+  </si>
+  <si>
+    <t>9634</t>
+  </si>
+  <si>
+    <t>9635</t>
+  </si>
+  <si>
+    <t>9636</t>
+  </si>
+  <si>
+    <t>9637</t>
+  </si>
+  <si>
+    <t>9638</t>
+  </si>
+  <si>
+    <t>9639</t>
+  </si>
+  <si>
+    <t>9640</t>
+  </si>
+  <si>
+    <t>9641</t>
+  </si>
+  <si>
+    <t>9642</t>
+  </si>
+  <si>
+    <t>9643</t>
+  </si>
+  <si>
+    <t>9644</t>
+  </si>
+  <si>
+    <t>9645</t>
+  </si>
+  <si>
+    <t>9646</t>
+  </si>
+  <si>
+    <t>9647</t>
+  </si>
+  <si>
+    <t>9648</t>
+  </si>
+  <si>
+    <t>9649</t>
+  </si>
+  <si>
+    <t>9650</t>
+  </si>
+  <si>
+    <t>9651</t>
+  </si>
+  <si>
+    <t>9652</t>
+  </si>
+  <si>
+    <t>9653</t>
+  </si>
+  <si>
+    <t>9654</t>
+  </si>
+  <si>
+    <t>9655</t>
+  </si>
+  <si>
+    <t>9656</t>
+  </si>
+  <si>
+    <t>9657</t>
+  </si>
+  <si>
+    <t>9658</t>
+  </si>
+  <si>
+    <t>9659</t>
+  </si>
+  <si>
+    <t>9660</t>
+  </si>
+  <si>
+    <t>9661</t>
+  </si>
+  <si>
+    <t>9662</t>
+  </si>
+  <si>
+    <t>9663</t>
+  </si>
+  <si>
+    <t>9664</t>
+  </si>
+  <si>
+    <t>9665</t>
+  </si>
+  <si>
+    <t>9666</t>
+  </si>
+  <si>
+    <t>9667</t>
+  </si>
+  <si>
+    <t>9668</t>
+  </si>
+  <si>
+    <t>9669</t>
+  </si>
+  <si>
+    <t>9670</t>
+  </si>
+  <si>
+    <t>9671</t>
+  </si>
+  <si>
+    <t>9672</t>
+  </si>
+  <si>
+    <t>9673</t>
+  </si>
+  <si>
+    <t>9674</t>
+  </si>
+  <si>
+    <t>9675</t>
+  </si>
+  <si>
+    <t>9676</t>
+  </si>
+  <si>
+    <t>9677</t>
+  </si>
+  <si>
+    <t>9678</t>
+  </si>
+  <si>
+    <t>9679</t>
+  </si>
+  <si>
+    <t>9680</t>
+  </si>
+  <si>
+    <t>9681</t>
+  </si>
+  <si>
+    <t>9682</t>
+  </si>
+  <si>
+    <t>9683</t>
+  </si>
+  <si>
+    <t>9684</t>
+  </si>
+  <si>
+    <t>9685</t>
+  </si>
+  <si>
+    <t>9686</t>
+  </si>
+  <si>
+    <t>9687</t>
+  </si>
+  <si>
+    <t>9688</t>
+  </si>
+  <si>
+    <t>9689</t>
+  </si>
+  <si>
+    <t>9690</t>
+  </si>
+  <si>
+    <t>9691</t>
+  </si>
+  <si>
+    <t>9692</t>
+  </si>
+  <si>
+    <t>9693</t>
+  </si>
+  <si>
+    <t>9694</t>
+  </si>
+  <si>
+    <t>9695</t>
+  </si>
+  <si>
+    <t>9696</t>
+  </si>
+  <si>
+    <t>9697</t>
+  </si>
+  <si>
+    <t>9698</t>
+  </si>
+  <si>
+    <t>9699</t>
+  </si>
+  <si>
+    <t>9700</t>
+  </si>
+  <si>
+    <t>9701</t>
+  </si>
+  <si>
+    <t>9702</t>
+  </si>
+  <si>
+    <t>9703</t>
+  </si>
+  <si>
+    <t>9704</t>
+  </si>
+  <si>
+    <t>9705</t>
+  </si>
+  <si>
+    <t>9706</t>
+  </si>
+  <si>
+    <t>9707</t>
+  </si>
+  <si>
+    <t>9708</t>
+  </si>
+  <si>
+    <t>9709</t>
+  </si>
+  <si>
+    <t>9710</t>
+  </si>
+  <si>
+    <t>9711</t>
+  </si>
+  <si>
+    <t>9712</t>
+  </si>
+  <si>
+    <t>9713</t>
+  </si>
+  <si>
+    <t>9714</t>
+  </si>
+  <si>
+    <t>9715</t>
+  </si>
+  <si>
+    <t>9716</t>
+  </si>
+  <si>
+    <t>9717</t>
+  </si>
+  <si>
+    <t>9718</t>
+  </si>
+  <si>
+    <t>9719</t>
+  </si>
+  <si>
+    <t>9720</t>
+  </si>
+  <si>
+    <t>9721</t>
+  </si>
+  <si>
+    <t>9722</t>
+  </si>
+  <si>
+    <t>9723</t>
+  </si>
+  <si>
+    <t>9724</t>
+  </si>
+  <si>
+    <t>9725</t>
+  </si>
+  <si>
+    <t>9726</t>
+  </si>
+  <si>
+    <t>9727</t>
+  </si>
+  <si>
+    <t>9728</t>
+  </si>
+  <si>
+    <t>9729</t>
+  </si>
+  <si>
+    <t>9730</t>
+  </si>
+  <si>
+    <t>9731</t>
+  </si>
+  <si>
+    <t>9732</t>
+  </si>
+  <si>
+    <t>9733</t>
+  </si>
+  <si>
+    <t>9734</t>
+  </si>
+  <si>
+    <t>9735</t>
+  </si>
+  <si>
+    <t>9736</t>
+  </si>
+  <si>
+    <t>9737</t>
+  </si>
+  <si>
+    <t>9738</t>
+  </si>
+  <si>
+    <t>9739</t>
+  </si>
+  <si>
+    <t>9740</t>
+  </si>
+  <si>
+    <t>9741</t>
+  </si>
+  <si>
+    <t>9742</t>
+  </si>
+  <si>
+    <t>9743</t>
+  </si>
+  <si>
+    <t>9744</t>
+  </si>
+  <si>
+    <t>9745</t>
+  </si>
+  <si>
+    <t>9746</t>
+  </si>
+  <si>
+    <t>9747</t>
+  </si>
+  <si>
+    <t>9748</t>
+  </si>
+  <si>
+    <t>9749</t>
+  </si>
+  <si>
+    <t>9750</t>
+  </si>
+  <si>
+    <t>9751</t>
+  </si>
+  <si>
+    <t>9752</t>
+  </si>
+  <si>
+    <t>9753</t>
+  </si>
+  <si>
+    <t>9754</t>
+  </si>
+  <si>
+    <t>9755</t>
+  </si>
+  <si>
+    <t>9756</t>
+  </si>
+  <si>
+    <t>9757</t>
+  </si>
+  <si>
+    <t>9758</t>
+  </si>
+  <si>
+    <t>9759</t>
+  </si>
+  <si>
+    <t>9760</t>
+  </si>
+  <si>
+    <t>9761</t>
+  </si>
+  <si>
+    <t>9762</t>
+  </si>
+  <si>
+    <t>9763</t>
+  </si>
+  <si>
+    <t>9764</t>
+  </si>
+  <si>
+    <t>9765</t>
+  </si>
+  <si>
+    <t>9766</t>
+  </si>
+  <si>
+    <t>9767</t>
+  </si>
+  <si>
+    <t>9768</t>
+  </si>
+  <si>
+    <t>9769</t>
+  </si>
+  <si>
+    <t>9770</t>
+  </si>
+  <si>
+    <t>9771</t>
+  </si>
+  <si>
+    <t>9772</t>
+  </si>
+  <si>
+    <t>9773</t>
+  </si>
+  <si>
+    <t>9774</t>
+  </si>
+  <si>
+    <t>9775</t>
+  </si>
+  <si>
+    <t>9776</t>
+  </si>
+  <si>
+    <t>9777</t>
+  </si>
+  <si>
+    <t>9778</t>
+  </si>
+  <si>
+    <t>9779</t>
+  </si>
+  <si>
+    <t>9780</t>
+  </si>
+  <si>
+    <t>9781</t>
+  </si>
+  <si>
+    <t>9782</t>
+  </si>
+  <si>
+    <t>9783</t>
+  </si>
+  <si>
+    <t>9784</t>
+  </si>
+  <si>
+    <t>9785</t>
+  </si>
+  <si>
+    <t>9786</t>
+  </si>
+  <si>
+    <t>9787</t>
+  </si>
+  <si>
+    <t>9788</t>
+  </si>
+  <si>
+    <t>9789</t>
+  </si>
+  <si>
+    <t>9790</t>
+  </si>
+  <si>
+    <t>9791</t>
+  </si>
+  <si>
+    <t>9792</t>
+  </si>
+  <si>
+    <t>9793</t>
+  </si>
+  <si>
+    <t>9794</t>
+  </si>
+  <si>
+    <t>9795</t>
+  </si>
+  <si>
+    <t>9796</t>
+  </si>
+  <si>
+    <t>9797</t>
+  </si>
+  <si>
+    <t>9798</t>
+  </si>
+  <si>
+    <t>9799</t>
+  </si>
+  <si>
+    <t>9800</t>
+  </si>
+  <si>
+    <t>9801</t>
+  </si>
+  <si>
+    <t>9802</t>
+  </si>
+  <si>
+    <t>9803</t>
+  </si>
+  <si>
+    <t>9804</t>
+  </si>
+  <si>
+    <t>9805</t>
+  </si>
+  <si>
+    <t>9806</t>
+  </si>
+  <si>
+    <t>9807</t>
+  </si>
+  <si>
+    <t>9808</t>
+  </si>
+  <si>
+    <t>9809</t>
+  </si>
+  <si>
+    <t>9810</t>
+  </si>
+  <si>
+    <t>9811</t>
+  </si>
+  <si>
+    <t>9812</t>
+  </si>
+  <si>
+    <t>9813</t>
+  </si>
+  <si>
+    <t>9814</t>
+  </si>
+  <si>
+    <t>9815</t>
+  </si>
+  <si>
+    <t>9816</t>
+  </si>
+  <si>
+    <t>9817</t>
+  </si>
+  <si>
+    <t>9818</t>
+  </si>
+  <si>
+    <t>9819</t>
+  </si>
+  <si>
+    <t>9820</t>
+  </si>
+  <si>
+    <t>9821</t>
+  </si>
+  <si>
+    <t>9822</t>
+  </si>
+  <si>
+    <t>9823</t>
+  </si>
+  <si>
+    <t>9824</t>
+  </si>
+  <si>
+    <t>9825</t>
+  </si>
+  <si>
+    <t>9826</t>
+  </si>
+  <si>
+    <t>9827</t>
+  </si>
+  <si>
+    <t>9828</t>
+  </si>
+  <si>
+    <t>9829</t>
+  </si>
+  <si>
+    <t>9830</t>
+  </si>
+  <si>
+    <t>9831</t>
+  </si>
+  <si>
+    <t>9832</t>
+  </si>
+  <si>
+    <t>9833</t>
+  </si>
+  <si>
+    <t>9834</t>
+  </si>
+  <si>
+    <t>9835</t>
+  </si>
+  <si>
+    <t>9836</t>
+  </si>
+  <si>
+    <t>9837</t>
+  </si>
+  <si>
+    <t>9838</t>
+  </si>
+  <si>
+    <t>9839</t>
+  </si>
+  <si>
+    <t>9840</t>
+  </si>
+  <si>
+    <t>9841</t>
+  </si>
+  <si>
+    <t>9842</t>
+  </si>
+  <si>
+    <t>9843</t>
+  </si>
+  <si>
+    <t>9844</t>
+  </si>
+  <si>
+    <t>9845</t>
+  </si>
+  <si>
+    <t>9846</t>
+  </si>
+  <si>
+    <t>9847</t>
+  </si>
+  <si>
+    <t>9848</t>
+  </si>
+  <si>
+    <t>9849</t>
+  </si>
+  <si>
+    <t>9850</t>
+  </si>
+  <si>
+    <t>9851</t>
+  </si>
+  <si>
+    <t>9852</t>
+  </si>
+  <si>
+    <t>9853</t>
+  </si>
+  <si>
+    <t>9854</t>
+  </si>
+  <si>
+    <t>9855</t>
+  </si>
+  <si>
+    <t>9856</t>
+  </si>
+  <si>
+    <t>9857</t>
+  </si>
+  <si>
+    <t>9858</t>
+  </si>
+  <si>
+    <t>9859</t>
+  </si>
+  <si>
+    <t>9860</t>
+  </si>
+  <si>
+    <t>9861</t>
+  </si>
+  <si>
+    <t>9862</t>
+  </si>
+  <si>
+    <t>9863</t>
+  </si>
+  <si>
+    <t>9864</t>
+  </si>
+  <si>
+    <t>9865</t>
+  </si>
+  <si>
+    <t>9866</t>
+  </si>
+  <si>
+    <t>9867</t>
+  </si>
+  <si>
+    <t>9868</t>
+  </si>
+  <si>
+    <t>9869</t>
+  </si>
+  <si>
+    <t>9870</t>
+  </si>
+  <si>
+    <t>9871</t>
+  </si>
+  <si>
+    <t>9872</t>
+  </si>
+  <si>
+    <t>9873</t>
+  </si>
+  <si>
+    <t>9874</t>
+  </si>
+  <si>
+    <t>9875</t>
+  </si>
+  <si>
+    <t>9876</t>
+  </si>
+  <si>
+    <t>9877</t>
+  </si>
+  <si>
+    <t>9878</t>
+  </si>
+  <si>
+    <t>9879</t>
+  </si>
+  <si>
+    <t>9880</t>
+  </si>
+  <si>
+    <t>9881</t>
+  </si>
+  <si>
+    <t>9882</t>
+  </si>
+  <si>
+    <t>9883</t>
+  </si>
+  <si>
+    <t>9884</t>
+  </si>
+  <si>
+    <t>9885</t>
+  </si>
+  <si>
+    <t>9886</t>
+  </si>
+  <si>
+    <t>9887</t>
+  </si>
+  <si>
+    <t>9888</t>
+  </si>
+  <si>
+    <t>9889</t>
+  </si>
+  <si>
+    <t>9890</t>
+  </si>
+  <si>
+    <t>9891</t>
+  </si>
+  <si>
+    <t>9892</t>
+  </si>
+  <si>
+    <t>9893</t>
+  </si>
+  <si>
+    <t>9894</t>
+  </si>
+  <si>
+    <t>9895</t>
+  </si>
+  <si>
+    <t>9896</t>
+  </si>
+  <si>
+    <t>9897</t>
+  </si>
+  <si>
+    <t>9898</t>
+  </si>
+  <si>
+    <t>9899</t>
+  </si>
+  <si>
+    <t>9900</t>
+  </si>
+  <si>
+    <t>9901</t>
+  </si>
+  <si>
+    <t>9902</t>
+  </si>
+  <si>
+    <t>9903</t>
+  </si>
+  <si>
+    <t>9904</t>
+  </si>
+  <si>
+    <t>9905</t>
+  </si>
+  <si>
+    <t>9906</t>
+  </si>
+  <si>
+    <t>9907</t>
+  </si>
+  <si>
+    <t>9908</t>
+  </si>
+  <si>
+    <t>9909</t>
+  </si>
+  <si>
+    <t>9910</t>
+  </si>
+  <si>
+    <t>9911</t>
+  </si>
+  <si>
+    <t>9912</t>
+  </si>
+  <si>
+    <t>9913</t>
+  </si>
+  <si>
+    <t>9914</t>
+  </si>
+  <si>
+    <t>9915</t>
+  </si>
+  <si>
+    <t>9916</t>
+  </si>
+  <si>
+    <t>9917</t>
+  </si>
+  <si>
+    <t>9918</t>
+  </si>
+  <si>
+    <t>9919</t>
+  </si>
+  <si>
+    <t>9920</t>
+  </si>
+  <si>
+    <t>9921</t>
+  </si>
+  <si>
+    <t>9922</t>
+  </si>
+  <si>
+    <t>9923</t>
+  </si>
+  <si>
+    <t>9924</t>
+  </si>
+  <si>
+    <t>9925</t>
+  </si>
+  <si>
+    <t>9926</t>
+  </si>
+  <si>
+    <t>9927</t>
+  </si>
+  <si>
+    <t>9928</t>
+  </si>
+  <si>
+    <t>9929</t>
+  </si>
+  <si>
+    <t>9930</t>
+  </si>
+  <si>
+    <t>9931</t>
+  </si>
+  <si>
+    <t>9932</t>
+  </si>
+  <si>
+    <t>9933</t>
+  </si>
+  <si>
+    <t>9934</t>
+  </si>
+  <si>
+    <t>9935</t>
+  </si>
+  <si>
+    <t>9936</t>
+  </si>
+  <si>
+    <t>9937</t>
+  </si>
+  <si>
+    <t>9938</t>
+  </si>
+  <si>
+    <t>9939</t>
+  </si>
+  <si>
+    <t>9940</t>
+  </si>
+  <si>
+    <t>9941</t>
+  </si>
+  <si>
+    <t>9942</t>
+  </si>
+  <si>
+    <t>9943</t>
+  </si>
+  <si>
+    <t>9944</t>
+  </si>
+  <si>
+    <t>9945</t>
+  </si>
+  <si>
+    <t>9946</t>
+  </si>
+  <si>
+    <t>9947</t>
+  </si>
+  <si>
+    <t>9948</t>
+  </si>
+  <si>
+    <t>9949</t>
+  </si>
+  <si>
+    <t>9950</t>
+  </si>
+  <si>
+    <t>9951</t>
+  </si>
+  <si>
+    <t>9952</t>
+  </si>
+  <si>
+    <t>9953</t>
+  </si>
+  <si>
+    <t>9954</t>
+  </si>
+  <si>
+    <t>9955</t>
+  </si>
+  <si>
+    <t>9956</t>
+  </si>
+  <si>
+    <t>9957</t>
+  </si>
+  <si>
+    <t>9958</t>
+  </si>
+  <si>
+    <t>9959</t>
+  </si>
+  <si>
+    <t>9960</t>
+  </si>
+  <si>
+    <t>9961</t>
+  </si>
+  <si>
+    <t>9962</t>
+  </si>
+  <si>
+    <t>9963</t>
+  </si>
+  <si>
+    <t>9964</t>
+  </si>
+  <si>
+    <t>9965</t>
+  </si>
+  <si>
+    <t>9966</t>
+  </si>
+  <si>
+    <t>9967</t>
+  </si>
+  <si>
+    <t>9968</t>
+  </si>
+  <si>
+    <t>9969</t>
+  </si>
+  <si>
+    <t>9970</t>
+  </si>
+  <si>
+    <t>9971</t>
+  </si>
+  <si>
+    <t>9972</t>
+  </si>
+  <si>
+    <t>9973</t>
+  </si>
+  <si>
+    <t>9974</t>
+  </si>
+  <si>
+    <t>9975</t>
+  </si>
+  <si>
+    <t>9976</t>
+  </si>
+  <si>
+    <t>9977</t>
+  </si>
+  <si>
+    <t>9978</t>
+  </si>
+  <si>
+    <t>9979</t>
+  </si>
+  <si>
+    <t>9980</t>
+  </si>
+  <si>
+    <t>9981</t>
+  </si>
+  <si>
+    <t>9982</t>
+  </si>
+  <si>
+    <t>9983</t>
+  </si>
+  <si>
+    <t>9984</t>
+  </si>
+  <si>
+    <t>9985</t>
+  </si>
+  <si>
+    <t>9986</t>
+  </si>
+  <si>
+    <t>9987</t>
+  </si>
+  <si>
+    <t>9988</t>
+  </si>
+  <si>
+    <t>9989</t>
+  </si>
+  <si>
+    <t>9990</t>
+  </si>
+  <si>
+    <t>9991</t>
+  </si>
+  <si>
+    <t>9992</t>
+  </si>
+  <si>
+    <t>9993</t>
+  </si>
+  <si>
+    <t>9994</t>
+  </si>
+  <si>
+    <t>9995</t>
+  </si>
+  <si>
+    <t>9996</t>
+  </si>
+  <si>
+    <t>9997</t>
+  </si>
+  <si>
+    <t>9998</t>
+  </si>
+  <si>
+    <t>9999</t>
+  </si>
+  <si>
+    <t>10000</t>
   </si>
 </sst>
 </file>
@@ -3423,8 +3423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A976" workbookViewId="0">
-      <selection activeCell="A998" sqref="A998"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A1001"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/terrebone/v12_api/input.xlsx
+++ b/terrebone/v12_api/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\steve\random stuff\Terrebone\FHR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8518C2A-7CC1-4868-B932-ED056F2CC750}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAD46E9-847C-4422-9E94-A752200429AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,3004 +69,3004 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>9001</t>
-  </si>
-  <si>
-    <t>9002</t>
-  </si>
-  <si>
-    <t>9003</t>
-  </si>
-  <si>
-    <t>9004</t>
-  </si>
-  <si>
-    <t>9005</t>
-  </si>
-  <si>
-    <t>9006</t>
-  </si>
-  <si>
-    <t>9007</t>
-  </si>
-  <si>
-    <t>9008</t>
-  </si>
-  <si>
-    <t>9009</t>
-  </si>
-  <si>
-    <t>9010</t>
-  </si>
-  <si>
-    <t>9011</t>
-  </si>
-  <si>
-    <t>9012</t>
-  </si>
-  <si>
-    <t>9013</t>
-  </si>
-  <si>
-    <t>9014</t>
-  </si>
-  <si>
-    <t>9015</t>
-  </si>
-  <si>
-    <t>9016</t>
-  </si>
-  <si>
-    <t>9017</t>
-  </si>
-  <si>
-    <t>9018</t>
-  </si>
-  <si>
-    <t>9019</t>
-  </si>
-  <si>
-    <t>9020</t>
-  </si>
-  <si>
-    <t>9021</t>
-  </si>
-  <si>
-    <t>9022</t>
-  </si>
-  <si>
-    <t>9023</t>
-  </si>
-  <si>
-    <t>9024</t>
-  </si>
-  <si>
-    <t>9025</t>
-  </si>
-  <si>
-    <t>9026</t>
-  </si>
-  <si>
-    <t>9027</t>
-  </si>
-  <si>
-    <t>9028</t>
-  </si>
-  <si>
-    <t>9029</t>
-  </si>
-  <si>
-    <t>9030</t>
-  </si>
-  <si>
-    <t>9031</t>
-  </si>
-  <si>
-    <t>9032</t>
-  </si>
-  <si>
-    <t>9033</t>
-  </si>
-  <si>
-    <t>9034</t>
-  </si>
-  <si>
-    <t>9035</t>
-  </si>
-  <si>
-    <t>9036</t>
-  </si>
-  <si>
-    <t>9037</t>
-  </si>
-  <si>
-    <t>9038</t>
-  </si>
-  <si>
-    <t>9039</t>
-  </si>
-  <si>
-    <t>9040</t>
-  </si>
-  <si>
-    <t>9041</t>
-  </si>
-  <si>
-    <t>9042</t>
-  </si>
-  <si>
-    <t>9043</t>
-  </si>
-  <si>
-    <t>9044</t>
-  </si>
-  <si>
-    <t>9045</t>
-  </si>
-  <si>
-    <t>9046</t>
-  </si>
-  <si>
-    <t>9047</t>
-  </si>
-  <si>
-    <t>9048</t>
-  </si>
-  <si>
-    <t>9049</t>
-  </si>
-  <si>
-    <t>9050</t>
-  </si>
-  <si>
-    <t>9051</t>
-  </si>
-  <si>
-    <t>9052</t>
-  </si>
-  <si>
-    <t>9053</t>
-  </si>
-  <si>
-    <t>9054</t>
-  </si>
-  <si>
-    <t>9055</t>
-  </si>
-  <si>
-    <t>9056</t>
-  </si>
-  <si>
-    <t>9057</t>
-  </si>
-  <si>
-    <t>9058</t>
-  </si>
-  <si>
-    <t>9059</t>
-  </si>
-  <si>
-    <t>9060</t>
-  </si>
-  <si>
-    <t>9061</t>
-  </si>
-  <si>
-    <t>9062</t>
-  </si>
-  <si>
-    <t>9063</t>
-  </si>
-  <si>
-    <t>9064</t>
-  </si>
-  <si>
-    <t>9065</t>
-  </si>
-  <si>
-    <t>9066</t>
-  </si>
-  <si>
-    <t>9067</t>
-  </si>
-  <si>
-    <t>9068</t>
-  </si>
-  <si>
-    <t>9069</t>
-  </si>
-  <si>
-    <t>9070</t>
-  </si>
-  <si>
-    <t>9071</t>
-  </si>
-  <si>
-    <t>9072</t>
-  </si>
-  <si>
-    <t>9073</t>
-  </si>
-  <si>
-    <t>9074</t>
-  </si>
-  <si>
-    <t>9075</t>
-  </si>
-  <si>
-    <t>9076</t>
-  </si>
-  <si>
-    <t>9077</t>
-  </si>
-  <si>
-    <t>9078</t>
-  </si>
-  <si>
-    <t>9079</t>
-  </si>
-  <si>
-    <t>9080</t>
-  </si>
-  <si>
-    <t>9081</t>
-  </si>
-  <si>
-    <t>9082</t>
-  </si>
-  <si>
-    <t>9083</t>
-  </si>
-  <si>
-    <t>9084</t>
-  </si>
-  <si>
-    <t>9085</t>
-  </si>
-  <si>
-    <t>9086</t>
-  </si>
-  <si>
-    <t>9087</t>
-  </si>
-  <si>
-    <t>9088</t>
-  </si>
-  <si>
-    <t>9089</t>
-  </si>
-  <si>
-    <t>9090</t>
-  </si>
-  <si>
-    <t>9091</t>
-  </si>
-  <si>
-    <t>9092</t>
-  </si>
-  <si>
-    <t>9093</t>
-  </si>
-  <si>
-    <t>9094</t>
-  </si>
-  <si>
-    <t>9095</t>
-  </si>
-  <si>
-    <t>9096</t>
-  </si>
-  <si>
-    <t>9097</t>
-  </si>
-  <si>
-    <t>9098</t>
-  </si>
-  <si>
-    <t>9099</t>
-  </si>
-  <si>
-    <t>9100</t>
-  </si>
-  <si>
-    <t>9101</t>
-  </si>
-  <si>
-    <t>9102</t>
-  </si>
-  <si>
-    <t>9103</t>
-  </si>
-  <si>
-    <t>9104</t>
-  </si>
-  <si>
-    <t>9105</t>
-  </si>
-  <si>
-    <t>9106</t>
-  </si>
-  <si>
-    <t>9107</t>
-  </si>
-  <si>
-    <t>9108</t>
-  </si>
-  <si>
-    <t>9109</t>
-  </si>
-  <si>
-    <t>9110</t>
-  </si>
-  <si>
-    <t>9111</t>
-  </si>
-  <si>
-    <t>9112</t>
-  </si>
-  <si>
-    <t>9113</t>
-  </si>
-  <si>
-    <t>9114</t>
-  </si>
-  <si>
-    <t>9115</t>
-  </si>
-  <si>
-    <t>9116</t>
-  </si>
-  <si>
-    <t>9117</t>
-  </si>
-  <si>
-    <t>9118</t>
-  </si>
-  <si>
-    <t>9119</t>
-  </si>
-  <si>
-    <t>9120</t>
-  </si>
-  <si>
-    <t>9121</t>
-  </si>
-  <si>
-    <t>9122</t>
-  </si>
-  <si>
-    <t>9123</t>
-  </si>
-  <si>
-    <t>9124</t>
-  </si>
-  <si>
-    <t>9125</t>
-  </si>
-  <si>
-    <t>9126</t>
-  </si>
-  <si>
-    <t>9127</t>
-  </si>
-  <si>
-    <t>9128</t>
-  </si>
-  <si>
-    <t>9129</t>
-  </si>
-  <si>
-    <t>9130</t>
-  </si>
-  <si>
-    <t>9131</t>
-  </si>
-  <si>
-    <t>9132</t>
-  </si>
-  <si>
-    <t>9133</t>
-  </si>
-  <si>
-    <t>9134</t>
-  </si>
-  <si>
-    <t>9135</t>
-  </si>
-  <si>
-    <t>9136</t>
-  </si>
-  <si>
-    <t>9137</t>
-  </si>
-  <si>
-    <t>9138</t>
-  </si>
-  <si>
-    <t>9139</t>
-  </si>
-  <si>
-    <t>9140</t>
-  </si>
-  <si>
-    <t>9141</t>
-  </si>
-  <si>
-    <t>9142</t>
-  </si>
-  <si>
-    <t>9143</t>
-  </si>
-  <si>
-    <t>9144</t>
-  </si>
-  <si>
-    <t>9145</t>
-  </si>
-  <si>
-    <t>9146</t>
-  </si>
-  <si>
-    <t>9147</t>
-  </si>
-  <si>
-    <t>9148</t>
-  </si>
-  <si>
-    <t>9149</t>
-  </si>
-  <si>
-    <t>9150</t>
-  </si>
-  <si>
-    <t>9151</t>
-  </si>
-  <si>
-    <t>9152</t>
-  </si>
-  <si>
-    <t>9153</t>
-  </si>
-  <si>
-    <t>9154</t>
-  </si>
-  <si>
-    <t>9155</t>
-  </si>
-  <si>
-    <t>9156</t>
-  </si>
-  <si>
-    <t>9157</t>
-  </si>
-  <si>
-    <t>9158</t>
-  </si>
-  <si>
-    <t>9159</t>
-  </si>
-  <si>
-    <t>9160</t>
-  </si>
-  <si>
-    <t>9161</t>
-  </si>
-  <si>
-    <t>9162</t>
-  </si>
-  <si>
-    <t>9163</t>
-  </si>
-  <si>
-    <t>9164</t>
-  </si>
-  <si>
-    <t>9165</t>
-  </si>
-  <si>
-    <t>9166</t>
-  </si>
-  <si>
-    <t>9167</t>
-  </si>
-  <si>
-    <t>9168</t>
-  </si>
-  <si>
-    <t>9169</t>
-  </si>
-  <si>
-    <t>9170</t>
-  </si>
-  <si>
-    <t>9171</t>
-  </si>
-  <si>
-    <t>9172</t>
-  </si>
-  <si>
-    <t>9173</t>
-  </si>
-  <si>
-    <t>9174</t>
-  </si>
-  <si>
-    <t>9175</t>
-  </si>
-  <si>
-    <t>9176</t>
-  </si>
-  <si>
-    <t>9177</t>
-  </si>
-  <si>
-    <t>9178</t>
-  </si>
-  <si>
-    <t>9179</t>
-  </si>
-  <si>
-    <t>9180</t>
-  </si>
-  <si>
-    <t>9181</t>
-  </si>
-  <si>
-    <t>9182</t>
-  </si>
-  <si>
-    <t>9183</t>
-  </si>
-  <si>
-    <t>9184</t>
-  </si>
-  <si>
-    <t>9185</t>
-  </si>
-  <si>
-    <t>9186</t>
-  </si>
-  <si>
-    <t>9187</t>
-  </si>
-  <si>
-    <t>9188</t>
-  </si>
-  <si>
-    <t>9189</t>
-  </si>
-  <si>
-    <t>9190</t>
-  </si>
-  <si>
-    <t>9191</t>
-  </si>
-  <si>
-    <t>9192</t>
-  </si>
-  <si>
-    <t>9193</t>
-  </si>
-  <si>
-    <t>9194</t>
-  </si>
-  <si>
-    <t>9195</t>
-  </si>
-  <si>
-    <t>9196</t>
-  </si>
-  <si>
-    <t>9197</t>
-  </si>
-  <si>
-    <t>9198</t>
-  </si>
-  <si>
-    <t>9199</t>
-  </si>
-  <si>
-    <t>9200</t>
-  </si>
-  <si>
-    <t>9201</t>
-  </si>
-  <si>
-    <t>9202</t>
-  </si>
-  <si>
-    <t>9203</t>
-  </si>
-  <si>
-    <t>9204</t>
-  </si>
-  <si>
-    <t>9205</t>
-  </si>
-  <si>
-    <t>9206</t>
-  </si>
-  <si>
-    <t>9207</t>
-  </si>
-  <si>
-    <t>9208</t>
-  </si>
-  <si>
-    <t>9209</t>
-  </si>
-  <si>
-    <t>9210</t>
-  </si>
-  <si>
-    <t>9211</t>
-  </si>
-  <si>
-    <t>9212</t>
-  </si>
-  <si>
-    <t>9213</t>
-  </si>
-  <si>
-    <t>9214</t>
-  </si>
-  <si>
-    <t>9215</t>
-  </si>
-  <si>
-    <t>9216</t>
-  </si>
-  <si>
-    <t>9217</t>
-  </si>
-  <si>
-    <t>9218</t>
-  </si>
-  <si>
-    <t>9219</t>
-  </si>
-  <si>
-    <t>9220</t>
-  </si>
-  <si>
-    <t>9221</t>
-  </si>
-  <si>
-    <t>9222</t>
-  </si>
-  <si>
-    <t>9223</t>
-  </si>
-  <si>
-    <t>9224</t>
-  </si>
-  <si>
-    <t>9225</t>
-  </si>
-  <si>
-    <t>9226</t>
-  </si>
-  <si>
-    <t>9227</t>
-  </si>
-  <si>
-    <t>9228</t>
-  </si>
-  <si>
-    <t>9229</t>
-  </si>
-  <si>
-    <t>9230</t>
-  </si>
-  <si>
-    <t>9231</t>
-  </si>
-  <si>
-    <t>9232</t>
-  </si>
-  <si>
-    <t>9233</t>
-  </si>
-  <si>
-    <t>9234</t>
-  </si>
-  <si>
-    <t>9235</t>
-  </si>
-  <si>
-    <t>9236</t>
-  </si>
-  <si>
-    <t>9237</t>
-  </si>
-  <si>
-    <t>9238</t>
-  </si>
-  <si>
-    <t>9239</t>
-  </si>
-  <si>
-    <t>9240</t>
-  </si>
-  <si>
-    <t>9241</t>
-  </si>
-  <si>
-    <t>9242</t>
-  </si>
-  <si>
-    <t>9243</t>
-  </si>
-  <si>
-    <t>9244</t>
-  </si>
-  <si>
-    <t>9245</t>
-  </si>
-  <si>
-    <t>9246</t>
-  </si>
-  <si>
-    <t>9247</t>
-  </si>
-  <si>
-    <t>9248</t>
-  </si>
-  <si>
-    <t>9249</t>
-  </si>
-  <si>
-    <t>9250</t>
-  </si>
-  <si>
-    <t>9251</t>
-  </si>
-  <si>
-    <t>9252</t>
-  </si>
-  <si>
-    <t>9253</t>
-  </si>
-  <si>
-    <t>9254</t>
-  </si>
-  <si>
-    <t>9255</t>
-  </si>
-  <si>
-    <t>9256</t>
-  </si>
-  <si>
-    <t>9257</t>
-  </si>
-  <si>
-    <t>9258</t>
-  </si>
-  <si>
-    <t>9259</t>
-  </si>
-  <si>
-    <t>9260</t>
-  </si>
-  <si>
-    <t>9261</t>
-  </si>
-  <si>
-    <t>9262</t>
-  </si>
-  <si>
-    <t>9263</t>
-  </si>
-  <si>
-    <t>9264</t>
-  </si>
-  <si>
-    <t>9265</t>
-  </si>
-  <si>
-    <t>9266</t>
-  </si>
-  <si>
-    <t>9267</t>
-  </si>
-  <si>
-    <t>9268</t>
-  </si>
-  <si>
-    <t>9269</t>
-  </si>
-  <si>
-    <t>9270</t>
-  </si>
-  <si>
-    <t>9271</t>
-  </si>
-  <si>
-    <t>9272</t>
-  </si>
-  <si>
-    <t>9273</t>
-  </si>
-  <si>
-    <t>9274</t>
-  </si>
-  <si>
-    <t>9275</t>
-  </si>
-  <si>
-    <t>9276</t>
-  </si>
-  <si>
-    <t>9277</t>
-  </si>
-  <si>
-    <t>9278</t>
-  </si>
-  <si>
-    <t>9279</t>
-  </si>
-  <si>
-    <t>9280</t>
-  </si>
-  <si>
-    <t>9281</t>
-  </si>
-  <si>
-    <t>9282</t>
-  </si>
-  <si>
-    <t>9283</t>
-  </si>
-  <si>
-    <t>9284</t>
-  </si>
-  <si>
-    <t>9285</t>
-  </si>
-  <si>
-    <t>9286</t>
-  </si>
-  <si>
-    <t>9287</t>
-  </si>
-  <si>
-    <t>9288</t>
-  </si>
-  <si>
-    <t>9289</t>
-  </si>
-  <si>
-    <t>9290</t>
-  </si>
-  <si>
-    <t>9291</t>
-  </si>
-  <si>
-    <t>9292</t>
-  </si>
-  <si>
-    <t>9293</t>
-  </si>
-  <si>
-    <t>9294</t>
-  </si>
-  <si>
-    <t>9295</t>
-  </si>
-  <si>
-    <t>9296</t>
-  </si>
-  <si>
-    <t>9297</t>
-  </si>
-  <si>
-    <t>9298</t>
-  </si>
-  <si>
-    <t>9299</t>
-  </si>
-  <si>
-    <t>9300</t>
-  </si>
-  <si>
-    <t>9301</t>
-  </si>
-  <si>
-    <t>9302</t>
-  </si>
-  <si>
-    <t>9303</t>
-  </si>
-  <si>
-    <t>9304</t>
-  </si>
-  <si>
-    <t>9305</t>
-  </si>
-  <si>
-    <t>9306</t>
-  </si>
-  <si>
-    <t>9307</t>
-  </si>
-  <si>
-    <t>9308</t>
-  </si>
-  <si>
-    <t>9309</t>
-  </si>
-  <si>
-    <t>9310</t>
-  </si>
-  <si>
-    <t>9311</t>
-  </si>
-  <si>
-    <t>9312</t>
-  </si>
-  <si>
-    <t>9313</t>
-  </si>
-  <si>
-    <t>9314</t>
-  </si>
-  <si>
-    <t>9315</t>
-  </si>
-  <si>
-    <t>9316</t>
-  </si>
-  <si>
-    <t>9317</t>
-  </si>
-  <si>
-    <t>9318</t>
-  </si>
-  <si>
-    <t>9319</t>
-  </si>
-  <si>
-    <t>9320</t>
-  </si>
-  <si>
-    <t>9321</t>
-  </si>
-  <si>
-    <t>9322</t>
-  </si>
-  <si>
-    <t>9323</t>
-  </si>
-  <si>
-    <t>9324</t>
-  </si>
-  <si>
-    <t>9325</t>
-  </si>
-  <si>
-    <t>9326</t>
-  </si>
-  <si>
-    <t>9327</t>
-  </si>
-  <si>
-    <t>9328</t>
-  </si>
-  <si>
-    <t>9329</t>
-  </si>
-  <si>
-    <t>9330</t>
-  </si>
-  <si>
-    <t>9331</t>
-  </si>
-  <si>
-    <t>9332</t>
-  </si>
-  <si>
-    <t>9333</t>
-  </si>
-  <si>
-    <t>9334</t>
-  </si>
-  <si>
-    <t>9335</t>
-  </si>
-  <si>
-    <t>9336</t>
-  </si>
-  <si>
-    <t>9337</t>
-  </si>
-  <si>
-    <t>9338</t>
-  </si>
-  <si>
-    <t>9339</t>
-  </si>
-  <si>
-    <t>9340</t>
-  </si>
-  <si>
-    <t>9341</t>
-  </si>
-  <si>
-    <t>9342</t>
-  </si>
-  <si>
-    <t>9343</t>
-  </si>
-  <si>
-    <t>9344</t>
-  </si>
-  <si>
-    <t>9345</t>
-  </si>
-  <si>
-    <t>9346</t>
-  </si>
-  <si>
-    <t>9347</t>
-  </si>
-  <si>
-    <t>9348</t>
-  </si>
-  <si>
-    <t>9349</t>
-  </si>
-  <si>
-    <t>9350</t>
-  </si>
-  <si>
-    <t>9351</t>
-  </si>
-  <si>
-    <t>9352</t>
-  </si>
-  <si>
-    <t>9353</t>
-  </si>
-  <si>
-    <t>9354</t>
-  </si>
-  <si>
-    <t>9355</t>
-  </si>
-  <si>
-    <t>9356</t>
-  </si>
-  <si>
-    <t>9357</t>
-  </si>
-  <si>
-    <t>9358</t>
-  </si>
-  <si>
-    <t>9359</t>
-  </si>
-  <si>
-    <t>9360</t>
-  </si>
-  <si>
-    <t>9361</t>
-  </si>
-  <si>
-    <t>9362</t>
-  </si>
-  <si>
-    <t>9363</t>
-  </si>
-  <si>
-    <t>9364</t>
-  </si>
-  <si>
-    <t>9365</t>
-  </si>
-  <si>
-    <t>9366</t>
-  </si>
-  <si>
-    <t>9367</t>
-  </si>
-  <si>
-    <t>9368</t>
-  </si>
-  <si>
-    <t>9369</t>
-  </si>
-  <si>
-    <t>9370</t>
-  </si>
-  <si>
-    <t>9371</t>
-  </si>
-  <si>
-    <t>9372</t>
-  </si>
-  <si>
-    <t>9373</t>
-  </si>
-  <si>
-    <t>9374</t>
-  </si>
-  <si>
-    <t>9375</t>
-  </si>
-  <si>
-    <t>9376</t>
-  </si>
-  <si>
-    <t>9377</t>
-  </si>
-  <si>
-    <t>9378</t>
-  </si>
-  <si>
-    <t>9379</t>
-  </si>
-  <si>
-    <t>9380</t>
-  </si>
-  <si>
-    <t>9381</t>
-  </si>
-  <si>
-    <t>9382</t>
-  </si>
-  <si>
-    <t>9383</t>
-  </si>
-  <si>
-    <t>9384</t>
-  </si>
-  <si>
-    <t>9385</t>
-  </si>
-  <si>
-    <t>9386</t>
-  </si>
-  <si>
-    <t>9387</t>
-  </si>
-  <si>
-    <t>9388</t>
-  </si>
-  <si>
-    <t>9389</t>
-  </si>
-  <si>
-    <t>9390</t>
-  </si>
-  <si>
-    <t>9391</t>
-  </si>
-  <si>
-    <t>9392</t>
-  </si>
-  <si>
-    <t>9393</t>
-  </si>
-  <si>
-    <t>9394</t>
-  </si>
-  <si>
-    <t>9395</t>
-  </si>
-  <si>
-    <t>9396</t>
-  </si>
-  <si>
-    <t>9397</t>
-  </si>
-  <si>
-    <t>9398</t>
-  </si>
-  <si>
-    <t>9399</t>
-  </si>
-  <si>
-    <t>9400</t>
-  </si>
-  <si>
-    <t>9401</t>
-  </si>
-  <si>
-    <t>9402</t>
-  </si>
-  <si>
-    <t>9403</t>
-  </si>
-  <si>
-    <t>9404</t>
-  </si>
-  <si>
-    <t>9405</t>
-  </si>
-  <si>
-    <t>9406</t>
-  </si>
-  <si>
-    <t>9407</t>
-  </si>
-  <si>
-    <t>9408</t>
-  </si>
-  <si>
-    <t>9409</t>
-  </si>
-  <si>
-    <t>9410</t>
-  </si>
-  <si>
-    <t>9411</t>
-  </si>
-  <si>
-    <t>9412</t>
-  </si>
-  <si>
-    <t>9413</t>
-  </si>
-  <si>
-    <t>9414</t>
-  </si>
-  <si>
-    <t>9415</t>
-  </si>
-  <si>
-    <t>9416</t>
-  </si>
-  <si>
-    <t>9417</t>
-  </si>
-  <si>
-    <t>9418</t>
-  </si>
-  <si>
-    <t>9419</t>
-  </si>
-  <si>
-    <t>9420</t>
-  </si>
-  <si>
-    <t>9421</t>
-  </si>
-  <si>
-    <t>9422</t>
-  </si>
-  <si>
-    <t>9423</t>
-  </si>
-  <si>
-    <t>9424</t>
-  </si>
-  <si>
-    <t>9425</t>
-  </si>
-  <si>
-    <t>9426</t>
-  </si>
-  <si>
-    <t>9427</t>
-  </si>
-  <si>
-    <t>9428</t>
-  </si>
-  <si>
-    <t>9429</t>
-  </si>
-  <si>
-    <t>9430</t>
-  </si>
-  <si>
-    <t>9431</t>
-  </si>
-  <si>
-    <t>9432</t>
-  </si>
-  <si>
-    <t>9433</t>
-  </si>
-  <si>
-    <t>9434</t>
-  </si>
-  <si>
-    <t>9435</t>
-  </si>
-  <si>
-    <t>9436</t>
-  </si>
-  <si>
-    <t>9437</t>
-  </si>
-  <si>
-    <t>9438</t>
-  </si>
-  <si>
-    <t>9439</t>
-  </si>
-  <si>
-    <t>9440</t>
-  </si>
-  <si>
-    <t>9441</t>
-  </si>
-  <si>
-    <t>9442</t>
-  </si>
-  <si>
-    <t>9443</t>
-  </si>
-  <si>
-    <t>9444</t>
-  </si>
-  <si>
-    <t>9445</t>
-  </si>
-  <si>
-    <t>9446</t>
-  </si>
-  <si>
-    <t>9447</t>
-  </si>
-  <si>
-    <t>9448</t>
-  </si>
-  <si>
-    <t>9449</t>
-  </si>
-  <si>
-    <t>9450</t>
-  </si>
-  <si>
-    <t>9451</t>
-  </si>
-  <si>
-    <t>9452</t>
-  </si>
-  <si>
-    <t>9453</t>
-  </si>
-  <si>
-    <t>9454</t>
-  </si>
-  <si>
-    <t>9455</t>
-  </si>
-  <si>
-    <t>9456</t>
-  </si>
-  <si>
-    <t>9457</t>
-  </si>
-  <si>
-    <t>9458</t>
-  </si>
-  <si>
-    <t>9459</t>
-  </si>
-  <si>
-    <t>9460</t>
-  </si>
-  <si>
-    <t>9461</t>
-  </si>
-  <si>
-    <t>9462</t>
-  </si>
-  <si>
-    <t>9463</t>
-  </si>
-  <si>
-    <t>9464</t>
-  </si>
-  <si>
-    <t>9465</t>
-  </si>
-  <si>
-    <t>9466</t>
-  </si>
-  <si>
-    <t>9467</t>
-  </si>
-  <si>
-    <t>9468</t>
-  </si>
-  <si>
-    <t>9469</t>
-  </si>
-  <si>
-    <t>9470</t>
-  </si>
-  <si>
-    <t>9471</t>
-  </si>
-  <si>
-    <t>9472</t>
-  </si>
-  <si>
-    <t>9473</t>
-  </si>
-  <si>
-    <t>9474</t>
-  </si>
-  <si>
-    <t>9475</t>
-  </si>
-  <si>
-    <t>9476</t>
-  </si>
-  <si>
-    <t>9477</t>
-  </si>
-  <si>
-    <t>9478</t>
-  </si>
-  <si>
-    <t>9479</t>
-  </si>
-  <si>
-    <t>9480</t>
-  </si>
-  <si>
-    <t>9481</t>
-  </si>
-  <si>
-    <t>9482</t>
-  </si>
-  <si>
-    <t>9483</t>
-  </si>
-  <si>
-    <t>9484</t>
-  </si>
-  <si>
-    <t>9485</t>
-  </si>
-  <si>
-    <t>9486</t>
-  </si>
-  <si>
-    <t>9487</t>
-  </si>
-  <si>
-    <t>9488</t>
-  </si>
-  <si>
-    <t>9489</t>
-  </si>
-  <si>
-    <t>9490</t>
-  </si>
-  <si>
-    <t>9491</t>
-  </si>
-  <si>
-    <t>9492</t>
-  </si>
-  <si>
-    <t>9493</t>
-  </si>
-  <si>
-    <t>9494</t>
-  </si>
-  <si>
-    <t>9495</t>
-  </si>
-  <si>
-    <t>9496</t>
-  </si>
-  <si>
-    <t>9497</t>
-  </si>
-  <si>
-    <t>9498</t>
-  </si>
-  <si>
-    <t>9499</t>
-  </si>
-  <si>
-    <t>9500</t>
-  </si>
-  <si>
-    <t>9501</t>
-  </si>
-  <si>
-    <t>9502</t>
-  </si>
-  <si>
-    <t>9503</t>
-  </si>
-  <si>
-    <t>9504</t>
-  </si>
-  <si>
-    <t>9505</t>
-  </si>
-  <si>
-    <t>9506</t>
-  </si>
-  <si>
-    <t>9507</t>
-  </si>
-  <si>
-    <t>9508</t>
-  </si>
-  <si>
-    <t>9509</t>
-  </si>
-  <si>
-    <t>9510</t>
-  </si>
-  <si>
-    <t>9511</t>
-  </si>
-  <si>
-    <t>9512</t>
-  </si>
-  <si>
-    <t>9513</t>
-  </si>
-  <si>
-    <t>9514</t>
-  </si>
-  <si>
-    <t>9515</t>
-  </si>
-  <si>
-    <t>9516</t>
-  </si>
-  <si>
-    <t>9517</t>
-  </si>
-  <si>
-    <t>9518</t>
-  </si>
-  <si>
-    <t>9519</t>
-  </si>
-  <si>
-    <t>9520</t>
-  </si>
-  <si>
-    <t>9521</t>
-  </si>
-  <si>
-    <t>9522</t>
-  </si>
-  <si>
-    <t>9523</t>
-  </si>
-  <si>
-    <t>9524</t>
-  </si>
-  <si>
-    <t>9525</t>
-  </si>
-  <si>
-    <t>9526</t>
-  </si>
-  <si>
-    <t>9527</t>
-  </si>
-  <si>
-    <t>9528</t>
-  </si>
-  <si>
-    <t>9529</t>
-  </si>
-  <si>
-    <t>9530</t>
-  </si>
-  <si>
-    <t>9531</t>
-  </si>
-  <si>
-    <t>9532</t>
-  </si>
-  <si>
-    <t>9533</t>
-  </si>
-  <si>
-    <t>9534</t>
-  </si>
-  <si>
-    <t>9535</t>
-  </si>
-  <si>
-    <t>9536</t>
-  </si>
-  <si>
-    <t>9537</t>
-  </si>
-  <si>
-    <t>9538</t>
-  </si>
-  <si>
-    <t>9539</t>
-  </si>
-  <si>
-    <t>9540</t>
-  </si>
-  <si>
-    <t>9541</t>
-  </si>
-  <si>
-    <t>9542</t>
-  </si>
-  <si>
-    <t>9543</t>
-  </si>
-  <si>
-    <t>9544</t>
-  </si>
-  <si>
-    <t>9545</t>
-  </si>
-  <si>
-    <t>9546</t>
-  </si>
-  <si>
-    <t>9547</t>
-  </si>
-  <si>
-    <t>9548</t>
-  </si>
-  <si>
-    <t>9549</t>
-  </si>
-  <si>
-    <t>9550</t>
-  </si>
-  <si>
-    <t>9551</t>
-  </si>
-  <si>
-    <t>9552</t>
-  </si>
-  <si>
-    <t>9553</t>
-  </si>
-  <si>
-    <t>9554</t>
-  </si>
-  <si>
-    <t>9555</t>
-  </si>
-  <si>
-    <t>9556</t>
-  </si>
-  <si>
-    <t>9557</t>
-  </si>
-  <si>
-    <t>9558</t>
-  </si>
-  <si>
-    <t>9559</t>
-  </si>
-  <si>
-    <t>9560</t>
-  </si>
-  <si>
-    <t>9561</t>
-  </si>
-  <si>
-    <t>9562</t>
-  </si>
-  <si>
-    <t>9563</t>
-  </si>
-  <si>
-    <t>9564</t>
-  </si>
-  <si>
-    <t>9565</t>
-  </si>
-  <si>
-    <t>9566</t>
-  </si>
-  <si>
-    <t>9567</t>
-  </si>
-  <si>
-    <t>9568</t>
-  </si>
-  <si>
-    <t>9569</t>
-  </si>
-  <si>
-    <t>9570</t>
-  </si>
-  <si>
-    <t>9571</t>
-  </si>
-  <si>
-    <t>9572</t>
-  </si>
-  <si>
-    <t>9573</t>
-  </si>
-  <si>
-    <t>9574</t>
-  </si>
-  <si>
-    <t>9575</t>
-  </si>
-  <si>
-    <t>9576</t>
-  </si>
-  <si>
-    <t>9577</t>
-  </si>
-  <si>
-    <t>9578</t>
-  </si>
-  <si>
-    <t>9579</t>
-  </si>
-  <si>
-    <t>9580</t>
-  </si>
-  <si>
-    <t>9581</t>
-  </si>
-  <si>
-    <t>9582</t>
-  </si>
-  <si>
-    <t>9583</t>
-  </si>
-  <si>
-    <t>9584</t>
-  </si>
-  <si>
-    <t>9585</t>
-  </si>
-  <si>
-    <t>9586</t>
-  </si>
-  <si>
-    <t>9587</t>
-  </si>
-  <si>
-    <t>9588</t>
-  </si>
-  <si>
-    <t>9589</t>
-  </si>
-  <si>
-    <t>9590</t>
-  </si>
-  <si>
-    <t>9591</t>
-  </si>
-  <si>
-    <t>9592</t>
-  </si>
-  <si>
-    <t>9593</t>
-  </si>
-  <si>
-    <t>9594</t>
-  </si>
-  <si>
-    <t>9595</t>
-  </si>
-  <si>
-    <t>9596</t>
-  </si>
-  <si>
-    <t>9597</t>
-  </si>
-  <si>
-    <t>9598</t>
-  </si>
-  <si>
-    <t>9599</t>
-  </si>
-  <si>
-    <t>9600</t>
-  </si>
-  <si>
-    <t>9601</t>
-  </si>
-  <si>
-    <t>9602</t>
-  </si>
-  <si>
-    <t>9603</t>
-  </si>
-  <si>
-    <t>9604</t>
-  </si>
-  <si>
-    <t>9605</t>
-  </si>
-  <si>
-    <t>9606</t>
-  </si>
-  <si>
-    <t>9607</t>
-  </si>
-  <si>
-    <t>9608</t>
-  </si>
-  <si>
-    <t>9609</t>
-  </si>
-  <si>
-    <t>9610</t>
-  </si>
-  <si>
-    <t>9611</t>
-  </si>
-  <si>
-    <t>9612</t>
-  </si>
-  <si>
-    <t>9613</t>
-  </si>
-  <si>
-    <t>9614</t>
-  </si>
-  <si>
-    <t>9615</t>
-  </si>
-  <si>
-    <t>9616</t>
-  </si>
-  <si>
-    <t>9617</t>
-  </si>
-  <si>
-    <t>9618</t>
-  </si>
-  <si>
-    <t>9619</t>
-  </si>
-  <si>
-    <t>9620</t>
-  </si>
-  <si>
-    <t>9621</t>
-  </si>
-  <si>
-    <t>9622</t>
-  </si>
-  <si>
-    <t>9623</t>
-  </si>
-  <si>
-    <t>9624</t>
-  </si>
-  <si>
-    <t>9625</t>
-  </si>
-  <si>
-    <t>9626</t>
-  </si>
-  <si>
-    <t>9627</t>
-  </si>
-  <si>
-    <t>9628</t>
-  </si>
-  <si>
-    <t>9629</t>
-  </si>
-  <si>
-    <t>9630</t>
-  </si>
-  <si>
-    <t>9631</t>
-  </si>
-  <si>
-    <t>9632</t>
-  </si>
-  <si>
-    <t>9633</t>
-  </si>
-  <si>
-    <t>9634</t>
-  </si>
-  <si>
-    <t>9635</t>
-  </si>
-  <si>
-    <t>9636</t>
-  </si>
-  <si>
-    <t>9637</t>
-  </si>
-  <si>
-    <t>9638</t>
-  </si>
-  <si>
-    <t>9639</t>
-  </si>
-  <si>
-    <t>9640</t>
-  </si>
-  <si>
-    <t>9641</t>
-  </si>
-  <si>
-    <t>9642</t>
-  </si>
-  <si>
-    <t>9643</t>
-  </si>
-  <si>
-    <t>9644</t>
-  </si>
-  <si>
-    <t>9645</t>
-  </si>
-  <si>
-    <t>9646</t>
-  </si>
-  <si>
-    <t>9647</t>
-  </si>
-  <si>
-    <t>9648</t>
-  </si>
-  <si>
-    <t>9649</t>
-  </si>
-  <si>
-    <t>9650</t>
-  </si>
-  <si>
-    <t>9651</t>
-  </si>
-  <si>
-    <t>9652</t>
-  </si>
-  <si>
-    <t>9653</t>
-  </si>
-  <si>
-    <t>9654</t>
-  </si>
-  <si>
-    <t>9655</t>
-  </si>
-  <si>
-    <t>9656</t>
-  </si>
-  <si>
-    <t>9657</t>
-  </si>
-  <si>
-    <t>9658</t>
-  </si>
-  <si>
-    <t>9659</t>
-  </si>
-  <si>
-    <t>9660</t>
-  </si>
-  <si>
-    <t>9661</t>
-  </si>
-  <si>
-    <t>9662</t>
-  </si>
-  <si>
-    <t>9663</t>
-  </si>
-  <si>
-    <t>9664</t>
-  </si>
-  <si>
-    <t>9665</t>
-  </si>
-  <si>
-    <t>9666</t>
-  </si>
-  <si>
-    <t>9667</t>
-  </si>
-  <si>
-    <t>9668</t>
-  </si>
-  <si>
-    <t>9669</t>
-  </si>
-  <si>
-    <t>9670</t>
-  </si>
-  <si>
-    <t>9671</t>
-  </si>
-  <si>
-    <t>9672</t>
-  </si>
-  <si>
-    <t>9673</t>
-  </si>
-  <si>
-    <t>9674</t>
-  </si>
-  <si>
-    <t>9675</t>
-  </si>
-  <si>
-    <t>9676</t>
-  </si>
-  <si>
-    <t>9677</t>
-  </si>
-  <si>
-    <t>9678</t>
-  </si>
-  <si>
-    <t>9679</t>
-  </si>
-  <si>
-    <t>9680</t>
-  </si>
-  <si>
-    <t>9681</t>
-  </si>
-  <si>
-    <t>9682</t>
-  </si>
-  <si>
-    <t>9683</t>
-  </si>
-  <si>
-    <t>9684</t>
-  </si>
-  <si>
-    <t>9685</t>
-  </si>
-  <si>
-    <t>9686</t>
-  </si>
-  <si>
-    <t>9687</t>
-  </si>
-  <si>
-    <t>9688</t>
-  </si>
-  <si>
-    <t>9689</t>
-  </si>
-  <si>
-    <t>9690</t>
-  </si>
-  <si>
-    <t>9691</t>
-  </si>
-  <si>
-    <t>9692</t>
-  </si>
-  <si>
-    <t>9693</t>
-  </si>
-  <si>
-    <t>9694</t>
-  </si>
-  <si>
-    <t>9695</t>
-  </si>
-  <si>
-    <t>9696</t>
-  </si>
-  <si>
-    <t>9697</t>
-  </si>
-  <si>
-    <t>9698</t>
-  </si>
-  <si>
-    <t>9699</t>
-  </si>
-  <si>
-    <t>9700</t>
-  </si>
-  <si>
-    <t>9701</t>
-  </si>
-  <si>
-    <t>9702</t>
-  </si>
-  <si>
-    <t>9703</t>
-  </si>
-  <si>
-    <t>9704</t>
-  </si>
-  <si>
-    <t>9705</t>
-  </si>
-  <si>
-    <t>9706</t>
-  </si>
-  <si>
-    <t>9707</t>
-  </si>
-  <si>
-    <t>9708</t>
-  </si>
-  <si>
-    <t>9709</t>
-  </si>
-  <si>
-    <t>9710</t>
-  </si>
-  <si>
-    <t>9711</t>
-  </si>
-  <si>
-    <t>9712</t>
-  </si>
-  <si>
-    <t>9713</t>
-  </si>
-  <si>
-    <t>9714</t>
-  </si>
-  <si>
-    <t>9715</t>
-  </si>
-  <si>
-    <t>9716</t>
-  </si>
-  <si>
-    <t>9717</t>
-  </si>
-  <si>
-    <t>9718</t>
-  </si>
-  <si>
-    <t>9719</t>
-  </si>
-  <si>
-    <t>9720</t>
-  </si>
-  <si>
-    <t>9721</t>
-  </si>
-  <si>
-    <t>9722</t>
-  </si>
-  <si>
-    <t>9723</t>
-  </si>
-  <si>
-    <t>9724</t>
-  </si>
-  <si>
-    <t>9725</t>
-  </si>
-  <si>
-    <t>9726</t>
-  </si>
-  <si>
-    <t>9727</t>
-  </si>
-  <si>
-    <t>9728</t>
-  </si>
-  <si>
-    <t>9729</t>
-  </si>
-  <si>
-    <t>9730</t>
-  </si>
-  <si>
-    <t>9731</t>
-  </si>
-  <si>
-    <t>9732</t>
-  </si>
-  <si>
-    <t>9733</t>
-  </si>
-  <si>
-    <t>9734</t>
-  </si>
-  <si>
-    <t>9735</t>
-  </si>
-  <si>
-    <t>9736</t>
-  </si>
-  <si>
-    <t>9737</t>
-  </si>
-  <si>
-    <t>9738</t>
-  </si>
-  <si>
-    <t>9739</t>
-  </si>
-  <si>
-    <t>9740</t>
-  </si>
-  <si>
-    <t>9741</t>
-  </si>
-  <si>
-    <t>9742</t>
-  </si>
-  <si>
-    <t>9743</t>
-  </si>
-  <si>
-    <t>9744</t>
-  </si>
-  <si>
-    <t>9745</t>
-  </si>
-  <si>
-    <t>9746</t>
-  </si>
-  <si>
-    <t>9747</t>
-  </si>
-  <si>
-    <t>9748</t>
-  </si>
-  <si>
-    <t>9749</t>
-  </si>
-  <si>
-    <t>9750</t>
-  </si>
-  <si>
-    <t>9751</t>
-  </si>
-  <si>
-    <t>9752</t>
-  </si>
-  <si>
-    <t>9753</t>
-  </si>
-  <si>
-    <t>9754</t>
-  </si>
-  <si>
-    <t>9755</t>
-  </si>
-  <si>
-    <t>9756</t>
-  </si>
-  <si>
-    <t>9757</t>
-  </si>
-  <si>
-    <t>9758</t>
-  </si>
-  <si>
-    <t>9759</t>
-  </si>
-  <si>
-    <t>9760</t>
-  </si>
-  <si>
-    <t>9761</t>
-  </si>
-  <si>
-    <t>9762</t>
-  </si>
-  <si>
-    <t>9763</t>
-  </si>
-  <si>
-    <t>9764</t>
-  </si>
-  <si>
-    <t>9765</t>
-  </si>
-  <si>
-    <t>9766</t>
-  </si>
-  <si>
-    <t>9767</t>
-  </si>
-  <si>
-    <t>9768</t>
-  </si>
-  <si>
-    <t>9769</t>
-  </si>
-  <si>
-    <t>9770</t>
-  </si>
-  <si>
-    <t>9771</t>
-  </si>
-  <si>
-    <t>9772</t>
-  </si>
-  <si>
-    <t>9773</t>
-  </si>
-  <si>
-    <t>9774</t>
-  </si>
-  <si>
-    <t>9775</t>
-  </si>
-  <si>
-    <t>9776</t>
-  </si>
-  <si>
-    <t>9777</t>
-  </si>
-  <si>
-    <t>9778</t>
-  </si>
-  <si>
-    <t>9779</t>
-  </si>
-  <si>
-    <t>9780</t>
-  </si>
-  <si>
-    <t>9781</t>
-  </si>
-  <si>
-    <t>9782</t>
-  </si>
-  <si>
-    <t>9783</t>
-  </si>
-  <si>
-    <t>9784</t>
-  </si>
-  <si>
-    <t>9785</t>
-  </si>
-  <si>
-    <t>9786</t>
-  </si>
-  <si>
-    <t>9787</t>
-  </si>
-  <si>
-    <t>9788</t>
-  </si>
-  <si>
-    <t>9789</t>
-  </si>
-  <si>
-    <t>9790</t>
-  </si>
-  <si>
-    <t>9791</t>
-  </si>
-  <si>
-    <t>9792</t>
-  </si>
-  <si>
-    <t>9793</t>
-  </si>
-  <si>
-    <t>9794</t>
-  </si>
-  <si>
-    <t>9795</t>
-  </si>
-  <si>
-    <t>9796</t>
-  </si>
-  <si>
-    <t>9797</t>
-  </si>
-  <si>
-    <t>9798</t>
-  </si>
-  <si>
-    <t>9799</t>
-  </si>
-  <si>
-    <t>9800</t>
-  </si>
-  <si>
-    <t>9801</t>
-  </si>
-  <si>
-    <t>9802</t>
-  </si>
-  <si>
-    <t>9803</t>
-  </si>
-  <si>
-    <t>9804</t>
-  </si>
-  <si>
-    <t>9805</t>
-  </si>
-  <si>
-    <t>9806</t>
-  </si>
-  <si>
-    <t>9807</t>
-  </si>
-  <si>
-    <t>9808</t>
-  </si>
-  <si>
-    <t>9809</t>
-  </si>
-  <si>
-    <t>9810</t>
-  </si>
-  <si>
-    <t>9811</t>
-  </si>
-  <si>
-    <t>9812</t>
-  </si>
-  <si>
-    <t>9813</t>
-  </si>
-  <si>
-    <t>9814</t>
-  </si>
-  <si>
-    <t>9815</t>
-  </si>
-  <si>
-    <t>9816</t>
-  </si>
-  <si>
-    <t>9817</t>
-  </si>
-  <si>
-    <t>9818</t>
-  </si>
-  <si>
-    <t>9819</t>
-  </si>
-  <si>
-    <t>9820</t>
-  </si>
-  <si>
-    <t>9821</t>
-  </si>
-  <si>
-    <t>9822</t>
-  </si>
-  <si>
-    <t>9823</t>
-  </si>
-  <si>
-    <t>9824</t>
-  </si>
-  <si>
-    <t>9825</t>
-  </si>
-  <si>
-    <t>9826</t>
-  </si>
-  <si>
-    <t>9827</t>
-  </si>
-  <si>
-    <t>9828</t>
-  </si>
-  <si>
-    <t>9829</t>
-  </si>
-  <si>
-    <t>9830</t>
-  </si>
-  <si>
-    <t>9831</t>
-  </si>
-  <si>
-    <t>9832</t>
-  </si>
-  <si>
-    <t>9833</t>
-  </si>
-  <si>
-    <t>9834</t>
-  </si>
-  <si>
-    <t>9835</t>
-  </si>
-  <si>
-    <t>9836</t>
-  </si>
-  <si>
-    <t>9837</t>
-  </si>
-  <si>
-    <t>9838</t>
-  </si>
-  <si>
-    <t>9839</t>
-  </si>
-  <si>
-    <t>9840</t>
-  </si>
-  <si>
-    <t>9841</t>
-  </si>
-  <si>
-    <t>9842</t>
-  </si>
-  <si>
-    <t>9843</t>
-  </si>
-  <si>
-    <t>9844</t>
-  </si>
-  <si>
-    <t>9845</t>
-  </si>
-  <si>
-    <t>9846</t>
-  </si>
-  <si>
-    <t>9847</t>
-  </si>
-  <si>
-    <t>9848</t>
-  </si>
-  <si>
-    <t>9849</t>
-  </si>
-  <si>
-    <t>9850</t>
-  </si>
-  <si>
-    <t>9851</t>
-  </si>
-  <si>
-    <t>9852</t>
-  </si>
-  <si>
-    <t>9853</t>
-  </si>
-  <si>
-    <t>9854</t>
-  </si>
-  <si>
-    <t>9855</t>
-  </si>
-  <si>
-    <t>9856</t>
-  </si>
-  <si>
-    <t>9857</t>
-  </si>
-  <si>
-    <t>9858</t>
-  </si>
-  <si>
-    <t>9859</t>
-  </si>
-  <si>
-    <t>9860</t>
-  </si>
-  <si>
-    <t>9861</t>
-  </si>
-  <si>
-    <t>9862</t>
-  </si>
-  <si>
-    <t>9863</t>
-  </si>
-  <si>
-    <t>9864</t>
-  </si>
-  <si>
-    <t>9865</t>
-  </si>
-  <si>
-    <t>9866</t>
-  </si>
-  <si>
-    <t>9867</t>
-  </si>
-  <si>
-    <t>9868</t>
-  </si>
-  <si>
-    <t>9869</t>
-  </si>
-  <si>
-    <t>9870</t>
-  </si>
-  <si>
-    <t>9871</t>
-  </si>
-  <si>
-    <t>9872</t>
-  </si>
-  <si>
-    <t>9873</t>
-  </si>
-  <si>
-    <t>9874</t>
-  </si>
-  <si>
-    <t>9875</t>
-  </si>
-  <si>
-    <t>9876</t>
-  </si>
-  <si>
-    <t>9877</t>
-  </si>
-  <si>
-    <t>9878</t>
-  </si>
-  <si>
-    <t>9879</t>
-  </si>
-  <si>
-    <t>9880</t>
-  </si>
-  <si>
-    <t>9881</t>
-  </si>
-  <si>
-    <t>9882</t>
-  </si>
-  <si>
-    <t>9883</t>
-  </si>
-  <si>
-    <t>9884</t>
-  </si>
-  <si>
-    <t>9885</t>
-  </si>
-  <si>
-    <t>9886</t>
-  </si>
-  <si>
-    <t>9887</t>
-  </si>
-  <si>
-    <t>9888</t>
-  </si>
-  <si>
-    <t>9889</t>
-  </si>
-  <si>
-    <t>9890</t>
-  </si>
-  <si>
-    <t>9891</t>
-  </si>
-  <si>
-    <t>9892</t>
-  </si>
-  <si>
-    <t>9893</t>
-  </si>
-  <si>
-    <t>9894</t>
-  </si>
-  <si>
-    <t>9895</t>
-  </si>
-  <si>
-    <t>9896</t>
-  </si>
-  <si>
-    <t>9897</t>
-  </si>
-  <si>
-    <t>9898</t>
-  </si>
-  <si>
-    <t>9899</t>
-  </si>
-  <si>
-    <t>9900</t>
-  </si>
-  <si>
-    <t>9901</t>
-  </si>
-  <si>
-    <t>9902</t>
-  </si>
-  <si>
-    <t>9903</t>
-  </si>
-  <si>
-    <t>9904</t>
-  </si>
-  <si>
-    <t>9905</t>
-  </si>
-  <si>
-    <t>9906</t>
-  </si>
-  <si>
-    <t>9907</t>
-  </si>
-  <si>
-    <t>9908</t>
-  </si>
-  <si>
-    <t>9909</t>
-  </si>
-  <si>
-    <t>9910</t>
-  </si>
-  <si>
-    <t>9911</t>
-  </si>
-  <si>
-    <t>9912</t>
-  </si>
-  <si>
-    <t>9913</t>
-  </si>
-  <si>
-    <t>9914</t>
-  </si>
-  <si>
-    <t>9915</t>
-  </si>
-  <si>
-    <t>9916</t>
-  </si>
-  <si>
-    <t>9917</t>
-  </si>
-  <si>
-    <t>9918</t>
-  </si>
-  <si>
-    <t>9919</t>
-  </si>
-  <si>
-    <t>9920</t>
-  </si>
-  <si>
-    <t>9921</t>
-  </si>
-  <si>
-    <t>9922</t>
-  </si>
-  <si>
-    <t>9923</t>
-  </si>
-  <si>
-    <t>9924</t>
-  </si>
-  <si>
-    <t>9925</t>
-  </si>
-  <si>
-    <t>9926</t>
-  </si>
-  <si>
-    <t>9927</t>
-  </si>
-  <si>
-    <t>9928</t>
-  </si>
-  <si>
-    <t>9929</t>
-  </si>
-  <si>
-    <t>9930</t>
-  </si>
-  <si>
-    <t>9931</t>
-  </si>
-  <si>
-    <t>9932</t>
-  </si>
-  <si>
-    <t>9933</t>
-  </si>
-  <si>
-    <t>9934</t>
-  </si>
-  <si>
-    <t>9935</t>
-  </si>
-  <si>
-    <t>9936</t>
-  </si>
-  <si>
-    <t>9937</t>
-  </si>
-  <si>
-    <t>9938</t>
-  </si>
-  <si>
-    <t>9939</t>
-  </si>
-  <si>
-    <t>9940</t>
-  </si>
-  <si>
-    <t>9941</t>
-  </si>
-  <si>
-    <t>9942</t>
-  </si>
-  <si>
-    <t>9943</t>
-  </si>
-  <si>
-    <t>9944</t>
-  </si>
-  <si>
-    <t>9945</t>
-  </si>
-  <si>
-    <t>9946</t>
-  </si>
-  <si>
-    <t>9947</t>
-  </si>
-  <si>
-    <t>9948</t>
-  </si>
-  <si>
-    <t>9949</t>
-  </si>
-  <si>
-    <t>9950</t>
-  </si>
-  <si>
-    <t>9951</t>
-  </si>
-  <si>
-    <t>9952</t>
-  </si>
-  <si>
-    <t>9953</t>
-  </si>
-  <si>
-    <t>9954</t>
-  </si>
-  <si>
-    <t>9955</t>
-  </si>
-  <si>
-    <t>9956</t>
-  </si>
-  <si>
-    <t>9957</t>
-  </si>
-  <si>
-    <t>9958</t>
-  </si>
-  <si>
-    <t>9959</t>
-  </si>
-  <si>
-    <t>9960</t>
-  </si>
-  <si>
-    <t>9961</t>
-  </si>
-  <si>
-    <t>9962</t>
-  </si>
-  <si>
-    <t>9963</t>
-  </si>
-  <si>
-    <t>9964</t>
-  </si>
-  <si>
-    <t>9965</t>
-  </si>
-  <si>
-    <t>9966</t>
-  </si>
-  <si>
-    <t>9967</t>
-  </si>
-  <si>
-    <t>9968</t>
-  </si>
-  <si>
-    <t>9969</t>
-  </si>
-  <si>
-    <t>9970</t>
-  </si>
-  <si>
-    <t>9971</t>
-  </si>
-  <si>
-    <t>9972</t>
-  </si>
-  <si>
-    <t>9973</t>
-  </si>
-  <si>
-    <t>9974</t>
-  </si>
-  <si>
-    <t>9975</t>
-  </si>
-  <si>
-    <t>9976</t>
-  </si>
-  <si>
-    <t>9977</t>
-  </si>
-  <si>
-    <t>9978</t>
-  </si>
-  <si>
-    <t>9979</t>
-  </si>
-  <si>
-    <t>9980</t>
-  </si>
-  <si>
-    <t>9981</t>
-  </si>
-  <si>
-    <t>9982</t>
-  </si>
-  <si>
-    <t>9983</t>
-  </si>
-  <si>
-    <t>9984</t>
-  </si>
-  <si>
-    <t>9985</t>
-  </si>
-  <si>
-    <t>9986</t>
-  </si>
-  <si>
-    <t>9987</t>
-  </si>
-  <si>
-    <t>9988</t>
-  </si>
-  <si>
-    <t>9989</t>
-  </si>
-  <si>
-    <t>9990</t>
-  </si>
-  <si>
-    <t>9991</t>
-  </si>
-  <si>
-    <t>9992</t>
-  </si>
-  <si>
-    <t>9993</t>
-  </si>
-  <si>
-    <t>9994</t>
-  </si>
-  <si>
-    <t>9995</t>
-  </si>
-  <si>
-    <t>9996</t>
-  </si>
-  <si>
-    <t>9997</t>
-  </si>
-  <si>
-    <t>9998</t>
-  </si>
-  <si>
-    <t>9999</t>
-  </si>
-  <si>
-    <t>10000</t>
+    <t>7001</t>
+  </si>
+  <si>
+    <t>7002</t>
+  </si>
+  <si>
+    <t>7003</t>
+  </si>
+  <si>
+    <t>7004</t>
+  </si>
+  <si>
+    <t>7005</t>
+  </si>
+  <si>
+    <t>7006</t>
+  </si>
+  <si>
+    <t>7007</t>
+  </si>
+  <si>
+    <t>7008</t>
+  </si>
+  <si>
+    <t>7009</t>
+  </si>
+  <si>
+    <t>7010</t>
+  </si>
+  <si>
+    <t>7011</t>
+  </si>
+  <si>
+    <t>7012</t>
+  </si>
+  <si>
+    <t>7013</t>
+  </si>
+  <si>
+    <t>7014</t>
+  </si>
+  <si>
+    <t>7015</t>
+  </si>
+  <si>
+    <t>7016</t>
+  </si>
+  <si>
+    <t>7017</t>
+  </si>
+  <si>
+    <t>7018</t>
+  </si>
+  <si>
+    <t>7019</t>
+  </si>
+  <si>
+    <t>7020</t>
+  </si>
+  <si>
+    <t>7021</t>
+  </si>
+  <si>
+    <t>7022</t>
+  </si>
+  <si>
+    <t>7023</t>
+  </si>
+  <si>
+    <t>7024</t>
+  </si>
+  <si>
+    <t>7025</t>
+  </si>
+  <si>
+    <t>7026</t>
+  </si>
+  <si>
+    <t>7027</t>
+  </si>
+  <si>
+    <t>7028</t>
+  </si>
+  <si>
+    <t>7029</t>
+  </si>
+  <si>
+    <t>7030</t>
+  </si>
+  <si>
+    <t>7031</t>
+  </si>
+  <si>
+    <t>7032</t>
+  </si>
+  <si>
+    <t>7033</t>
+  </si>
+  <si>
+    <t>7034</t>
+  </si>
+  <si>
+    <t>7035</t>
+  </si>
+  <si>
+    <t>7036</t>
+  </si>
+  <si>
+    <t>7037</t>
+  </si>
+  <si>
+    <t>7038</t>
+  </si>
+  <si>
+    <t>7039</t>
+  </si>
+  <si>
+    <t>7040</t>
+  </si>
+  <si>
+    <t>7041</t>
+  </si>
+  <si>
+    <t>7042</t>
+  </si>
+  <si>
+    <t>7043</t>
+  </si>
+  <si>
+    <t>7044</t>
+  </si>
+  <si>
+    <t>7045</t>
+  </si>
+  <si>
+    <t>7046</t>
+  </si>
+  <si>
+    <t>7047</t>
+  </si>
+  <si>
+    <t>7048</t>
+  </si>
+  <si>
+    <t>7049</t>
+  </si>
+  <si>
+    <t>7050</t>
+  </si>
+  <si>
+    <t>7051</t>
+  </si>
+  <si>
+    <t>7052</t>
+  </si>
+  <si>
+    <t>7053</t>
+  </si>
+  <si>
+    <t>7054</t>
+  </si>
+  <si>
+    <t>7055</t>
+  </si>
+  <si>
+    <t>7056</t>
+  </si>
+  <si>
+    <t>7057</t>
+  </si>
+  <si>
+    <t>7058</t>
+  </si>
+  <si>
+    <t>7059</t>
+  </si>
+  <si>
+    <t>7060</t>
+  </si>
+  <si>
+    <t>7061</t>
+  </si>
+  <si>
+    <t>7062</t>
+  </si>
+  <si>
+    <t>7063</t>
+  </si>
+  <si>
+    <t>7064</t>
+  </si>
+  <si>
+    <t>7065</t>
+  </si>
+  <si>
+    <t>7066</t>
+  </si>
+  <si>
+    <t>7067</t>
+  </si>
+  <si>
+    <t>7068</t>
+  </si>
+  <si>
+    <t>7069</t>
+  </si>
+  <si>
+    <t>7070</t>
+  </si>
+  <si>
+    <t>7071</t>
+  </si>
+  <si>
+    <t>7072</t>
+  </si>
+  <si>
+    <t>7073</t>
+  </si>
+  <si>
+    <t>7074</t>
+  </si>
+  <si>
+    <t>7075</t>
+  </si>
+  <si>
+    <t>7076</t>
+  </si>
+  <si>
+    <t>7077</t>
+  </si>
+  <si>
+    <t>7078</t>
+  </si>
+  <si>
+    <t>7079</t>
+  </si>
+  <si>
+    <t>7080</t>
+  </si>
+  <si>
+    <t>7081</t>
+  </si>
+  <si>
+    <t>7082</t>
+  </si>
+  <si>
+    <t>7083</t>
+  </si>
+  <si>
+    <t>7084</t>
+  </si>
+  <si>
+    <t>7085</t>
+  </si>
+  <si>
+    <t>7086</t>
+  </si>
+  <si>
+    <t>7087</t>
+  </si>
+  <si>
+    <t>7088</t>
+  </si>
+  <si>
+    <t>7089</t>
+  </si>
+  <si>
+    <t>7090</t>
+  </si>
+  <si>
+    <t>7091</t>
+  </si>
+  <si>
+    <t>7092</t>
+  </si>
+  <si>
+    <t>7093</t>
+  </si>
+  <si>
+    <t>7094</t>
+  </si>
+  <si>
+    <t>7095</t>
+  </si>
+  <si>
+    <t>7096</t>
+  </si>
+  <si>
+    <t>7097</t>
+  </si>
+  <si>
+    <t>7098</t>
+  </si>
+  <si>
+    <t>7099</t>
+  </si>
+  <si>
+    <t>7100</t>
+  </si>
+  <si>
+    <t>7101</t>
+  </si>
+  <si>
+    <t>7102</t>
+  </si>
+  <si>
+    <t>7103</t>
+  </si>
+  <si>
+    <t>7104</t>
+  </si>
+  <si>
+    <t>7105</t>
+  </si>
+  <si>
+    <t>7106</t>
+  </si>
+  <si>
+    <t>7107</t>
+  </si>
+  <si>
+    <t>7108</t>
+  </si>
+  <si>
+    <t>7109</t>
+  </si>
+  <si>
+    <t>7110</t>
+  </si>
+  <si>
+    <t>7111</t>
+  </si>
+  <si>
+    <t>7112</t>
+  </si>
+  <si>
+    <t>7113</t>
+  </si>
+  <si>
+    <t>7114</t>
+  </si>
+  <si>
+    <t>7115</t>
+  </si>
+  <si>
+    <t>7116</t>
+  </si>
+  <si>
+    <t>7117</t>
+  </si>
+  <si>
+    <t>7118</t>
+  </si>
+  <si>
+    <t>7119</t>
+  </si>
+  <si>
+    <t>7120</t>
+  </si>
+  <si>
+    <t>7121</t>
+  </si>
+  <si>
+    <t>7122</t>
+  </si>
+  <si>
+    <t>7123</t>
+  </si>
+  <si>
+    <t>7124</t>
+  </si>
+  <si>
+    <t>7125</t>
+  </si>
+  <si>
+    <t>7126</t>
+  </si>
+  <si>
+    <t>7127</t>
+  </si>
+  <si>
+    <t>7128</t>
+  </si>
+  <si>
+    <t>7129</t>
+  </si>
+  <si>
+    <t>7130</t>
+  </si>
+  <si>
+    <t>7131</t>
+  </si>
+  <si>
+    <t>7132</t>
+  </si>
+  <si>
+    <t>7133</t>
+  </si>
+  <si>
+    <t>7134</t>
+  </si>
+  <si>
+    <t>7135</t>
+  </si>
+  <si>
+    <t>7136</t>
+  </si>
+  <si>
+    <t>7137</t>
+  </si>
+  <si>
+    <t>7138</t>
+  </si>
+  <si>
+    <t>7139</t>
+  </si>
+  <si>
+    <t>7140</t>
+  </si>
+  <si>
+    <t>7141</t>
+  </si>
+  <si>
+    <t>7142</t>
+  </si>
+  <si>
+    <t>7143</t>
+  </si>
+  <si>
+    <t>7144</t>
+  </si>
+  <si>
+    <t>7145</t>
+  </si>
+  <si>
+    <t>7146</t>
+  </si>
+  <si>
+    <t>7147</t>
+  </si>
+  <si>
+    <t>7148</t>
+  </si>
+  <si>
+    <t>7149</t>
+  </si>
+  <si>
+    <t>7150</t>
+  </si>
+  <si>
+    <t>7151</t>
+  </si>
+  <si>
+    <t>7152</t>
+  </si>
+  <si>
+    <t>7153</t>
+  </si>
+  <si>
+    <t>7154</t>
+  </si>
+  <si>
+    <t>7155</t>
+  </si>
+  <si>
+    <t>7156</t>
+  </si>
+  <si>
+    <t>7157</t>
+  </si>
+  <si>
+    <t>7158</t>
+  </si>
+  <si>
+    <t>7159</t>
+  </si>
+  <si>
+    <t>7160</t>
+  </si>
+  <si>
+    <t>7161</t>
+  </si>
+  <si>
+    <t>7162</t>
+  </si>
+  <si>
+    <t>7163</t>
+  </si>
+  <si>
+    <t>7164</t>
+  </si>
+  <si>
+    <t>7165</t>
+  </si>
+  <si>
+    <t>7166</t>
+  </si>
+  <si>
+    <t>7167</t>
+  </si>
+  <si>
+    <t>7168</t>
+  </si>
+  <si>
+    <t>7169</t>
+  </si>
+  <si>
+    <t>7170</t>
+  </si>
+  <si>
+    <t>7171</t>
+  </si>
+  <si>
+    <t>7172</t>
+  </si>
+  <si>
+    <t>7173</t>
+  </si>
+  <si>
+    <t>7174</t>
+  </si>
+  <si>
+    <t>7175</t>
+  </si>
+  <si>
+    <t>7176</t>
+  </si>
+  <si>
+    <t>7177</t>
+  </si>
+  <si>
+    <t>7178</t>
+  </si>
+  <si>
+    <t>7179</t>
+  </si>
+  <si>
+    <t>7180</t>
+  </si>
+  <si>
+    <t>7181</t>
+  </si>
+  <si>
+    <t>7182</t>
+  </si>
+  <si>
+    <t>7183</t>
+  </si>
+  <si>
+    <t>7184</t>
+  </si>
+  <si>
+    <t>7185</t>
+  </si>
+  <si>
+    <t>7186</t>
+  </si>
+  <si>
+    <t>7187</t>
+  </si>
+  <si>
+    <t>7188</t>
+  </si>
+  <si>
+    <t>7189</t>
+  </si>
+  <si>
+    <t>7190</t>
+  </si>
+  <si>
+    <t>7191</t>
+  </si>
+  <si>
+    <t>7192</t>
+  </si>
+  <si>
+    <t>7193</t>
+  </si>
+  <si>
+    <t>7194</t>
+  </si>
+  <si>
+    <t>7195</t>
+  </si>
+  <si>
+    <t>7196</t>
+  </si>
+  <si>
+    <t>7197</t>
+  </si>
+  <si>
+    <t>7198</t>
+  </si>
+  <si>
+    <t>7199</t>
+  </si>
+  <si>
+    <t>7200</t>
+  </si>
+  <si>
+    <t>7201</t>
+  </si>
+  <si>
+    <t>7202</t>
+  </si>
+  <si>
+    <t>7203</t>
+  </si>
+  <si>
+    <t>7204</t>
+  </si>
+  <si>
+    <t>7205</t>
+  </si>
+  <si>
+    <t>7206</t>
+  </si>
+  <si>
+    <t>7207</t>
+  </si>
+  <si>
+    <t>7208</t>
+  </si>
+  <si>
+    <t>7209</t>
+  </si>
+  <si>
+    <t>7210</t>
+  </si>
+  <si>
+    <t>7211</t>
+  </si>
+  <si>
+    <t>7212</t>
+  </si>
+  <si>
+    <t>7213</t>
+  </si>
+  <si>
+    <t>7214</t>
+  </si>
+  <si>
+    <t>7215</t>
+  </si>
+  <si>
+    <t>7216</t>
+  </si>
+  <si>
+    <t>7217</t>
+  </si>
+  <si>
+    <t>7218</t>
+  </si>
+  <si>
+    <t>7219</t>
+  </si>
+  <si>
+    <t>7220</t>
+  </si>
+  <si>
+    <t>7221</t>
+  </si>
+  <si>
+    <t>7222</t>
+  </si>
+  <si>
+    <t>7223</t>
+  </si>
+  <si>
+    <t>7224</t>
+  </si>
+  <si>
+    <t>7225</t>
+  </si>
+  <si>
+    <t>7226</t>
+  </si>
+  <si>
+    <t>7227</t>
+  </si>
+  <si>
+    <t>7228</t>
+  </si>
+  <si>
+    <t>7229</t>
+  </si>
+  <si>
+    <t>7230</t>
+  </si>
+  <si>
+    <t>7231</t>
+  </si>
+  <si>
+    <t>7232</t>
+  </si>
+  <si>
+    <t>7233</t>
+  </si>
+  <si>
+    <t>7234</t>
+  </si>
+  <si>
+    <t>7235</t>
+  </si>
+  <si>
+    <t>7236</t>
+  </si>
+  <si>
+    <t>7237</t>
+  </si>
+  <si>
+    <t>7238</t>
+  </si>
+  <si>
+    <t>7239</t>
+  </si>
+  <si>
+    <t>7240</t>
+  </si>
+  <si>
+    <t>7241</t>
+  </si>
+  <si>
+    <t>7242</t>
+  </si>
+  <si>
+    <t>7243</t>
+  </si>
+  <si>
+    <t>7244</t>
+  </si>
+  <si>
+    <t>7245</t>
+  </si>
+  <si>
+    <t>7246</t>
+  </si>
+  <si>
+    <t>7247</t>
+  </si>
+  <si>
+    <t>7248</t>
+  </si>
+  <si>
+    <t>7249</t>
+  </si>
+  <si>
+    <t>7250</t>
+  </si>
+  <si>
+    <t>7251</t>
+  </si>
+  <si>
+    <t>7252</t>
+  </si>
+  <si>
+    <t>7253</t>
+  </si>
+  <si>
+    <t>7254</t>
+  </si>
+  <si>
+    <t>7255</t>
+  </si>
+  <si>
+    <t>7256</t>
+  </si>
+  <si>
+    <t>7257</t>
+  </si>
+  <si>
+    <t>7258</t>
+  </si>
+  <si>
+    <t>7259</t>
+  </si>
+  <si>
+    <t>7260</t>
+  </si>
+  <si>
+    <t>7261</t>
+  </si>
+  <si>
+    <t>7262</t>
+  </si>
+  <si>
+    <t>7263</t>
+  </si>
+  <si>
+    <t>7264</t>
+  </si>
+  <si>
+    <t>7265</t>
+  </si>
+  <si>
+    <t>7266</t>
+  </si>
+  <si>
+    <t>7267</t>
+  </si>
+  <si>
+    <t>7268</t>
+  </si>
+  <si>
+    <t>7269</t>
+  </si>
+  <si>
+    <t>7270</t>
+  </si>
+  <si>
+    <t>7271</t>
+  </si>
+  <si>
+    <t>7272</t>
+  </si>
+  <si>
+    <t>7273</t>
+  </si>
+  <si>
+    <t>7274</t>
+  </si>
+  <si>
+    <t>7275</t>
+  </si>
+  <si>
+    <t>7276</t>
+  </si>
+  <si>
+    <t>7277</t>
+  </si>
+  <si>
+    <t>7278</t>
+  </si>
+  <si>
+    <t>7279</t>
+  </si>
+  <si>
+    <t>7280</t>
+  </si>
+  <si>
+    <t>7281</t>
+  </si>
+  <si>
+    <t>7282</t>
+  </si>
+  <si>
+    <t>7283</t>
+  </si>
+  <si>
+    <t>7284</t>
+  </si>
+  <si>
+    <t>7285</t>
+  </si>
+  <si>
+    <t>7286</t>
+  </si>
+  <si>
+    <t>7287</t>
+  </si>
+  <si>
+    <t>7288</t>
+  </si>
+  <si>
+    <t>7289</t>
+  </si>
+  <si>
+    <t>7290</t>
+  </si>
+  <si>
+    <t>7291</t>
+  </si>
+  <si>
+    <t>7292</t>
+  </si>
+  <si>
+    <t>7293</t>
+  </si>
+  <si>
+    <t>7294</t>
+  </si>
+  <si>
+    <t>7295</t>
+  </si>
+  <si>
+    <t>7296</t>
+  </si>
+  <si>
+    <t>7297</t>
+  </si>
+  <si>
+    <t>7298</t>
+  </si>
+  <si>
+    <t>7299</t>
+  </si>
+  <si>
+    <t>7300</t>
+  </si>
+  <si>
+    <t>7301</t>
+  </si>
+  <si>
+    <t>7302</t>
+  </si>
+  <si>
+    <t>7303</t>
+  </si>
+  <si>
+    <t>7304</t>
+  </si>
+  <si>
+    <t>7305</t>
+  </si>
+  <si>
+    <t>7306</t>
+  </si>
+  <si>
+    <t>7307</t>
+  </si>
+  <si>
+    <t>7308</t>
+  </si>
+  <si>
+    <t>7309</t>
+  </si>
+  <si>
+    <t>7310</t>
+  </si>
+  <si>
+    <t>7311</t>
+  </si>
+  <si>
+    <t>7312</t>
+  </si>
+  <si>
+    <t>7313</t>
+  </si>
+  <si>
+    <t>7314</t>
+  </si>
+  <si>
+    <t>7315</t>
+  </si>
+  <si>
+    <t>7316</t>
+  </si>
+  <si>
+    <t>7317</t>
+  </si>
+  <si>
+    <t>7318</t>
+  </si>
+  <si>
+    <t>7319</t>
+  </si>
+  <si>
+    <t>7320</t>
+  </si>
+  <si>
+    <t>7321</t>
+  </si>
+  <si>
+    <t>7322</t>
+  </si>
+  <si>
+    <t>7323</t>
+  </si>
+  <si>
+    <t>7324</t>
+  </si>
+  <si>
+    <t>7325</t>
+  </si>
+  <si>
+    <t>7326</t>
+  </si>
+  <si>
+    <t>7327</t>
+  </si>
+  <si>
+    <t>7328</t>
+  </si>
+  <si>
+    <t>7329</t>
+  </si>
+  <si>
+    <t>7330</t>
+  </si>
+  <si>
+    <t>7331</t>
+  </si>
+  <si>
+    <t>7332</t>
+  </si>
+  <si>
+    <t>7333</t>
+  </si>
+  <si>
+    <t>7334</t>
+  </si>
+  <si>
+    <t>7335</t>
+  </si>
+  <si>
+    <t>7336</t>
+  </si>
+  <si>
+    <t>7337</t>
+  </si>
+  <si>
+    <t>7338</t>
+  </si>
+  <si>
+    <t>7339</t>
+  </si>
+  <si>
+    <t>7340</t>
+  </si>
+  <si>
+    <t>7341</t>
+  </si>
+  <si>
+    <t>7342</t>
+  </si>
+  <si>
+    <t>7343</t>
+  </si>
+  <si>
+    <t>7344</t>
+  </si>
+  <si>
+    <t>7345</t>
+  </si>
+  <si>
+    <t>7346</t>
+  </si>
+  <si>
+    <t>7347</t>
+  </si>
+  <si>
+    <t>7348</t>
+  </si>
+  <si>
+    <t>7349</t>
+  </si>
+  <si>
+    <t>7350</t>
+  </si>
+  <si>
+    <t>7351</t>
+  </si>
+  <si>
+    <t>7352</t>
+  </si>
+  <si>
+    <t>7353</t>
+  </si>
+  <si>
+    <t>7354</t>
+  </si>
+  <si>
+    <t>7355</t>
+  </si>
+  <si>
+    <t>7356</t>
+  </si>
+  <si>
+    <t>7357</t>
+  </si>
+  <si>
+    <t>7358</t>
+  </si>
+  <si>
+    <t>7359</t>
+  </si>
+  <si>
+    <t>7360</t>
+  </si>
+  <si>
+    <t>7361</t>
+  </si>
+  <si>
+    <t>7362</t>
+  </si>
+  <si>
+    <t>7363</t>
+  </si>
+  <si>
+    <t>7364</t>
+  </si>
+  <si>
+    <t>7365</t>
+  </si>
+  <si>
+    <t>7366</t>
+  </si>
+  <si>
+    <t>7367</t>
+  </si>
+  <si>
+    <t>7368</t>
+  </si>
+  <si>
+    <t>7369</t>
+  </si>
+  <si>
+    <t>7370</t>
+  </si>
+  <si>
+    <t>7371</t>
+  </si>
+  <si>
+    <t>7372</t>
+  </si>
+  <si>
+    <t>7373</t>
+  </si>
+  <si>
+    <t>7374</t>
+  </si>
+  <si>
+    <t>7375</t>
+  </si>
+  <si>
+    <t>7376</t>
+  </si>
+  <si>
+    <t>7377</t>
+  </si>
+  <si>
+    <t>7378</t>
+  </si>
+  <si>
+    <t>7379</t>
+  </si>
+  <si>
+    <t>7380</t>
+  </si>
+  <si>
+    <t>7381</t>
+  </si>
+  <si>
+    <t>7382</t>
+  </si>
+  <si>
+    <t>7383</t>
+  </si>
+  <si>
+    <t>7384</t>
+  </si>
+  <si>
+    <t>7385</t>
+  </si>
+  <si>
+    <t>7386</t>
+  </si>
+  <si>
+    <t>7387</t>
+  </si>
+  <si>
+    <t>7388</t>
+  </si>
+  <si>
+    <t>7389</t>
+  </si>
+  <si>
+    <t>7390</t>
+  </si>
+  <si>
+    <t>7391</t>
+  </si>
+  <si>
+    <t>7392</t>
+  </si>
+  <si>
+    <t>7393</t>
+  </si>
+  <si>
+    <t>7394</t>
+  </si>
+  <si>
+    <t>7395</t>
+  </si>
+  <si>
+    <t>7396</t>
+  </si>
+  <si>
+    <t>7397</t>
+  </si>
+  <si>
+    <t>7398</t>
+  </si>
+  <si>
+    <t>7399</t>
+  </si>
+  <si>
+    <t>7400</t>
+  </si>
+  <si>
+    <t>7401</t>
+  </si>
+  <si>
+    <t>7402</t>
+  </si>
+  <si>
+    <t>7403</t>
+  </si>
+  <si>
+    <t>7404</t>
+  </si>
+  <si>
+    <t>7405</t>
+  </si>
+  <si>
+    <t>7406</t>
+  </si>
+  <si>
+    <t>7407</t>
+  </si>
+  <si>
+    <t>7408</t>
+  </si>
+  <si>
+    <t>7409</t>
+  </si>
+  <si>
+    <t>7410</t>
+  </si>
+  <si>
+    <t>7411</t>
+  </si>
+  <si>
+    <t>7412</t>
+  </si>
+  <si>
+    <t>7413</t>
+  </si>
+  <si>
+    <t>7414</t>
+  </si>
+  <si>
+    <t>7415</t>
+  </si>
+  <si>
+    <t>7416</t>
+  </si>
+  <si>
+    <t>7417</t>
+  </si>
+  <si>
+    <t>7418</t>
+  </si>
+  <si>
+    <t>7419</t>
+  </si>
+  <si>
+    <t>7420</t>
+  </si>
+  <si>
+    <t>7421</t>
+  </si>
+  <si>
+    <t>7422</t>
+  </si>
+  <si>
+    <t>7423</t>
+  </si>
+  <si>
+    <t>7424</t>
+  </si>
+  <si>
+    <t>7425</t>
+  </si>
+  <si>
+    <t>7426</t>
+  </si>
+  <si>
+    <t>7427</t>
+  </si>
+  <si>
+    <t>7428</t>
+  </si>
+  <si>
+    <t>7429</t>
+  </si>
+  <si>
+    <t>7430</t>
+  </si>
+  <si>
+    <t>7431</t>
+  </si>
+  <si>
+    <t>7432</t>
+  </si>
+  <si>
+    <t>7433</t>
+  </si>
+  <si>
+    <t>7434</t>
+  </si>
+  <si>
+    <t>7435</t>
+  </si>
+  <si>
+    <t>7436</t>
+  </si>
+  <si>
+    <t>7437</t>
+  </si>
+  <si>
+    <t>7438</t>
+  </si>
+  <si>
+    <t>7439</t>
+  </si>
+  <si>
+    <t>7440</t>
+  </si>
+  <si>
+    <t>7441</t>
+  </si>
+  <si>
+    <t>7442</t>
+  </si>
+  <si>
+    <t>7443</t>
+  </si>
+  <si>
+    <t>7444</t>
+  </si>
+  <si>
+    <t>7445</t>
+  </si>
+  <si>
+    <t>7446</t>
+  </si>
+  <si>
+    <t>7447</t>
+  </si>
+  <si>
+    <t>7448</t>
+  </si>
+  <si>
+    <t>7449</t>
+  </si>
+  <si>
+    <t>7450</t>
+  </si>
+  <si>
+    <t>7451</t>
+  </si>
+  <si>
+    <t>7452</t>
+  </si>
+  <si>
+    <t>7453</t>
+  </si>
+  <si>
+    <t>7454</t>
+  </si>
+  <si>
+    <t>7455</t>
+  </si>
+  <si>
+    <t>7456</t>
+  </si>
+  <si>
+    <t>7457</t>
+  </si>
+  <si>
+    <t>7458</t>
+  </si>
+  <si>
+    <t>7459</t>
+  </si>
+  <si>
+    <t>7460</t>
+  </si>
+  <si>
+    <t>7461</t>
+  </si>
+  <si>
+    <t>7462</t>
+  </si>
+  <si>
+    <t>7463</t>
+  </si>
+  <si>
+    <t>7464</t>
+  </si>
+  <si>
+    <t>7465</t>
+  </si>
+  <si>
+    <t>7466</t>
+  </si>
+  <si>
+    <t>7467</t>
+  </si>
+  <si>
+    <t>7468</t>
+  </si>
+  <si>
+    <t>7469</t>
+  </si>
+  <si>
+    <t>7470</t>
+  </si>
+  <si>
+    <t>7471</t>
+  </si>
+  <si>
+    <t>7472</t>
+  </si>
+  <si>
+    <t>7473</t>
+  </si>
+  <si>
+    <t>7474</t>
+  </si>
+  <si>
+    <t>7475</t>
+  </si>
+  <si>
+    <t>7476</t>
+  </si>
+  <si>
+    <t>7477</t>
+  </si>
+  <si>
+    <t>7478</t>
+  </si>
+  <si>
+    <t>7479</t>
+  </si>
+  <si>
+    <t>7480</t>
+  </si>
+  <si>
+    <t>7481</t>
+  </si>
+  <si>
+    <t>7482</t>
+  </si>
+  <si>
+    <t>7483</t>
+  </si>
+  <si>
+    <t>7484</t>
+  </si>
+  <si>
+    <t>7485</t>
+  </si>
+  <si>
+    <t>7486</t>
+  </si>
+  <si>
+    <t>7487</t>
+  </si>
+  <si>
+    <t>7488</t>
+  </si>
+  <si>
+    <t>7489</t>
+  </si>
+  <si>
+    <t>7490</t>
+  </si>
+  <si>
+    <t>7491</t>
+  </si>
+  <si>
+    <t>7492</t>
+  </si>
+  <si>
+    <t>7493</t>
+  </si>
+  <si>
+    <t>7494</t>
+  </si>
+  <si>
+    <t>7495</t>
+  </si>
+  <si>
+    <t>7496</t>
+  </si>
+  <si>
+    <t>7497</t>
+  </si>
+  <si>
+    <t>7498</t>
+  </si>
+  <si>
+    <t>7499</t>
+  </si>
+  <si>
+    <t>7500</t>
+  </si>
+  <si>
+    <t>7501</t>
+  </si>
+  <si>
+    <t>7502</t>
+  </si>
+  <si>
+    <t>7503</t>
+  </si>
+  <si>
+    <t>7504</t>
+  </si>
+  <si>
+    <t>7505</t>
+  </si>
+  <si>
+    <t>7506</t>
+  </si>
+  <si>
+    <t>7507</t>
+  </si>
+  <si>
+    <t>7508</t>
+  </si>
+  <si>
+    <t>7509</t>
+  </si>
+  <si>
+    <t>7510</t>
+  </si>
+  <si>
+    <t>7511</t>
+  </si>
+  <si>
+    <t>7512</t>
+  </si>
+  <si>
+    <t>7513</t>
+  </si>
+  <si>
+    <t>7514</t>
+  </si>
+  <si>
+    <t>7515</t>
+  </si>
+  <si>
+    <t>7516</t>
+  </si>
+  <si>
+    <t>7517</t>
+  </si>
+  <si>
+    <t>7518</t>
+  </si>
+  <si>
+    <t>7519</t>
+  </si>
+  <si>
+    <t>7520</t>
+  </si>
+  <si>
+    <t>7521</t>
+  </si>
+  <si>
+    <t>7522</t>
+  </si>
+  <si>
+    <t>7523</t>
+  </si>
+  <si>
+    <t>7524</t>
+  </si>
+  <si>
+    <t>7525</t>
+  </si>
+  <si>
+    <t>7526</t>
+  </si>
+  <si>
+    <t>7527</t>
+  </si>
+  <si>
+    <t>7528</t>
+  </si>
+  <si>
+    <t>7529</t>
+  </si>
+  <si>
+    <t>7530</t>
+  </si>
+  <si>
+    <t>7531</t>
+  </si>
+  <si>
+    <t>7532</t>
+  </si>
+  <si>
+    <t>7533</t>
+  </si>
+  <si>
+    <t>7534</t>
+  </si>
+  <si>
+    <t>7535</t>
+  </si>
+  <si>
+    <t>7536</t>
+  </si>
+  <si>
+    <t>7537</t>
+  </si>
+  <si>
+    <t>7538</t>
+  </si>
+  <si>
+    <t>7539</t>
+  </si>
+  <si>
+    <t>7540</t>
+  </si>
+  <si>
+    <t>7541</t>
+  </si>
+  <si>
+    <t>7542</t>
+  </si>
+  <si>
+    <t>7543</t>
+  </si>
+  <si>
+    <t>7544</t>
+  </si>
+  <si>
+    <t>7545</t>
+  </si>
+  <si>
+    <t>7546</t>
+  </si>
+  <si>
+    <t>7547</t>
+  </si>
+  <si>
+    <t>7548</t>
+  </si>
+  <si>
+    <t>7549</t>
+  </si>
+  <si>
+    <t>7550</t>
+  </si>
+  <si>
+    <t>7551</t>
+  </si>
+  <si>
+    <t>7552</t>
+  </si>
+  <si>
+    <t>7553</t>
+  </si>
+  <si>
+    <t>7554</t>
+  </si>
+  <si>
+    <t>7555</t>
+  </si>
+  <si>
+    <t>7556</t>
+  </si>
+  <si>
+    <t>7557</t>
+  </si>
+  <si>
+    <t>7558</t>
+  </si>
+  <si>
+    <t>7559</t>
+  </si>
+  <si>
+    <t>7560</t>
+  </si>
+  <si>
+    <t>7561</t>
+  </si>
+  <si>
+    <t>7562</t>
+  </si>
+  <si>
+    <t>7563</t>
+  </si>
+  <si>
+    <t>7564</t>
+  </si>
+  <si>
+    <t>7565</t>
+  </si>
+  <si>
+    <t>7566</t>
+  </si>
+  <si>
+    <t>7567</t>
+  </si>
+  <si>
+    <t>7568</t>
+  </si>
+  <si>
+    <t>7569</t>
+  </si>
+  <si>
+    <t>7570</t>
+  </si>
+  <si>
+    <t>7571</t>
+  </si>
+  <si>
+    <t>7572</t>
+  </si>
+  <si>
+    <t>7573</t>
+  </si>
+  <si>
+    <t>7574</t>
+  </si>
+  <si>
+    <t>7575</t>
+  </si>
+  <si>
+    <t>7576</t>
+  </si>
+  <si>
+    <t>7577</t>
+  </si>
+  <si>
+    <t>7578</t>
+  </si>
+  <si>
+    <t>7579</t>
+  </si>
+  <si>
+    <t>7580</t>
+  </si>
+  <si>
+    <t>7581</t>
+  </si>
+  <si>
+    <t>7582</t>
+  </si>
+  <si>
+    <t>7583</t>
+  </si>
+  <si>
+    <t>7584</t>
+  </si>
+  <si>
+    <t>7585</t>
+  </si>
+  <si>
+    <t>7586</t>
+  </si>
+  <si>
+    <t>7587</t>
+  </si>
+  <si>
+    <t>7588</t>
+  </si>
+  <si>
+    <t>7589</t>
+  </si>
+  <si>
+    <t>7590</t>
+  </si>
+  <si>
+    <t>7591</t>
+  </si>
+  <si>
+    <t>7592</t>
+  </si>
+  <si>
+    <t>7593</t>
+  </si>
+  <si>
+    <t>7594</t>
+  </si>
+  <si>
+    <t>7595</t>
+  </si>
+  <si>
+    <t>7596</t>
+  </si>
+  <si>
+    <t>7597</t>
+  </si>
+  <si>
+    <t>7598</t>
+  </si>
+  <si>
+    <t>7599</t>
+  </si>
+  <si>
+    <t>7600</t>
+  </si>
+  <si>
+    <t>7601</t>
+  </si>
+  <si>
+    <t>7602</t>
+  </si>
+  <si>
+    <t>7603</t>
+  </si>
+  <si>
+    <t>7604</t>
+  </si>
+  <si>
+    <t>7605</t>
+  </si>
+  <si>
+    <t>7606</t>
+  </si>
+  <si>
+    <t>7607</t>
+  </si>
+  <si>
+    <t>7608</t>
+  </si>
+  <si>
+    <t>7609</t>
+  </si>
+  <si>
+    <t>7610</t>
+  </si>
+  <si>
+    <t>7611</t>
+  </si>
+  <si>
+    <t>7612</t>
+  </si>
+  <si>
+    <t>7613</t>
+  </si>
+  <si>
+    <t>7614</t>
+  </si>
+  <si>
+    <t>7615</t>
+  </si>
+  <si>
+    <t>7616</t>
+  </si>
+  <si>
+    <t>7617</t>
+  </si>
+  <si>
+    <t>7618</t>
+  </si>
+  <si>
+    <t>7619</t>
+  </si>
+  <si>
+    <t>7620</t>
+  </si>
+  <si>
+    <t>7621</t>
+  </si>
+  <si>
+    <t>7622</t>
+  </si>
+  <si>
+    <t>7623</t>
+  </si>
+  <si>
+    <t>7624</t>
+  </si>
+  <si>
+    <t>7625</t>
+  </si>
+  <si>
+    <t>7626</t>
+  </si>
+  <si>
+    <t>7627</t>
+  </si>
+  <si>
+    <t>7628</t>
+  </si>
+  <si>
+    <t>7629</t>
+  </si>
+  <si>
+    <t>7630</t>
+  </si>
+  <si>
+    <t>7631</t>
+  </si>
+  <si>
+    <t>7632</t>
+  </si>
+  <si>
+    <t>7633</t>
+  </si>
+  <si>
+    <t>7634</t>
+  </si>
+  <si>
+    <t>7635</t>
+  </si>
+  <si>
+    <t>7636</t>
+  </si>
+  <si>
+    <t>7637</t>
+  </si>
+  <si>
+    <t>7638</t>
+  </si>
+  <si>
+    <t>7639</t>
+  </si>
+  <si>
+    <t>7640</t>
+  </si>
+  <si>
+    <t>7641</t>
+  </si>
+  <si>
+    <t>7642</t>
+  </si>
+  <si>
+    <t>7643</t>
+  </si>
+  <si>
+    <t>7644</t>
+  </si>
+  <si>
+    <t>7645</t>
+  </si>
+  <si>
+    <t>7646</t>
+  </si>
+  <si>
+    <t>7647</t>
+  </si>
+  <si>
+    <t>7648</t>
+  </si>
+  <si>
+    <t>7649</t>
+  </si>
+  <si>
+    <t>7650</t>
+  </si>
+  <si>
+    <t>7651</t>
+  </si>
+  <si>
+    <t>7652</t>
+  </si>
+  <si>
+    <t>7653</t>
+  </si>
+  <si>
+    <t>7654</t>
+  </si>
+  <si>
+    <t>7655</t>
+  </si>
+  <si>
+    <t>7656</t>
+  </si>
+  <si>
+    <t>7657</t>
+  </si>
+  <si>
+    <t>7658</t>
+  </si>
+  <si>
+    <t>7659</t>
+  </si>
+  <si>
+    <t>7660</t>
+  </si>
+  <si>
+    <t>7661</t>
+  </si>
+  <si>
+    <t>7662</t>
+  </si>
+  <si>
+    <t>7663</t>
+  </si>
+  <si>
+    <t>7664</t>
+  </si>
+  <si>
+    <t>7665</t>
+  </si>
+  <si>
+    <t>7666</t>
+  </si>
+  <si>
+    <t>7667</t>
+  </si>
+  <si>
+    <t>7668</t>
+  </si>
+  <si>
+    <t>7669</t>
+  </si>
+  <si>
+    <t>7670</t>
+  </si>
+  <si>
+    <t>7671</t>
+  </si>
+  <si>
+    <t>7672</t>
+  </si>
+  <si>
+    <t>7673</t>
+  </si>
+  <si>
+    <t>7674</t>
+  </si>
+  <si>
+    <t>7675</t>
+  </si>
+  <si>
+    <t>7676</t>
+  </si>
+  <si>
+    <t>7677</t>
+  </si>
+  <si>
+    <t>7678</t>
+  </si>
+  <si>
+    <t>7679</t>
+  </si>
+  <si>
+    <t>7680</t>
+  </si>
+  <si>
+    <t>7681</t>
+  </si>
+  <si>
+    <t>7682</t>
+  </si>
+  <si>
+    <t>7683</t>
+  </si>
+  <si>
+    <t>7684</t>
+  </si>
+  <si>
+    <t>7685</t>
+  </si>
+  <si>
+    <t>7686</t>
+  </si>
+  <si>
+    <t>7687</t>
+  </si>
+  <si>
+    <t>7688</t>
+  </si>
+  <si>
+    <t>7689</t>
+  </si>
+  <si>
+    <t>7690</t>
+  </si>
+  <si>
+    <t>7691</t>
+  </si>
+  <si>
+    <t>7692</t>
+  </si>
+  <si>
+    <t>7693</t>
+  </si>
+  <si>
+    <t>7694</t>
+  </si>
+  <si>
+    <t>7695</t>
+  </si>
+  <si>
+    <t>7696</t>
+  </si>
+  <si>
+    <t>7697</t>
+  </si>
+  <si>
+    <t>7698</t>
+  </si>
+  <si>
+    <t>7699</t>
+  </si>
+  <si>
+    <t>7700</t>
+  </si>
+  <si>
+    <t>7701</t>
+  </si>
+  <si>
+    <t>7702</t>
+  </si>
+  <si>
+    <t>7703</t>
+  </si>
+  <si>
+    <t>7704</t>
+  </si>
+  <si>
+    <t>7705</t>
+  </si>
+  <si>
+    <t>7706</t>
+  </si>
+  <si>
+    <t>7707</t>
+  </si>
+  <si>
+    <t>7708</t>
+  </si>
+  <si>
+    <t>7709</t>
+  </si>
+  <si>
+    <t>7710</t>
+  </si>
+  <si>
+    <t>7711</t>
+  </si>
+  <si>
+    <t>7712</t>
+  </si>
+  <si>
+    <t>7713</t>
+  </si>
+  <si>
+    <t>7714</t>
+  </si>
+  <si>
+    <t>7715</t>
+  </si>
+  <si>
+    <t>7716</t>
+  </si>
+  <si>
+    <t>7717</t>
+  </si>
+  <si>
+    <t>7718</t>
+  </si>
+  <si>
+    <t>7719</t>
+  </si>
+  <si>
+    <t>7720</t>
+  </si>
+  <si>
+    <t>7721</t>
+  </si>
+  <si>
+    <t>7722</t>
+  </si>
+  <si>
+    <t>7723</t>
+  </si>
+  <si>
+    <t>7724</t>
+  </si>
+  <si>
+    <t>7725</t>
+  </si>
+  <si>
+    <t>7726</t>
+  </si>
+  <si>
+    <t>7727</t>
+  </si>
+  <si>
+    <t>7728</t>
+  </si>
+  <si>
+    <t>7729</t>
+  </si>
+  <si>
+    <t>7730</t>
+  </si>
+  <si>
+    <t>7731</t>
+  </si>
+  <si>
+    <t>7732</t>
+  </si>
+  <si>
+    <t>7733</t>
+  </si>
+  <si>
+    <t>7734</t>
+  </si>
+  <si>
+    <t>7735</t>
+  </si>
+  <si>
+    <t>7736</t>
+  </si>
+  <si>
+    <t>7737</t>
+  </si>
+  <si>
+    <t>7738</t>
+  </si>
+  <si>
+    <t>7739</t>
+  </si>
+  <si>
+    <t>7740</t>
+  </si>
+  <si>
+    <t>7741</t>
+  </si>
+  <si>
+    <t>7742</t>
+  </si>
+  <si>
+    <t>7743</t>
+  </si>
+  <si>
+    <t>7744</t>
+  </si>
+  <si>
+    <t>7745</t>
+  </si>
+  <si>
+    <t>7746</t>
+  </si>
+  <si>
+    <t>7747</t>
+  </si>
+  <si>
+    <t>7748</t>
+  </si>
+  <si>
+    <t>7749</t>
+  </si>
+  <si>
+    <t>7750</t>
+  </si>
+  <si>
+    <t>7751</t>
+  </si>
+  <si>
+    <t>7752</t>
+  </si>
+  <si>
+    <t>7753</t>
+  </si>
+  <si>
+    <t>7754</t>
+  </si>
+  <si>
+    <t>7755</t>
+  </si>
+  <si>
+    <t>7756</t>
+  </si>
+  <si>
+    <t>7757</t>
+  </si>
+  <si>
+    <t>7758</t>
+  </si>
+  <si>
+    <t>7759</t>
+  </si>
+  <si>
+    <t>7760</t>
+  </si>
+  <si>
+    <t>7761</t>
+  </si>
+  <si>
+    <t>7762</t>
+  </si>
+  <si>
+    <t>7763</t>
+  </si>
+  <si>
+    <t>7764</t>
+  </si>
+  <si>
+    <t>7765</t>
+  </si>
+  <si>
+    <t>7766</t>
+  </si>
+  <si>
+    <t>7767</t>
+  </si>
+  <si>
+    <t>7768</t>
+  </si>
+  <si>
+    <t>7769</t>
+  </si>
+  <si>
+    <t>7770</t>
+  </si>
+  <si>
+    <t>7771</t>
+  </si>
+  <si>
+    <t>7772</t>
+  </si>
+  <si>
+    <t>7773</t>
+  </si>
+  <si>
+    <t>7774</t>
+  </si>
+  <si>
+    <t>7775</t>
+  </si>
+  <si>
+    <t>7776</t>
+  </si>
+  <si>
+    <t>7777</t>
+  </si>
+  <si>
+    <t>7778</t>
+  </si>
+  <si>
+    <t>7779</t>
+  </si>
+  <si>
+    <t>7780</t>
+  </si>
+  <si>
+    <t>7781</t>
+  </si>
+  <si>
+    <t>7782</t>
+  </si>
+  <si>
+    <t>7783</t>
+  </si>
+  <si>
+    <t>7784</t>
+  </si>
+  <si>
+    <t>7785</t>
+  </si>
+  <si>
+    <t>7786</t>
+  </si>
+  <si>
+    <t>7787</t>
+  </si>
+  <si>
+    <t>7788</t>
+  </si>
+  <si>
+    <t>7789</t>
+  </si>
+  <si>
+    <t>7790</t>
+  </si>
+  <si>
+    <t>7791</t>
+  </si>
+  <si>
+    <t>7792</t>
+  </si>
+  <si>
+    <t>7793</t>
+  </si>
+  <si>
+    <t>7794</t>
+  </si>
+  <si>
+    <t>7795</t>
+  </si>
+  <si>
+    <t>7796</t>
+  </si>
+  <si>
+    <t>7797</t>
+  </si>
+  <si>
+    <t>7798</t>
+  </si>
+  <si>
+    <t>7799</t>
+  </si>
+  <si>
+    <t>7800</t>
+  </si>
+  <si>
+    <t>7801</t>
+  </si>
+  <si>
+    <t>7802</t>
+  </si>
+  <si>
+    <t>7803</t>
+  </si>
+  <si>
+    <t>7804</t>
+  </si>
+  <si>
+    <t>7805</t>
+  </si>
+  <si>
+    <t>7806</t>
+  </si>
+  <si>
+    <t>7807</t>
+  </si>
+  <si>
+    <t>7808</t>
+  </si>
+  <si>
+    <t>7809</t>
+  </si>
+  <si>
+    <t>7810</t>
+  </si>
+  <si>
+    <t>7811</t>
+  </si>
+  <si>
+    <t>7812</t>
+  </si>
+  <si>
+    <t>7813</t>
+  </si>
+  <si>
+    <t>7814</t>
+  </si>
+  <si>
+    <t>7815</t>
+  </si>
+  <si>
+    <t>7816</t>
+  </si>
+  <si>
+    <t>7817</t>
+  </si>
+  <si>
+    <t>7818</t>
+  </si>
+  <si>
+    <t>7819</t>
+  </si>
+  <si>
+    <t>7820</t>
+  </si>
+  <si>
+    <t>7821</t>
+  </si>
+  <si>
+    <t>7822</t>
+  </si>
+  <si>
+    <t>7823</t>
+  </si>
+  <si>
+    <t>7824</t>
+  </si>
+  <si>
+    <t>7825</t>
+  </si>
+  <si>
+    <t>7826</t>
+  </si>
+  <si>
+    <t>7827</t>
+  </si>
+  <si>
+    <t>7828</t>
+  </si>
+  <si>
+    <t>7829</t>
+  </si>
+  <si>
+    <t>7830</t>
+  </si>
+  <si>
+    <t>7831</t>
+  </si>
+  <si>
+    <t>7832</t>
+  </si>
+  <si>
+    <t>7833</t>
+  </si>
+  <si>
+    <t>7834</t>
+  </si>
+  <si>
+    <t>7835</t>
+  </si>
+  <si>
+    <t>7836</t>
+  </si>
+  <si>
+    <t>7837</t>
+  </si>
+  <si>
+    <t>7838</t>
+  </si>
+  <si>
+    <t>7839</t>
+  </si>
+  <si>
+    <t>7840</t>
+  </si>
+  <si>
+    <t>7841</t>
+  </si>
+  <si>
+    <t>7842</t>
+  </si>
+  <si>
+    <t>7843</t>
+  </si>
+  <si>
+    <t>7844</t>
+  </si>
+  <si>
+    <t>7845</t>
+  </si>
+  <si>
+    <t>7846</t>
+  </si>
+  <si>
+    <t>7847</t>
+  </si>
+  <si>
+    <t>7848</t>
+  </si>
+  <si>
+    <t>7849</t>
+  </si>
+  <si>
+    <t>7850</t>
+  </si>
+  <si>
+    <t>7851</t>
+  </si>
+  <si>
+    <t>7852</t>
+  </si>
+  <si>
+    <t>7853</t>
+  </si>
+  <si>
+    <t>7854</t>
+  </si>
+  <si>
+    <t>7855</t>
+  </si>
+  <si>
+    <t>7856</t>
+  </si>
+  <si>
+    <t>7857</t>
+  </si>
+  <si>
+    <t>7858</t>
+  </si>
+  <si>
+    <t>7859</t>
+  </si>
+  <si>
+    <t>7860</t>
+  </si>
+  <si>
+    <t>7861</t>
+  </si>
+  <si>
+    <t>7862</t>
+  </si>
+  <si>
+    <t>7863</t>
+  </si>
+  <si>
+    <t>7864</t>
+  </si>
+  <si>
+    <t>7865</t>
+  </si>
+  <si>
+    <t>7866</t>
+  </si>
+  <si>
+    <t>7867</t>
+  </si>
+  <si>
+    <t>7868</t>
+  </si>
+  <si>
+    <t>7869</t>
+  </si>
+  <si>
+    <t>7870</t>
+  </si>
+  <si>
+    <t>7871</t>
+  </si>
+  <si>
+    <t>7872</t>
+  </si>
+  <si>
+    <t>7873</t>
+  </si>
+  <si>
+    <t>7874</t>
+  </si>
+  <si>
+    <t>7875</t>
+  </si>
+  <si>
+    <t>7876</t>
+  </si>
+  <si>
+    <t>7877</t>
+  </si>
+  <si>
+    <t>7878</t>
+  </si>
+  <si>
+    <t>7879</t>
+  </si>
+  <si>
+    <t>7880</t>
+  </si>
+  <si>
+    <t>7881</t>
+  </si>
+  <si>
+    <t>7882</t>
+  </si>
+  <si>
+    <t>7883</t>
+  </si>
+  <si>
+    <t>7884</t>
+  </si>
+  <si>
+    <t>7885</t>
+  </si>
+  <si>
+    <t>7886</t>
+  </si>
+  <si>
+    <t>7887</t>
+  </si>
+  <si>
+    <t>7888</t>
+  </si>
+  <si>
+    <t>7889</t>
+  </si>
+  <si>
+    <t>7890</t>
+  </si>
+  <si>
+    <t>7891</t>
+  </si>
+  <si>
+    <t>7892</t>
+  </si>
+  <si>
+    <t>7893</t>
+  </si>
+  <si>
+    <t>7894</t>
+  </si>
+  <si>
+    <t>7895</t>
+  </si>
+  <si>
+    <t>7896</t>
+  </si>
+  <si>
+    <t>7897</t>
+  </si>
+  <si>
+    <t>7898</t>
+  </si>
+  <si>
+    <t>7899</t>
+  </si>
+  <si>
+    <t>7900</t>
+  </si>
+  <si>
+    <t>7901</t>
+  </si>
+  <si>
+    <t>7902</t>
+  </si>
+  <si>
+    <t>7903</t>
+  </si>
+  <si>
+    <t>7904</t>
+  </si>
+  <si>
+    <t>7905</t>
+  </si>
+  <si>
+    <t>7906</t>
+  </si>
+  <si>
+    <t>7907</t>
+  </si>
+  <si>
+    <t>7908</t>
+  </si>
+  <si>
+    <t>7909</t>
+  </si>
+  <si>
+    <t>7910</t>
+  </si>
+  <si>
+    <t>7911</t>
+  </si>
+  <si>
+    <t>7912</t>
+  </si>
+  <si>
+    <t>7913</t>
+  </si>
+  <si>
+    <t>7914</t>
+  </si>
+  <si>
+    <t>7915</t>
+  </si>
+  <si>
+    <t>7916</t>
+  </si>
+  <si>
+    <t>7917</t>
+  </si>
+  <si>
+    <t>7918</t>
+  </si>
+  <si>
+    <t>7919</t>
+  </si>
+  <si>
+    <t>7920</t>
+  </si>
+  <si>
+    <t>7921</t>
+  </si>
+  <si>
+    <t>7922</t>
+  </si>
+  <si>
+    <t>7923</t>
+  </si>
+  <si>
+    <t>7924</t>
+  </si>
+  <si>
+    <t>7925</t>
+  </si>
+  <si>
+    <t>7926</t>
+  </si>
+  <si>
+    <t>7927</t>
+  </si>
+  <si>
+    <t>7928</t>
+  </si>
+  <si>
+    <t>7929</t>
+  </si>
+  <si>
+    <t>7930</t>
+  </si>
+  <si>
+    <t>7931</t>
+  </si>
+  <si>
+    <t>7932</t>
+  </si>
+  <si>
+    <t>7933</t>
+  </si>
+  <si>
+    <t>7934</t>
+  </si>
+  <si>
+    <t>7935</t>
+  </si>
+  <si>
+    <t>7936</t>
+  </si>
+  <si>
+    <t>7937</t>
+  </si>
+  <si>
+    <t>7938</t>
+  </si>
+  <si>
+    <t>7939</t>
+  </si>
+  <si>
+    <t>7940</t>
+  </si>
+  <si>
+    <t>7941</t>
+  </si>
+  <si>
+    <t>7942</t>
+  </si>
+  <si>
+    <t>7943</t>
+  </si>
+  <si>
+    <t>7944</t>
+  </si>
+  <si>
+    <t>7945</t>
+  </si>
+  <si>
+    <t>7946</t>
+  </si>
+  <si>
+    <t>7947</t>
+  </si>
+  <si>
+    <t>7948</t>
+  </si>
+  <si>
+    <t>7949</t>
+  </si>
+  <si>
+    <t>7950</t>
+  </si>
+  <si>
+    <t>7951</t>
+  </si>
+  <si>
+    <t>7952</t>
+  </si>
+  <si>
+    <t>7953</t>
+  </si>
+  <si>
+    <t>7954</t>
+  </si>
+  <si>
+    <t>7955</t>
+  </si>
+  <si>
+    <t>7956</t>
+  </si>
+  <si>
+    <t>7957</t>
+  </si>
+  <si>
+    <t>7958</t>
+  </si>
+  <si>
+    <t>7959</t>
+  </si>
+  <si>
+    <t>7960</t>
+  </si>
+  <si>
+    <t>7961</t>
+  </si>
+  <si>
+    <t>7962</t>
+  </si>
+  <si>
+    <t>7963</t>
+  </si>
+  <si>
+    <t>7964</t>
+  </si>
+  <si>
+    <t>7965</t>
+  </si>
+  <si>
+    <t>7966</t>
+  </si>
+  <si>
+    <t>7967</t>
+  </si>
+  <si>
+    <t>7968</t>
+  </si>
+  <si>
+    <t>7969</t>
+  </si>
+  <si>
+    <t>7970</t>
+  </si>
+  <si>
+    <t>7971</t>
+  </si>
+  <si>
+    <t>7972</t>
+  </si>
+  <si>
+    <t>7973</t>
+  </si>
+  <si>
+    <t>7974</t>
+  </si>
+  <si>
+    <t>7975</t>
+  </si>
+  <si>
+    <t>7976</t>
+  </si>
+  <si>
+    <t>7977</t>
+  </si>
+  <si>
+    <t>7978</t>
+  </si>
+  <si>
+    <t>7979</t>
+  </si>
+  <si>
+    <t>7980</t>
+  </si>
+  <si>
+    <t>7981</t>
+  </si>
+  <si>
+    <t>7982</t>
+  </si>
+  <si>
+    <t>7983</t>
+  </si>
+  <si>
+    <t>7984</t>
+  </si>
+  <si>
+    <t>7985</t>
+  </si>
+  <si>
+    <t>7986</t>
+  </si>
+  <si>
+    <t>7987</t>
+  </si>
+  <si>
+    <t>7988</t>
+  </si>
+  <si>
+    <t>7989</t>
+  </si>
+  <si>
+    <t>7990</t>
+  </si>
+  <si>
+    <t>7991</t>
+  </si>
+  <si>
+    <t>7992</t>
+  </si>
+  <si>
+    <t>7993</t>
+  </si>
+  <si>
+    <t>7994</t>
+  </si>
+  <si>
+    <t>7995</t>
+  </si>
+  <si>
+    <t>7996</t>
+  </si>
+  <si>
+    <t>7997</t>
+  </si>
+  <si>
+    <t>7998</t>
+  </si>
+  <si>
+    <t>7999</t>
+  </si>
+  <si>
+    <t>8000</t>
   </si>
 </sst>
 </file>

--- a/terrebone/v12_api/input.xlsx
+++ b/terrebone/v12_api/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\steve\random stuff\Terrebone\FHR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAD46E9-847C-4422-9E94-A752200429AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2877B2F0-F361-4680-A38E-5C8F1C73700F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="1015">
   <si>
     <t>Demo_Id</t>
   </si>
@@ -69,3004 +69,3007 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>7001</t>
-  </si>
-  <si>
-    <t>7002</t>
-  </si>
-  <si>
-    <t>7003</t>
-  </si>
-  <si>
-    <t>7004</t>
-  </si>
-  <si>
-    <t>7005</t>
-  </si>
-  <si>
-    <t>7006</t>
-  </si>
-  <si>
-    <t>7007</t>
-  </si>
-  <si>
-    <t>7008</t>
-  </si>
-  <si>
-    <t>7009</t>
-  </si>
-  <si>
-    <t>7010</t>
-  </si>
-  <si>
-    <t>7011</t>
-  </si>
-  <si>
-    <t>7012</t>
-  </si>
-  <si>
-    <t>7013</t>
-  </si>
-  <si>
-    <t>7014</t>
-  </si>
-  <si>
-    <t>7015</t>
-  </si>
-  <si>
-    <t>7016</t>
-  </si>
-  <si>
-    <t>7017</t>
-  </si>
-  <si>
-    <t>7018</t>
-  </si>
-  <si>
-    <t>7019</t>
-  </si>
-  <si>
-    <t>7020</t>
-  </si>
-  <si>
-    <t>7021</t>
-  </si>
-  <si>
-    <t>7022</t>
-  </si>
-  <si>
-    <t>7023</t>
-  </si>
-  <si>
-    <t>7024</t>
-  </si>
-  <si>
-    <t>7025</t>
-  </si>
-  <si>
-    <t>7026</t>
-  </si>
-  <si>
-    <t>7027</t>
-  </si>
-  <si>
-    <t>7028</t>
-  </si>
-  <si>
-    <t>7029</t>
-  </si>
-  <si>
-    <t>7030</t>
-  </si>
-  <si>
-    <t>7031</t>
-  </si>
-  <si>
-    <t>7032</t>
-  </si>
-  <si>
-    <t>7033</t>
-  </si>
-  <si>
-    <t>7034</t>
-  </si>
-  <si>
-    <t>7035</t>
-  </si>
-  <si>
-    <t>7036</t>
-  </si>
-  <si>
-    <t>7037</t>
-  </si>
-  <si>
-    <t>7038</t>
-  </si>
-  <si>
-    <t>7039</t>
-  </si>
-  <si>
-    <t>7040</t>
-  </si>
-  <si>
-    <t>7041</t>
-  </si>
-  <si>
-    <t>7042</t>
-  </si>
-  <si>
-    <t>7043</t>
-  </si>
-  <si>
-    <t>7044</t>
-  </si>
-  <si>
-    <t>7045</t>
-  </si>
-  <si>
-    <t>7046</t>
-  </si>
-  <si>
-    <t>7047</t>
-  </si>
-  <si>
-    <t>7048</t>
-  </si>
-  <si>
-    <t>7049</t>
-  </si>
-  <si>
-    <t>7050</t>
-  </si>
-  <si>
-    <t>7051</t>
-  </si>
-  <si>
-    <t>7052</t>
-  </si>
-  <si>
-    <t>7053</t>
-  </si>
-  <si>
-    <t>7054</t>
-  </si>
-  <si>
-    <t>7055</t>
-  </si>
-  <si>
-    <t>7056</t>
-  </si>
-  <si>
-    <t>7057</t>
-  </si>
-  <si>
-    <t>7058</t>
-  </si>
-  <si>
-    <t>7059</t>
-  </si>
-  <si>
-    <t>7060</t>
-  </si>
-  <si>
-    <t>7061</t>
-  </si>
-  <si>
-    <t>7062</t>
-  </si>
-  <si>
-    <t>7063</t>
-  </si>
-  <si>
-    <t>7064</t>
-  </si>
-  <si>
-    <t>7065</t>
-  </si>
-  <si>
-    <t>7066</t>
-  </si>
-  <si>
-    <t>7067</t>
-  </si>
-  <si>
-    <t>7068</t>
-  </si>
-  <si>
-    <t>7069</t>
-  </si>
-  <si>
-    <t>7070</t>
-  </si>
-  <si>
-    <t>7071</t>
-  </si>
-  <si>
-    <t>7072</t>
-  </si>
-  <si>
-    <t>7073</t>
-  </si>
-  <si>
-    <t>7074</t>
-  </si>
-  <si>
-    <t>7075</t>
-  </si>
-  <si>
-    <t>7076</t>
-  </si>
-  <si>
-    <t>7077</t>
-  </si>
-  <si>
-    <t>7078</t>
-  </si>
-  <si>
-    <t>7079</t>
-  </si>
-  <si>
-    <t>7080</t>
-  </si>
-  <si>
-    <t>7081</t>
-  </si>
-  <si>
-    <t>7082</t>
-  </si>
-  <si>
-    <t>7083</t>
-  </si>
-  <si>
-    <t>7084</t>
-  </si>
-  <si>
-    <t>7085</t>
-  </si>
-  <si>
-    <t>7086</t>
-  </si>
-  <si>
-    <t>7087</t>
-  </si>
-  <si>
-    <t>7088</t>
-  </si>
-  <si>
-    <t>7089</t>
-  </si>
-  <si>
-    <t>7090</t>
-  </si>
-  <si>
-    <t>7091</t>
-  </si>
-  <si>
-    <t>7092</t>
-  </si>
-  <si>
-    <t>7093</t>
-  </si>
-  <si>
-    <t>7094</t>
-  </si>
-  <si>
-    <t>7095</t>
-  </si>
-  <si>
-    <t>7096</t>
-  </si>
-  <si>
-    <t>7097</t>
-  </si>
-  <si>
-    <t>7098</t>
-  </si>
-  <si>
-    <t>7099</t>
-  </si>
-  <si>
-    <t>7100</t>
-  </si>
-  <si>
-    <t>7101</t>
-  </si>
-  <si>
-    <t>7102</t>
-  </si>
-  <si>
-    <t>7103</t>
-  </si>
-  <si>
-    <t>7104</t>
-  </si>
-  <si>
-    <t>7105</t>
-  </si>
-  <si>
-    <t>7106</t>
-  </si>
-  <si>
-    <t>7107</t>
-  </si>
-  <si>
-    <t>7108</t>
-  </si>
-  <si>
-    <t>7109</t>
-  </si>
-  <si>
-    <t>7110</t>
-  </si>
-  <si>
-    <t>7111</t>
-  </si>
-  <si>
-    <t>7112</t>
-  </si>
-  <si>
-    <t>7113</t>
-  </si>
-  <si>
-    <t>7114</t>
-  </si>
-  <si>
-    <t>7115</t>
-  </si>
-  <si>
-    <t>7116</t>
-  </si>
-  <si>
-    <t>7117</t>
-  </si>
-  <si>
-    <t>7118</t>
-  </si>
-  <si>
-    <t>7119</t>
-  </si>
-  <si>
-    <t>7120</t>
-  </si>
-  <si>
-    <t>7121</t>
-  </si>
-  <si>
-    <t>7122</t>
-  </si>
-  <si>
-    <t>7123</t>
-  </si>
-  <si>
-    <t>7124</t>
-  </si>
-  <si>
-    <t>7125</t>
-  </si>
-  <si>
-    <t>7126</t>
-  </si>
-  <si>
-    <t>7127</t>
-  </si>
-  <si>
-    <t>7128</t>
-  </si>
-  <si>
-    <t>7129</t>
-  </si>
-  <si>
-    <t>7130</t>
-  </si>
-  <si>
-    <t>7131</t>
-  </si>
-  <si>
-    <t>7132</t>
-  </si>
-  <si>
-    <t>7133</t>
-  </si>
-  <si>
-    <t>7134</t>
-  </si>
-  <si>
-    <t>7135</t>
-  </si>
-  <si>
-    <t>7136</t>
-  </si>
-  <si>
-    <t>7137</t>
-  </si>
-  <si>
-    <t>7138</t>
-  </si>
-  <si>
-    <t>7139</t>
-  </si>
-  <si>
-    <t>7140</t>
-  </si>
-  <si>
-    <t>7141</t>
-  </si>
-  <si>
-    <t>7142</t>
-  </si>
-  <si>
-    <t>7143</t>
-  </si>
-  <si>
-    <t>7144</t>
-  </si>
-  <si>
-    <t>7145</t>
-  </si>
-  <si>
-    <t>7146</t>
-  </si>
-  <si>
-    <t>7147</t>
-  </si>
-  <si>
-    <t>7148</t>
-  </si>
-  <si>
-    <t>7149</t>
-  </si>
-  <si>
-    <t>7150</t>
-  </si>
-  <si>
-    <t>7151</t>
-  </si>
-  <si>
-    <t>7152</t>
-  </si>
-  <si>
-    <t>7153</t>
-  </si>
-  <si>
-    <t>7154</t>
-  </si>
-  <si>
-    <t>7155</t>
-  </si>
-  <si>
-    <t>7156</t>
-  </si>
-  <si>
-    <t>7157</t>
-  </si>
-  <si>
-    <t>7158</t>
-  </si>
-  <si>
-    <t>7159</t>
-  </si>
-  <si>
-    <t>7160</t>
-  </si>
-  <si>
-    <t>7161</t>
-  </si>
-  <si>
-    <t>7162</t>
-  </si>
-  <si>
-    <t>7163</t>
-  </si>
-  <si>
-    <t>7164</t>
-  </si>
-  <si>
-    <t>7165</t>
-  </si>
-  <si>
-    <t>7166</t>
-  </si>
-  <si>
-    <t>7167</t>
-  </si>
-  <si>
-    <t>7168</t>
-  </si>
-  <si>
-    <t>7169</t>
-  </si>
-  <si>
-    <t>7170</t>
-  </si>
-  <si>
-    <t>7171</t>
-  </si>
-  <si>
-    <t>7172</t>
-  </si>
-  <si>
-    <t>7173</t>
-  </si>
-  <si>
-    <t>7174</t>
-  </si>
-  <si>
-    <t>7175</t>
-  </si>
-  <si>
-    <t>7176</t>
-  </si>
-  <si>
-    <t>7177</t>
-  </si>
-  <si>
-    <t>7178</t>
-  </si>
-  <si>
-    <t>7179</t>
-  </si>
-  <si>
-    <t>7180</t>
-  </si>
-  <si>
-    <t>7181</t>
-  </si>
-  <si>
-    <t>7182</t>
-  </si>
-  <si>
-    <t>7183</t>
-  </si>
-  <si>
-    <t>7184</t>
-  </si>
-  <si>
-    <t>7185</t>
-  </si>
-  <si>
-    <t>7186</t>
-  </si>
-  <si>
-    <t>7187</t>
-  </si>
-  <si>
-    <t>7188</t>
-  </si>
-  <si>
-    <t>7189</t>
-  </si>
-  <si>
-    <t>7190</t>
-  </si>
-  <si>
-    <t>7191</t>
-  </si>
-  <si>
-    <t>7192</t>
-  </si>
-  <si>
-    <t>7193</t>
-  </si>
-  <si>
-    <t>7194</t>
-  </si>
-  <si>
-    <t>7195</t>
-  </si>
-  <si>
-    <t>7196</t>
-  </si>
-  <si>
-    <t>7197</t>
-  </si>
-  <si>
-    <t>7198</t>
-  </si>
-  <si>
-    <t>7199</t>
-  </si>
-  <si>
-    <t>7200</t>
-  </si>
-  <si>
-    <t>7201</t>
-  </si>
-  <si>
-    <t>7202</t>
-  </si>
-  <si>
-    <t>7203</t>
-  </si>
-  <si>
-    <t>7204</t>
-  </si>
-  <si>
-    <t>7205</t>
-  </si>
-  <si>
-    <t>7206</t>
-  </si>
-  <si>
-    <t>7207</t>
-  </si>
-  <si>
-    <t>7208</t>
-  </si>
-  <si>
-    <t>7209</t>
-  </si>
-  <si>
-    <t>7210</t>
-  </si>
-  <si>
-    <t>7211</t>
-  </si>
-  <si>
-    <t>7212</t>
-  </si>
-  <si>
-    <t>7213</t>
-  </si>
-  <si>
-    <t>7214</t>
-  </si>
-  <si>
-    <t>7215</t>
-  </si>
-  <si>
-    <t>7216</t>
-  </si>
-  <si>
-    <t>7217</t>
-  </si>
-  <si>
-    <t>7218</t>
-  </si>
-  <si>
-    <t>7219</t>
-  </si>
-  <si>
-    <t>7220</t>
-  </si>
-  <si>
-    <t>7221</t>
-  </si>
-  <si>
-    <t>7222</t>
-  </si>
-  <si>
-    <t>7223</t>
-  </si>
-  <si>
-    <t>7224</t>
-  </si>
-  <si>
-    <t>7225</t>
-  </si>
-  <si>
-    <t>7226</t>
-  </si>
-  <si>
-    <t>7227</t>
-  </si>
-  <si>
-    <t>7228</t>
-  </si>
-  <si>
-    <t>7229</t>
-  </si>
-  <si>
-    <t>7230</t>
-  </si>
-  <si>
-    <t>7231</t>
-  </si>
-  <si>
-    <t>7232</t>
-  </si>
-  <si>
-    <t>7233</t>
-  </si>
-  <si>
-    <t>7234</t>
-  </si>
-  <si>
-    <t>7235</t>
-  </si>
-  <si>
-    <t>7236</t>
-  </si>
-  <si>
-    <t>7237</t>
-  </si>
-  <si>
-    <t>7238</t>
-  </si>
-  <si>
-    <t>7239</t>
-  </si>
-  <si>
-    <t>7240</t>
-  </si>
-  <si>
-    <t>7241</t>
-  </si>
-  <si>
-    <t>7242</t>
-  </si>
-  <si>
-    <t>7243</t>
-  </si>
-  <si>
-    <t>7244</t>
-  </si>
-  <si>
-    <t>7245</t>
-  </si>
-  <si>
-    <t>7246</t>
-  </si>
-  <si>
-    <t>7247</t>
-  </si>
-  <si>
-    <t>7248</t>
-  </si>
-  <si>
-    <t>7249</t>
-  </si>
-  <si>
-    <t>7250</t>
-  </si>
-  <si>
-    <t>7251</t>
-  </si>
-  <si>
-    <t>7252</t>
-  </si>
-  <si>
-    <t>7253</t>
-  </si>
-  <si>
-    <t>7254</t>
-  </si>
-  <si>
-    <t>7255</t>
-  </si>
-  <si>
-    <t>7256</t>
-  </si>
-  <si>
-    <t>7257</t>
-  </si>
-  <si>
-    <t>7258</t>
-  </si>
-  <si>
-    <t>7259</t>
-  </si>
-  <si>
-    <t>7260</t>
-  </si>
-  <si>
-    <t>7261</t>
-  </si>
-  <si>
-    <t>7262</t>
-  </si>
-  <si>
-    <t>7263</t>
-  </si>
-  <si>
-    <t>7264</t>
-  </si>
-  <si>
-    <t>7265</t>
-  </si>
-  <si>
-    <t>7266</t>
-  </si>
-  <si>
-    <t>7267</t>
-  </si>
-  <si>
-    <t>7268</t>
-  </si>
-  <si>
-    <t>7269</t>
-  </si>
-  <si>
-    <t>7270</t>
-  </si>
-  <si>
-    <t>7271</t>
-  </si>
-  <si>
-    <t>7272</t>
-  </si>
-  <si>
-    <t>7273</t>
-  </si>
-  <si>
-    <t>7274</t>
-  </si>
-  <si>
-    <t>7275</t>
-  </si>
-  <si>
-    <t>7276</t>
-  </si>
-  <si>
-    <t>7277</t>
-  </si>
-  <si>
-    <t>7278</t>
-  </si>
-  <si>
-    <t>7279</t>
-  </si>
-  <si>
-    <t>7280</t>
-  </si>
-  <si>
-    <t>7281</t>
-  </si>
-  <si>
-    <t>7282</t>
-  </si>
-  <si>
-    <t>7283</t>
-  </si>
-  <si>
-    <t>7284</t>
-  </si>
-  <si>
-    <t>7285</t>
-  </si>
-  <si>
-    <t>7286</t>
-  </si>
-  <si>
-    <t>7287</t>
-  </si>
-  <si>
-    <t>7288</t>
-  </si>
-  <si>
-    <t>7289</t>
-  </si>
-  <si>
-    <t>7290</t>
-  </si>
-  <si>
-    <t>7291</t>
-  </si>
-  <si>
-    <t>7292</t>
-  </si>
-  <si>
-    <t>7293</t>
-  </si>
-  <si>
-    <t>7294</t>
-  </si>
-  <si>
-    <t>7295</t>
-  </si>
-  <si>
-    <t>7296</t>
-  </si>
-  <si>
-    <t>7297</t>
-  </si>
-  <si>
-    <t>7298</t>
-  </si>
-  <si>
-    <t>7299</t>
-  </si>
-  <si>
-    <t>7300</t>
-  </si>
-  <si>
-    <t>7301</t>
-  </si>
-  <si>
-    <t>7302</t>
-  </si>
-  <si>
-    <t>7303</t>
-  </si>
-  <si>
-    <t>7304</t>
-  </si>
-  <si>
-    <t>7305</t>
-  </si>
-  <si>
-    <t>7306</t>
-  </si>
-  <si>
-    <t>7307</t>
-  </si>
-  <si>
-    <t>7308</t>
-  </si>
-  <si>
-    <t>7309</t>
-  </si>
-  <si>
-    <t>7310</t>
-  </si>
-  <si>
-    <t>7311</t>
-  </si>
-  <si>
-    <t>7312</t>
-  </si>
-  <si>
-    <t>7313</t>
-  </si>
-  <si>
-    <t>7314</t>
-  </si>
-  <si>
-    <t>7315</t>
-  </si>
-  <si>
-    <t>7316</t>
-  </si>
-  <si>
-    <t>7317</t>
-  </si>
-  <si>
-    <t>7318</t>
-  </si>
-  <si>
-    <t>7319</t>
-  </si>
-  <si>
-    <t>7320</t>
-  </si>
-  <si>
-    <t>7321</t>
-  </si>
-  <si>
-    <t>7322</t>
-  </si>
-  <si>
-    <t>7323</t>
-  </si>
-  <si>
-    <t>7324</t>
-  </si>
-  <si>
-    <t>7325</t>
-  </si>
-  <si>
-    <t>7326</t>
-  </si>
-  <si>
-    <t>7327</t>
-  </si>
-  <si>
-    <t>7328</t>
-  </si>
-  <si>
-    <t>7329</t>
-  </si>
-  <si>
-    <t>7330</t>
-  </si>
-  <si>
-    <t>7331</t>
-  </si>
-  <si>
-    <t>7332</t>
-  </si>
-  <si>
-    <t>7333</t>
-  </si>
-  <si>
-    <t>7334</t>
-  </si>
-  <si>
-    <t>7335</t>
-  </si>
-  <si>
-    <t>7336</t>
-  </si>
-  <si>
-    <t>7337</t>
-  </si>
-  <si>
-    <t>7338</t>
-  </si>
-  <si>
-    <t>7339</t>
-  </si>
-  <si>
-    <t>7340</t>
-  </si>
-  <si>
-    <t>7341</t>
-  </si>
-  <si>
-    <t>7342</t>
-  </si>
-  <si>
-    <t>7343</t>
-  </si>
-  <si>
-    <t>7344</t>
-  </si>
-  <si>
-    <t>7345</t>
-  </si>
-  <si>
-    <t>7346</t>
-  </si>
-  <si>
-    <t>7347</t>
-  </si>
-  <si>
-    <t>7348</t>
-  </si>
-  <si>
-    <t>7349</t>
-  </si>
-  <si>
-    <t>7350</t>
-  </si>
-  <si>
-    <t>7351</t>
-  </si>
-  <si>
-    <t>7352</t>
-  </si>
-  <si>
-    <t>7353</t>
-  </si>
-  <si>
-    <t>7354</t>
-  </si>
-  <si>
-    <t>7355</t>
-  </si>
-  <si>
-    <t>7356</t>
-  </si>
-  <si>
-    <t>7357</t>
-  </si>
-  <si>
-    <t>7358</t>
-  </si>
-  <si>
-    <t>7359</t>
-  </si>
-  <si>
-    <t>7360</t>
-  </si>
-  <si>
-    <t>7361</t>
-  </si>
-  <si>
-    <t>7362</t>
-  </si>
-  <si>
-    <t>7363</t>
-  </si>
-  <si>
-    <t>7364</t>
-  </si>
-  <si>
-    <t>7365</t>
-  </si>
-  <si>
-    <t>7366</t>
-  </si>
-  <si>
-    <t>7367</t>
-  </si>
-  <si>
-    <t>7368</t>
-  </si>
-  <si>
-    <t>7369</t>
-  </si>
-  <si>
-    <t>7370</t>
-  </si>
-  <si>
-    <t>7371</t>
-  </si>
-  <si>
-    <t>7372</t>
-  </si>
-  <si>
-    <t>7373</t>
-  </si>
-  <si>
-    <t>7374</t>
-  </si>
-  <si>
-    <t>7375</t>
-  </si>
-  <si>
-    <t>7376</t>
-  </si>
-  <si>
-    <t>7377</t>
-  </si>
-  <si>
-    <t>7378</t>
-  </si>
-  <si>
-    <t>7379</t>
-  </si>
-  <si>
-    <t>7380</t>
-  </si>
-  <si>
-    <t>7381</t>
-  </si>
-  <si>
-    <t>7382</t>
-  </si>
-  <si>
-    <t>7383</t>
-  </si>
-  <si>
-    <t>7384</t>
-  </si>
-  <si>
-    <t>7385</t>
-  </si>
-  <si>
-    <t>7386</t>
-  </si>
-  <si>
-    <t>7387</t>
-  </si>
-  <si>
-    <t>7388</t>
-  </si>
-  <si>
-    <t>7389</t>
-  </si>
-  <si>
-    <t>7390</t>
-  </si>
-  <si>
-    <t>7391</t>
-  </si>
-  <si>
-    <t>7392</t>
-  </si>
-  <si>
-    <t>7393</t>
-  </si>
-  <si>
-    <t>7394</t>
-  </si>
-  <si>
-    <t>7395</t>
-  </si>
-  <si>
-    <t>7396</t>
-  </si>
-  <si>
-    <t>7397</t>
-  </si>
-  <si>
-    <t>7398</t>
-  </si>
-  <si>
-    <t>7399</t>
-  </si>
-  <si>
-    <t>7400</t>
-  </si>
-  <si>
-    <t>7401</t>
-  </si>
-  <si>
-    <t>7402</t>
-  </si>
-  <si>
-    <t>7403</t>
-  </si>
-  <si>
-    <t>7404</t>
-  </si>
-  <si>
-    <t>7405</t>
-  </si>
-  <si>
-    <t>7406</t>
-  </si>
-  <si>
-    <t>7407</t>
-  </si>
-  <si>
-    <t>7408</t>
-  </si>
-  <si>
-    <t>7409</t>
-  </si>
-  <si>
-    <t>7410</t>
-  </si>
-  <si>
-    <t>7411</t>
-  </si>
-  <si>
-    <t>7412</t>
-  </si>
-  <si>
-    <t>7413</t>
-  </si>
-  <si>
-    <t>7414</t>
-  </si>
-  <si>
-    <t>7415</t>
-  </si>
-  <si>
-    <t>7416</t>
-  </si>
-  <si>
-    <t>7417</t>
-  </si>
-  <si>
-    <t>7418</t>
-  </si>
-  <si>
-    <t>7419</t>
-  </si>
-  <si>
-    <t>7420</t>
-  </si>
-  <si>
-    <t>7421</t>
-  </si>
-  <si>
-    <t>7422</t>
-  </si>
-  <si>
-    <t>7423</t>
-  </si>
-  <si>
-    <t>7424</t>
-  </si>
-  <si>
-    <t>7425</t>
-  </si>
-  <si>
-    <t>7426</t>
-  </si>
-  <si>
-    <t>7427</t>
-  </si>
-  <si>
-    <t>7428</t>
-  </si>
-  <si>
-    <t>7429</t>
-  </si>
-  <si>
-    <t>7430</t>
-  </si>
-  <si>
-    <t>7431</t>
-  </si>
-  <si>
-    <t>7432</t>
-  </si>
-  <si>
-    <t>7433</t>
-  </si>
-  <si>
-    <t>7434</t>
-  </si>
-  <si>
-    <t>7435</t>
-  </si>
-  <si>
-    <t>7436</t>
-  </si>
-  <si>
-    <t>7437</t>
-  </si>
-  <si>
-    <t>7438</t>
-  </si>
-  <si>
-    <t>7439</t>
-  </si>
-  <si>
-    <t>7440</t>
-  </si>
-  <si>
-    <t>7441</t>
-  </si>
-  <si>
-    <t>7442</t>
-  </si>
-  <si>
-    <t>7443</t>
-  </si>
-  <si>
-    <t>7444</t>
-  </si>
-  <si>
-    <t>7445</t>
-  </si>
-  <si>
-    <t>7446</t>
-  </si>
-  <si>
-    <t>7447</t>
-  </si>
-  <si>
-    <t>7448</t>
-  </si>
-  <si>
-    <t>7449</t>
-  </si>
-  <si>
-    <t>7450</t>
-  </si>
-  <si>
-    <t>7451</t>
-  </si>
-  <si>
-    <t>7452</t>
-  </si>
-  <si>
-    <t>7453</t>
-  </si>
-  <si>
-    <t>7454</t>
-  </si>
-  <si>
-    <t>7455</t>
-  </si>
-  <si>
-    <t>7456</t>
-  </si>
-  <si>
-    <t>7457</t>
-  </si>
-  <si>
-    <t>7458</t>
-  </si>
-  <si>
-    <t>7459</t>
-  </si>
-  <si>
-    <t>7460</t>
-  </si>
-  <si>
-    <t>7461</t>
-  </si>
-  <si>
-    <t>7462</t>
-  </si>
-  <si>
-    <t>7463</t>
-  </si>
-  <si>
-    <t>7464</t>
-  </si>
-  <si>
-    <t>7465</t>
-  </si>
-  <si>
-    <t>7466</t>
-  </si>
-  <si>
-    <t>7467</t>
-  </si>
-  <si>
-    <t>7468</t>
-  </si>
-  <si>
-    <t>7469</t>
-  </si>
-  <si>
-    <t>7470</t>
-  </si>
-  <si>
-    <t>7471</t>
-  </si>
-  <si>
-    <t>7472</t>
-  </si>
-  <si>
-    <t>7473</t>
-  </si>
-  <si>
-    <t>7474</t>
-  </si>
-  <si>
-    <t>7475</t>
-  </si>
-  <si>
-    <t>7476</t>
-  </si>
-  <si>
-    <t>7477</t>
-  </si>
-  <si>
-    <t>7478</t>
-  </si>
-  <si>
-    <t>7479</t>
-  </si>
-  <si>
-    <t>7480</t>
-  </si>
-  <si>
-    <t>7481</t>
-  </si>
-  <si>
-    <t>7482</t>
-  </si>
-  <si>
-    <t>7483</t>
-  </si>
-  <si>
-    <t>7484</t>
-  </si>
-  <si>
-    <t>7485</t>
-  </si>
-  <si>
-    <t>7486</t>
-  </si>
-  <si>
-    <t>7487</t>
-  </si>
-  <si>
-    <t>7488</t>
-  </si>
-  <si>
-    <t>7489</t>
-  </si>
-  <si>
-    <t>7490</t>
-  </si>
-  <si>
-    <t>7491</t>
-  </si>
-  <si>
-    <t>7492</t>
-  </si>
-  <si>
-    <t>7493</t>
-  </si>
-  <si>
-    <t>7494</t>
-  </si>
-  <si>
-    <t>7495</t>
-  </si>
-  <si>
-    <t>7496</t>
-  </si>
-  <si>
-    <t>7497</t>
-  </si>
-  <si>
-    <t>7498</t>
-  </si>
-  <si>
-    <t>7499</t>
-  </si>
-  <si>
-    <t>7500</t>
-  </si>
-  <si>
-    <t>7501</t>
-  </si>
-  <si>
-    <t>7502</t>
-  </si>
-  <si>
-    <t>7503</t>
-  </si>
-  <si>
-    <t>7504</t>
-  </si>
-  <si>
-    <t>7505</t>
-  </si>
-  <si>
-    <t>7506</t>
-  </si>
-  <si>
-    <t>7507</t>
-  </si>
-  <si>
-    <t>7508</t>
-  </si>
-  <si>
-    <t>7509</t>
-  </si>
-  <si>
-    <t>7510</t>
-  </si>
-  <si>
-    <t>7511</t>
-  </si>
-  <si>
-    <t>7512</t>
-  </si>
-  <si>
-    <t>7513</t>
-  </si>
-  <si>
-    <t>7514</t>
-  </si>
-  <si>
-    <t>7515</t>
-  </si>
-  <si>
-    <t>7516</t>
-  </si>
-  <si>
-    <t>7517</t>
-  </si>
-  <si>
-    <t>7518</t>
-  </si>
-  <si>
-    <t>7519</t>
-  </si>
-  <si>
-    <t>7520</t>
-  </si>
-  <si>
-    <t>7521</t>
-  </si>
-  <si>
-    <t>7522</t>
-  </si>
-  <si>
-    <t>7523</t>
-  </si>
-  <si>
-    <t>7524</t>
-  </si>
-  <si>
-    <t>7525</t>
-  </si>
-  <si>
-    <t>7526</t>
-  </si>
-  <si>
-    <t>7527</t>
-  </si>
-  <si>
-    <t>7528</t>
-  </si>
-  <si>
-    <t>7529</t>
-  </si>
-  <si>
-    <t>7530</t>
-  </si>
-  <si>
-    <t>7531</t>
-  </si>
-  <si>
-    <t>7532</t>
-  </si>
-  <si>
-    <t>7533</t>
-  </si>
-  <si>
-    <t>7534</t>
-  </si>
-  <si>
-    <t>7535</t>
-  </si>
-  <si>
-    <t>7536</t>
-  </si>
-  <si>
-    <t>7537</t>
-  </si>
-  <si>
-    <t>7538</t>
-  </si>
-  <si>
-    <t>7539</t>
-  </si>
-  <si>
-    <t>7540</t>
-  </si>
-  <si>
-    <t>7541</t>
-  </si>
-  <si>
-    <t>7542</t>
-  </si>
-  <si>
-    <t>7543</t>
-  </si>
-  <si>
-    <t>7544</t>
-  </si>
-  <si>
-    <t>7545</t>
-  </si>
-  <si>
-    <t>7546</t>
-  </si>
-  <si>
-    <t>7547</t>
-  </si>
-  <si>
-    <t>7548</t>
-  </si>
-  <si>
-    <t>7549</t>
-  </si>
-  <si>
-    <t>7550</t>
-  </si>
-  <si>
-    <t>7551</t>
-  </si>
-  <si>
-    <t>7552</t>
-  </si>
-  <si>
-    <t>7553</t>
-  </si>
-  <si>
-    <t>7554</t>
-  </si>
-  <si>
-    <t>7555</t>
-  </si>
-  <si>
-    <t>7556</t>
-  </si>
-  <si>
-    <t>7557</t>
-  </si>
-  <si>
-    <t>7558</t>
-  </si>
-  <si>
-    <t>7559</t>
-  </si>
-  <si>
-    <t>7560</t>
-  </si>
-  <si>
-    <t>7561</t>
-  </si>
-  <si>
-    <t>7562</t>
-  </si>
-  <si>
-    <t>7563</t>
-  </si>
-  <si>
-    <t>7564</t>
-  </si>
-  <si>
-    <t>7565</t>
-  </si>
-  <si>
-    <t>7566</t>
-  </si>
-  <si>
-    <t>7567</t>
-  </si>
-  <si>
-    <t>7568</t>
-  </si>
-  <si>
-    <t>7569</t>
-  </si>
-  <si>
-    <t>7570</t>
-  </si>
-  <si>
-    <t>7571</t>
-  </si>
-  <si>
-    <t>7572</t>
-  </si>
-  <si>
-    <t>7573</t>
-  </si>
-  <si>
-    <t>7574</t>
-  </si>
-  <si>
-    <t>7575</t>
-  </si>
-  <si>
-    <t>7576</t>
-  </si>
-  <si>
-    <t>7577</t>
-  </si>
-  <si>
-    <t>7578</t>
-  </si>
-  <si>
-    <t>7579</t>
-  </si>
-  <si>
-    <t>7580</t>
-  </si>
-  <si>
-    <t>7581</t>
-  </si>
-  <si>
-    <t>7582</t>
-  </si>
-  <si>
-    <t>7583</t>
-  </si>
-  <si>
-    <t>7584</t>
-  </si>
-  <si>
-    <t>7585</t>
-  </si>
-  <si>
-    <t>7586</t>
-  </si>
-  <si>
-    <t>7587</t>
-  </si>
-  <si>
-    <t>7588</t>
-  </si>
-  <si>
-    <t>7589</t>
-  </si>
-  <si>
-    <t>7590</t>
-  </si>
-  <si>
-    <t>7591</t>
-  </si>
-  <si>
-    <t>7592</t>
-  </si>
-  <si>
-    <t>7593</t>
-  </si>
-  <si>
-    <t>7594</t>
-  </si>
-  <si>
-    <t>7595</t>
-  </si>
-  <si>
-    <t>7596</t>
-  </si>
-  <si>
-    <t>7597</t>
-  </si>
-  <si>
-    <t>7598</t>
-  </si>
-  <si>
-    <t>7599</t>
-  </si>
-  <si>
-    <t>7600</t>
-  </si>
-  <si>
-    <t>7601</t>
-  </si>
-  <si>
-    <t>7602</t>
-  </si>
-  <si>
-    <t>7603</t>
-  </si>
-  <si>
-    <t>7604</t>
-  </si>
-  <si>
-    <t>7605</t>
-  </si>
-  <si>
-    <t>7606</t>
-  </si>
-  <si>
-    <t>7607</t>
-  </si>
-  <si>
-    <t>7608</t>
-  </si>
-  <si>
-    <t>7609</t>
-  </si>
-  <si>
-    <t>7610</t>
-  </si>
-  <si>
-    <t>7611</t>
-  </si>
-  <si>
-    <t>7612</t>
-  </si>
-  <si>
-    <t>7613</t>
-  </si>
-  <si>
-    <t>7614</t>
-  </si>
-  <si>
-    <t>7615</t>
-  </si>
-  <si>
-    <t>7616</t>
-  </si>
-  <si>
-    <t>7617</t>
-  </si>
-  <si>
-    <t>7618</t>
-  </si>
-  <si>
-    <t>7619</t>
-  </si>
-  <si>
-    <t>7620</t>
-  </si>
-  <si>
-    <t>7621</t>
-  </si>
-  <si>
-    <t>7622</t>
-  </si>
-  <si>
-    <t>7623</t>
-  </si>
-  <si>
-    <t>7624</t>
-  </si>
-  <si>
-    <t>7625</t>
-  </si>
-  <si>
-    <t>7626</t>
-  </si>
-  <si>
-    <t>7627</t>
-  </si>
-  <si>
-    <t>7628</t>
-  </si>
-  <si>
-    <t>7629</t>
-  </si>
-  <si>
-    <t>7630</t>
-  </si>
-  <si>
-    <t>7631</t>
-  </si>
-  <si>
-    <t>7632</t>
-  </si>
-  <si>
-    <t>7633</t>
-  </si>
-  <si>
-    <t>7634</t>
-  </si>
-  <si>
-    <t>7635</t>
-  </si>
-  <si>
-    <t>7636</t>
-  </si>
-  <si>
-    <t>7637</t>
-  </si>
-  <si>
-    <t>7638</t>
-  </si>
-  <si>
-    <t>7639</t>
-  </si>
-  <si>
-    <t>7640</t>
-  </si>
-  <si>
-    <t>7641</t>
-  </si>
-  <si>
-    <t>7642</t>
-  </si>
-  <si>
-    <t>7643</t>
-  </si>
-  <si>
-    <t>7644</t>
-  </si>
-  <si>
-    <t>7645</t>
-  </si>
-  <si>
-    <t>7646</t>
-  </si>
-  <si>
-    <t>7647</t>
-  </si>
-  <si>
-    <t>7648</t>
-  </si>
-  <si>
-    <t>7649</t>
-  </si>
-  <si>
-    <t>7650</t>
-  </si>
-  <si>
-    <t>7651</t>
-  </si>
-  <si>
-    <t>7652</t>
-  </si>
-  <si>
-    <t>7653</t>
-  </si>
-  <si>
-    <t>7654</t>
-  </si>
-  <si>
-    <t>7655</t>
-  </si>
-  <si>
-    <t>7656</t>
-  </si>
-  <si>
-    <t>7657</t>
-  </si>
-  <si>
-    <t>7658</t>
-  </si>
-  <si>
-    <t>7659</t>
-  </si>
-  <si>
-    <t>7660</t>
-  </si>
-  <si>
-    <t>7661</t>
-  </si>
-  <si>
-    <t>7662</t>
-  </si>
-  <si>
-    <t>7663</t>
-  </si>
-  <si>
-    <t>7664</t>
-  </si>
-  <si>
-    <t>7665</t>
-  </si>
-  <si>
-    <t>7666</t>
-  </si>
-  <si>
-    <t>7667</t>
-  </si>
-  <si>
-    <t>7668</t>
-  </si>
-  <si>
-    <t>7669</t>
-  </si>
-  <si>
-    <t>7670</t>
-  </si>
-  <si>
-    <t>7671</t>
-  </si>
-  <si>
-    <t>7672</t>
-  </si>
-  <si>
-    <t>7673</t>
-  </si>
-  <si>
-    <t>7674</t>
-  </si>
-  <si>
-    <t>7675</t>
-  </si>
-  <si>
-    <t>7676</t>
-  </si>
-  <si>
-    <t>7677</t>
-  </si>
-  <si>
-    <t>7678</t>
-  </si>
-  <si>
-    <t>7679</t>
-  </si>
-  <si>
-    <t>7680</t>
-  </si>
-  <si>
-    <t>7681</t>
-  </si>
-  <si>
-    <t>7682</t>
-  </si>
-  <si>
-    <t>7683</t>
-  </si>
-  <si>
-    <t>7684</t>
-  </si>
-  <si>
-    <t>7685</t>
-  </si>
-  <si>
-    <t>7686</t>
-  </si>
-  <si>
-    <t>7687</t>
-  </si>
-  <si>
-    <t>7688</t>
-  </si>
-  <si>
-    <t>7689</t>
-  </si>
-  <si>
-    <t>7690</t>
-  </si>
-  <si>
-    <t>7691</t>
-  </si>
-  <si>
-    <t>7692</t>
-  </si>
-  <si>
-    <t>7693</t>
-  </si>
-  <si>
-    <t>7694</t>
-  </si>
-  <si>
-    <t>7695</t>
-  </si>
-  <si>
-    <t>7696</t>
-  </si>
-  <si>
-    <t>7697</t>
-  </si>
-  <si>
-    <t>7698</t>
-  </si>
-  <si>
-    <t>7699</t>
-  </si>
-  <si>
-    <t>7700</t>
-  </si>
-  <si>
-    <t>7701</t>
-  </si>
-  <si>
-    <t>7702</t>
-  </si>
-  <si>
-    <t>7703</t>
-  </si>
-  <si>
-    <t>7704</t>
-  </si>
-  <si>
-    <t>7705</t>
-  </si>
-  <si>
-    <t>7706</t>
-  </si>
-  <si>
-    <t>7707</t>
-  </si>
-  <si>
-    <t>7708</t>
-  </si>
-  <si>
-    <t>7709</t>
-  </si>
-  <si>
-    <t>7710</t>
-  </si>
-  <si>
-    <t>7711</t>
-  </si>
-  <si>
-    <t>7712</t>
-  </si>
-  <si>
-    <t>7713</t>
-  </si>
-  <si>
-    <t>7714</t>
-  </si>
-  <si>
-    <t>7715</t>
-  </si>
-  <si>
-    <t>7716</t>
-  </si>
-  <si>
-    <t>7717</t>
-  </si>
-  <si>
-    <t>7718</t>
-  </si>
-  <si>
-    <t>7719</t>
-  </si>
-  <si>
-    <t>7720</t>
-  </si>
-  <si>
-    <t>7721</t>
-  </si>
-  <si>
-    <t>7722</t>
-  </si>
-  <si>
-    <t>7723</t>
-  </si>
-  <si>
-    <t>7724</t>
-  </si>
-  <si>
-    <t>7725</t>
-  </si>
-  <si>
-    <t>7726</t>
-  </si>
-  <si>
-    <t>7727</t>
-  </si>
-  <si>
-    <t>7728</t>
-  </si>
-  <si>
-    <t>7729</t>
-  </si>
-  <si>
-    <t>7730</t>
-  </si>
-  <si>
-    <t>7731</t>
-  </si>
-  <si>
-    <t>7732</t>
-  </si>
-  <si>
-    <t>7733</t>
-  </si>
-  <si>
-    <t>7734</t>
-  </si>
-  <si>
-    <t>7735</t>
-  </si>
-  <si>
-    <t>7736</t>
-  </si>
-  <si>
-    <t>7737</t>
-  </si>
-  <si>
-    <t>7738</t>
-  </si>
-  <si>
-    <t>7739</t>
-  </si>
-  <si>
-    <t>7740</t>
-  </si>
-  <si>
-    <t>7741</t>
-  </si>
-  <si>
-    <t>7742</t>
-  </si>
-  <si>
-    <t>7743</t>
-  </si>
-  <si>
-    <t>7744</t>
-  </si>
-  <si>
-    <t>7745</t>
-  </si>
-  <si>
-    <t>7746</t>
-  </si>
-  <si>
-    <t>7747</t>
-  </si>
-  <si>
-    <t>7748</t>
-  </si>
-  <si>
-    <t>7749</t>
-  </si>
-  <si>
-    <t>7750</t>
-  </si>
-  <si>
-    <t>7751</t>
-  </si>
-  <si>
-    <t>7752</t>
-  </si>
-  <si>
-    <t>7753</t>
-  </si>
-  <si>
-    <t>7754</t>
-  </si>
-  <si>
-    <t>7755</t>
-  </si>
-  <si>
-    <t>7756</t>
-  </si>
-  <si>
-    <t>7757</t>
-  </si>
-  <si>
-    <t>7758</t>
-  </si>
-  <si>
-    <t>7759</t>
-  </si>
-  <si>
-    <t>7760</t>
-  </si>
-  <si>
-    <t>7761</t>
-  </si>
-  <si>
-    <t>7762</t>
-  </si>
-  <si>
-    <t>7763</t>
-  </si>
-  <si>
-    <t>7764</t>
-  </si>
-  <si>
-    <t>7765</t>
-  </si>
-  <si>
-    <t>7766</t>
-  </si>
-  <si>
-    <t>7767</t>
-  </si>
-  <si>
-    <t>7768</t>
-  </si>
-  <si>
-    <t>7769</t>
-  </si>
-  <si>
-    <t>7770</t>
-  </si>
-  <si>
-    <t>7771</t>
-  </si>
-  <si>
-    <t>7772</t>
-  </si>
-  <si>
-    <t>7773</t>
-  </si>
-  <si>
-    <t>7774</t>
-  </si>
-  <si>
-    <t>7775</t>
-  </si>
-  <si>
-    <t>7776</t>
-  </si>
-  <si>
-    <t>7777</t>
-  </si>
-  <si>
-    <t>7778</t>
-  </si>
-  <si>
-    <t>7779</t>
-  </si>
-  <si>
-    <t>7780</t>
-  </si>
-  <si>
-    <t>7781</t>
-  </si>
-  <si>
-    <t>7782</t>
-  </si>
-  <si>
-    <t>7783</t>
-  </si>
-  <si>
-    <t>7784</t>
-  </si>
-  <si>
-    <t>7785</t>
-  </si>
-  <si>
-    <t>7786</t>
-  </si>
-  <si>
-    <t>7787</t>
-  </si>
-  <si>
-    <t>7788</t>
-  </si>
-  <si>
-    <t>7789</t>
-  </si>
-  <si>
-    <t>7790</t>
-  </si>
-  <si>
-    <t>7791</t>
-  </si>
-  <si>
-    <t>7792</t>
-  </si>
-  <si>
-    <t>7793</t>
-  </si>
-  <si>
-    <t>7794</t>
-  </si>
-  <si>
-    <t>7795</t>
-  </si>
-  <si>
-    <t>7796</t>
-  </si>
-  <si>
-    <t>7797</t>
-  </si>
-  <si>
-    <t>7798</t>
-  </si>
-  <si>
-    <t>7799</t>
-  </si>
-  <si>
-    <t>7800</t>
-  </si>
-  <si>
-    <t>7801</t>
-  </si>
-  <si>
-    <t>7802</t>
-  </si>
-  <si>
-    <t>7803</t>
-  </si>
-  <si>
-    <t>7804</t>
-  </si>
-  <si>
-    <t>7805</t>
-  </si>
-  <si>
-    <t>7806</t>
-  </si>
-  <si>
-    <t>7807</t>
-  </si>
-  <si>
-    <t>7808</t>
-  </si>
-  <si>
-    <t>7809</t>
-  </si>
-  <si>
-    <t>7810</t>
-  </si>
-  <si>
-    <t>7811</t>
-  </si>
-  <si>
-    <t>7812</t>
-  </si>
-  <si>
-    <t>7813</t>
-  </si>
-  <si>
-    <t>7814</t>
-  </si>
-  <si>
-    <t>7815</t>
-  </si>
-  <si>
-    <t>7816</t>
-  </si>
-  <si>
-    <t>7817</t>
-  </si>
-  <si>
-    <t>7818</t>
-  </si>
-  <si>
-    <t>7819</t>
-  </si>
-  <si>
-    <t>7820</t>
-  </si>
-  <si>
-    <t>7821</t>
-  </si>
-  <si>
-    <t>7822</t>
-  </si>
-  <si>
-    <t>7823</t>
-  </si>
-  <si>
-    <t>7824</t>
-  </si>
-  <si>
-    <t>7825</t>
-  </si>
-  <si>
-    <t>7826</t>
-  </si>
-  <si>
-    <t>7827</t>
-  </si>
-  <si>
-    <t>7828</t>
-  </si>
-  <si>
-    <t>7829</t>
-  </si>
-  <si>
-    <t>7830</t>
-  </si>
-  <si>
-    <t>7831</t>
-  </si>
-  <si>
-    <t>7832</t>
-  </si>
-  <si>
-    <t>7833</t>
-  </si>
-  <si>
-    <t>7834</t>
-  </si>
-  <si>
-    <t>7835</t>
-  </si>
-  <si>
-    <t>7836</t>
-  </si>
-  <si>
-    <t>7837</t>
-  </si>
-  <si>
-    <t>7838</t>
-  </si>
-  <si>
-    <t>7839</t>
-  </si>
-  <si>
-    <t>7840</t>
-  </si>
-  <si>
-    <t>7841</t>
-  </si>
-  <si>
-    <t>7842</t>
-  </si>
-  <si>
-    <t>7843</t>
-  </si>
-  <si>
-    <t>7844</t>
-  </si>
-  <si>
-    <t>7845</t>
-  </si>
-  <si>
-    <t>7846</t>
-  </si>
-  <si>
-    <t>7847</t>
-  </si>
-  <si>
-    <t>7848</t>
-  </si>
-  <si>
-    <t>7849</t>
-  </si>
-  <si>
-    <t>7850</t>
-  </si>
-  <si>
-    <t>7851</t>
-  </si>
-  <si>
-    <t>7852</t>
-  </si>
-  <si>
-    <t>7853</t>
-  </si>
-  <si>
-    <t>7854</t>
-  </si>
-  <si>
-    <t>7855</t>
-  </si>
-  <si>
-    <t>7856</t>
-  </si>
-  <si>
-    <t>7857</t>
-  </si>
-  <si>
-    <t>7858</t>
-  </si>
-  <si>
-    <t>7859</t>
-  </si>
-  <si>
-    <t>7860</t>
-  </si>
-  <si>
-    <t>7861</t>
-  </si>
-  <si>
-    <t>7862</t>
-  </si>
-  <si>
-    <t>7863</t>
-  </si>
-  <si>
-    <t>7864</t>
-  </si>
-  <si>
-    <t>7865</t>
-  </si>
-  <si>
-    <t>7866</t>
-  </si>
-  <si>
-    <t>7867</t>
-  </si>
-  <si>
-    <t>7868</t>
-  </si>
-  <si>
-    <t>7869</t>
-  </si>
-  <si>
-    <t>7870</t>
-  </si>
-  <si>
-    <t>7871</t>
-  </si>
-  <si>
-    <t>7872</t>
-  </si>
-  <si>
-    <t>7873</t>
-  </si>
-  <si>
-    <t>7874</t>
-  </si>
-  <si>
-    <t>7875</t>
-  </si>
-  <si>
-    <t>7876</t>
-  </si>
-  <si>
-    <t>7877</t>
-  </si>
-  <si>
-    <t>7878</t>
-  </si>
-  <si>
-    <t>7879</t>
-  </si>
-  <si>
-    <t>7880</t>
-  </si>
-  <si>
-    <t>7881</t>
-  </si>
-  <si>
-    <t>7882</t>
-  </si>
-  <si>
-    <t>7883</t>
-  </si>
-  <si>
-    <t>7884</t>
-  </si>
-  <si>
-    <t>7885</t>
-  </si>
-  <si>
-    <t>7886</t>
-  </si>
-  <si>
-    <t>7887</t>
-  </si>
-  <si>
-    <t>7888</t>
-  </si>
-  <si>
-    <t>7889</t>
-  </si>
-  <si>
-    <t>7890</t>
-  </si>
-  <si>
-    <t>7891</t>
-  </si>
-  <si>
-    <t>7892</t>
-  </si>
-  <si>
-    <t>7893</t>
-  </si>
-  <si>
-    <t>7894</t>
-  </si>
-  <si>
-    <t>7895</t>
-  </si>
-  <si>
-    <t>7896</t>
-  </si>
-  <si>
-    <t>7897</t>
-  </si>
-  <si>
-    <t>7898</t>
-  </si>
-  <si>
-    <t>7899</t>
-  </si>
-  <si>
-    <t>7900</t>
-  </si>
-  <si>
-    <t>7901</t>
-  </si>
-  <si>
-    <t>7902</t>
-  </si>
-  <si>
-    <t>7903</t>
-  </si>
-  <si>
-    <t>7904</t>
-  </si>
-  <si>
-    <t>7905</t>
-  </si>
-  <si>
-    <t>7906</t>
-  </si>
-  <si>
-    <t>7907</t>
-  </si>
-  <si>
-    <t>7908</t>
-  </si>
-  <si>
-    <t>7909</t>
-  </si>
-  <si>
-    <t>7910</t>
-  </si>
-  <si>
-    <t>7911</t>
-  </si>
-  <si>
-    <t>7912</t>
-  </si>
-  <si>
-    <t>7913</t>
-  </si>
-  <si>
-    <t>7914</t>
-  </si>
-  <si>
-    <t>7915</t>
-  </si>
-  <si>
-    <t>7916</t>
-  </si>
-  <si>
-    <t>7917</t>
-  </si>
-  <si>
-    <t>7918</t>
-  </si>
-  <si>
-    <t>7919</t>
-  </si>
-  <si>
-    <t>7920</t>
-  </si>
-  <si>
-    <t>7921</t>
-  </si>
-  <si>
-    <t>7922</t>
-  </si>
-  <si>
-    <t>7923</t>
-  </si>
-  <si>
-    <t>7924</t>
-  </si>
-  <si>
-    <t>7925</t>
-  </si>
-  <si>
-    <t>7926</t>
-  </si>
-  <si>
-    <t>7927</t>
-  </si>
-  <si>
-    <t>7928</t>
-  </si>
-  <si>
-    <t>7929</t>
-  </si>
-  <si>
-    <t>7930</t>
-  </si>
-  <si>
-    <t>7931</t>
-  </si>
-  <si>
-    <t>7932</t>
-  </si>
-  <si>
-    <t>7933</t>
-  </si>
-  <si>
-    <t>7934</t>
-  </si>
-  <si>
-    <t>7935</t>
-  </si>
-  <si>
-    <t>7936</t>
-  </si>
-  <si>
-    <t>7937</t>
-  </si>
-  <si>
-    <t>7938</t>
-  </si>
-  <si>
-    <t>7939</t>
-  </si>
-  <si>
-    <t>7940</t>
-  </si>
-  <si>
-    <t>7941</t>
-  </si>
-  <si>
-    <t>7942</t>
-  </si>
-  <si>
-    <t>7943</t>
-  </si>
-  <si>
-    <t>7944</t>
-  </si>
-  <si>
-    <t>7945</t>
-  </si>
-  <si>
-    <t>7946</t>
-  </si>
-  <si>
-    <t>7947</t>
-  </si>
-  <si>
-    <t>7948</t>
-  </si>
-  <si>
-    <t>7949</t>
-  </si>
-  <si>
-    <t>7950</t>
-  </si>
-  <si>
-    <t>7951</t>
-  </si>
-  <si>
-    <t>7952</t>
-  </si>
-  <si>
-    <t>7953</t>
-  </si>
-  <si>
-    <t>7954</t>
-  </si>
-  <si>
-    <t>7955</t>
-  </si>
-  <si>
-    <t>7956</t>
-  </si>
-  <si>
-    <t>7957</t>
-  </si>
-  <si>
-    <t>7958</t>
-  </si>
-  <si>
-    <t>7959</t>
-  </si>
-  <si>
-    <t>7960</t>
-  </si>
-  <si>
-    <t>7961</t>
-  </si>
-  <si>
-    <t>7962</t>
-  </si>
-  <si>
-    <t>7963</t>
-  </si>
-  <si>
-    <t>7964</t>
-  </si>
-  <si>
-    <t>7965</t>
-  </si>
-  <si>
-    <t>7966</t>
-  </si>
-  <si>
-    <t>7967</t>
-  </si>
-  <si>
-    <t>7968</t>
-  </si>
-  <si>
-    <t>7969</t>
-  </si>
-  <si>
-    <t>7970</t>
-  </si>
-  <si>
-    <t>7971</t>
-  </si>
-  <si>
-    <t>7972</t>
-  </si>
-  <si>
-    <t>7973</t>
-  </si>
-  <si>
-    <t>7974</t>
-  </si>
-  <si>
-    <t>7975</t>
-  </si>
-  <si>
-    <t>7976</t>
-  </si>
-  <si>
-    <t>7977</t>
-  </si>
-  <si>
-    <t>7978</t>
-  </si>
-  <si>
-    <t>7979</t>
-  </si>
-  <si>
-    <t>7980</t>
-  </si>
-  <si>
-    <t>7981</t>
-  </si>
-  <si>
-    <t>7982</t>
-  </si>
-  <si>
-    <t>7983</t>
-  </si>
-  <si>
-    <t>7984</t>
-  </si>
-  <si>
-    <t>7985</t>
-  </si>
-  <si>
-    <t>7986</t>
-  </si>
-  <si>
-    <t>7987</t>
-  </si>
-  <si>
-    <t>7988</t>
-  </si>
-  <si>
-    <t>7989</t>
-  </si>
-  <si>
-    <t>7990</t>
-  </si>
-  <si>
-    <t>7991</t>
-  </si>
-  <si>
-    <t>7992</t>
-  </si>
-  <si>
-    <t>7993</t>
-  </si>
-  <si>
-    <t>7994</t>
-  </si>
-  <si>
-    <t>7995</t>
-  </si>
-  <si>
-    <t>7996</t>
-  </si>
-  <si>
-    <t>7997</t>
-  </si>
-  <si>
-    <t>7998</t>
-  </si>
-  <si>
-    <t>7999</t>
-  </si>
-  <si>
-    <t>8000</t>
+    <t>39000</t>
+  </si>
+  <si>
+    <t>39001</t>
+  </si>
+  <si>
+    <t>39002</t>
+  </si>
+  <si>
+    <t>39003</t>
+  </si>
+  <si>
+    <t>39004</t>
+  </si>
+  <si>
+    <t>39005</t>
+  </si>
+  <si>
+    <t>39006</t>
+  </si>
+  <si>
+    <t>39007</t>
+  </si>
+  <si>
+    <t>39008</t>
+  </si>
+  <si>
+    <t>39009</t>
+  </si>
+  <si>
+    <t>39010</t>
+  </si>
+  <si>
+    <t>39011</t>
+  </si>
+  <si>
+    <t>39012</t>
+  </si>
+  <si>
+    <t>39013</t>
+  </si>
+  <si>
+    <t>39014</t>
+  </si>
+  <si>
+    <t>39015</t>
+  </si>
+  <si>
+    <t>39016</t>
+  </si>
+  <si>
+    <t>39017</t>
+  </si>
+  <si>
+    <t>39018</t>
+  </si>
+  <si>
+    <t>39019</t>
+  </si>
+  <si>
+    <t>39020</t>
+  </si>
+  <si>
+    <t>39021</t>
+  </si>
+  <si>
+    <t>39022</t>
+  </si>
+  <si>
+    <t>39023</t>
+  </si>
+  <si>
+    <t>39024</t>
+  </si>
+  <si>
+    <t>39025</t>
+  </si>
+  <si>
+    <t>39026</t>
+  </si>
+  <si>
+    <t>39027</t>
+  </si>
+  <si>
+    <t>39028</t>
+  </si>
+  <si>
+    <t>39029</t>
+  </si>
+  <si>
+    <t>39030</t>
+  </si>
+  <si>
+    <t>39031</t>
+  </si>
+  <si>
+    <t>39032</t>
+  </si>
+  <si>
+    <t>39033</t>
+  </si>
+  <si>
+    <t>39034</t>
+  </si>
+  <si>
+    <t>39035</t>
+  </si>
+  <si>
+    <t>39036</t>
+  </si>
+  <si>
+    <t>39037</t>
+  </si>
+  <si>
+    <t>39038</t>
+  </si>
+  <si>
+    <t>39039</t>
+  </si>
+  <si>
+    <t>39040</t>
+  </si>
+  <si>
+    <t>39041</t>
+  </si>
+  <si>
+    <t>39042</t>
+  </si>
+  <si>
+    <t>39043</t>
+  </si>
+  <si>
+    <t>39044</t>
+  </si>
+  <si>
+    <t>39045</t>
+  </si>
+  <si>
+    <t>39046</t>
+  </si>
+  <si>
+    <t>39047</t>
+  </si>
+  <si>
+    <t>39048</t>
+  </si>
+  <si>
+    <t>39049</t>
+  </si>
+  <si>
+    <t>39050</t>
+  </si>
+  <si>
+    <t>39051</t>
+  </si>
+  <si>
+    <t>39052</t>
+  </si>
+  <si>
+    <t>39053</t>
+  </si>
+  <si>
+    <t>39054</t>
+  </si>
+  <si>
+    <t>39055</t>
+  </si>
+  <si>
+    <t>39056</t>
+  </si>
+  <si>
+    <t>39057</t>
+  </si>
+  <si>
+    <t>39058</t>
+  </si>
+  <si>
+    <t>39059</t>
+  </si>
+  <si>
+    <t>39060</t>
+  </si>
+  <si>
+    <t>39061</t>
+  </si>
+  <si>
+    <t>39062</t>
+  </si>
+  <si>
+    <t>39063</t>
+  </si>
+  <si>
+    <t>39064</t>
+  </si>
+  <si>
+    <t>39065</t>
+  </si>
+  <si>
+    <t>39066</t>
+  </si>
+  <si>
+    <t>39067</t>
+  </si>
+  <si>
+    <t>39068</t>
+  </si>
+  <si>
+    <t>39069</t>
+  </si>
+  <si>
+    <t>39070</t>
+  </si>
+  <si>
+    <t>39071</t>
+  </si>
+  <si>
+    <t>39072</t>
+  </si>
+  <si>
+    <t>39073</t>
+  </si>
+  <si>
+    <t>39074</t>
+  </si>
+  <si>
+    <t>39075</t>
+  </si>
+  <si>
+    <t>39076</t>
+  </si>
+  <si>
+    <t>39077</t>
+  </si>
+  <si>
+    <t>39078</t>
+  </si>
+  <si>
+    <t>39079</t>
+  </si>
+  <si>
+    <t>39080</t>
+  </si>
+  <si>
+    <t>39081</t>
+  </si>
+  <si>
+    <t>39082</t>
+  </si>
+  <si>
+    <t>39083</t>
+  </si>
+  <si>
+    <t>39084</t>
+  </si>
+  <si>
+    <t>39085</t>
+  </si>
+  <si>
+    <t>39086</t>
+  </si>
+  <si>
+    <t>39087</t>
+  </si>
+  <si>
+    <t>39088</t>
+  </si>
+  <si>
+    <t>39089</t>
+  </si>
+  <si>
+    <t>39090</t>
+  </si>
+  <si>
+    <t>39091</t>
+  </si>
+  <si>
+    <t>39092</t>
+  </si>
+  <si>
+    <t>39093</t>
+  </si>
+  <si>
+    <t>39094</t>
+  </si>
+  <si>
+    <t>39095</t>
+  </si>
+  <si>
+    <t>39096</t>
+  </si>
+  <si>
+    <t>39097</t>
+  </si>
+  <si>
+    <t>39098</t>
+  </si>
+  <si>
+    <t>39099</t>
+  </si>
+  <si>
+    <t>39100</t>
+  </si>
+  <si>
+    <t>39101</t>
+  </si>
+  <si>
+    <t>39102</t>
+  </si>
+  <si>
+    <t>39103</t>
+  </si>
+  <si>
+    <t>39104</t>
+  </si>
+  <si>
+    <t>39105</t>
+  </si>
+  <si>
+    <t>39106</t>
+  </si>
+  <si>
+    <t>39107</t>
+  </si>
+  <si>
+    <t>39108</t>
+  </si>
+  <si>
+    <t>39109</t>
+  </si>
+  <si>
+    <t>39110</t>
+  </si>
+  <si>
+    <t>39111</t>
+  </si>
+  <si>
+    <t>39112</t>
+  </si>
+  <si>
+    <t>39113</t>
+  </si>
+  <si>
+    <t>39114</t>
+  </si>
+  <si>
+    <t>39115</t>
+  </si>
+  <si>
+    <t>39116</t>
+  </si>
+  <si>
+    <t>39117</t>
+  </si>
+  <si>
+    <t>39118</t>
+  </si>
+  <si>
+    <t>39119</t>
+  </si>
+  <si>
+    <t>39120</t>
+  </si>
+  <si>
+    <t>39121</t>
+  </si>
+  <si>
+    <t>39122</t>
+  </si>
+  <si>
+    <t>39123</t>
+  </si>
+  <si>
+    <t>39124</t>
+  </si>
+  <si>
+    <t>39125</t>
+  </si>
+  <si>
+    <t>39126</t>
+  </si>
+  <si>
+    <t>39127</t>
+  </si>
+  <si>
+    <t>39128</t>
+  </si>
+  <si>
+    <t>39129</t>
+  </si>
+  <si>
+    <t>39130</t>
+  </si>
+  <si>
+    <t>39131</t>
+  </si>
+  <si>
+    <t>39132</t>
+  </si>
+  <si>
+    <t>39133</t>
+  </si>
+  <si>
+    <t>39134</t>
+  </si>
+  <si>
+    <t>39135</t>
+  </si>
+  <si>
+    <t>39136</t>
+  </si>
+  <si>
+    <t>39137</t>
+  </si>
+  <si>
+    <t>39138</t>
+  </si>
+  <si>
+    <t>39139</t>
+  </si>
+  <si>
+    <t>39140</t>
+  </si>
+  <si>
+    <t>39141</t>
+  </si>
+  <si>
+    <t>39142</t>
+  </si>
+  <si>
+    <t>39143</t>
+  </si>
+  <si>
+    <t>39144</t>
+  </si>
+  <si>
+    <t>39145</t>
+  </si>
+  <si>
+    <t>39146</t>
+  </si>
+  <si>
+    <t>39147</t>
+  </si>
+  <si>
+    <t>39148</t>
+  </si>
+  <si>
+    <t>39149</t>
+  </si>
+  <si>
+    <t>39150</t>
+  </si>
+  <si>
+    <t>39151</t>
+  </si>
+  <si>
+    <t>39152</t>
+  </si>
+  <si>
+    <t>39153</t>
+  </si>
+  <si>
+    <t>39154</t>
+  </si>
+  <si>
+    <t>39155</t>
+  </si>
+  <si>
+    <t>39156</t>
+  </si>
+  <si>
+    <t>39157</t>
+  </si>
+  <si>
+    <t>39158</t>
+  </si>
+  <si>
+    <t>39159</t>
+  </si>
+  <si>
+    <t>39160</t>
+  </si>
+  <si>
+    <t>39161</t>
+  </si>
+  <si>
+    <t>39162</t>
+  </si>
+  <si>
+    <t>39163</t>
+  </si>
+  <si>
+    <t>39164</t>
+  </si>
+  <si>
+    <t>39165</t>
+  </si>
+  <si>
+    <t>39166</t>
+  </si>
+  <si>
+    <t>39167</t>
+  </si>
+  <si>
+    <t>39168</t>
+  </si>
+  <si>
+    <t>39169</t>
+  </si>
+  <si>
+    <t>39170</t>
+  </si>
+  <si>
+    <t>39171</t>
+  </si>
+  <si>
+    <t>39172</t>
+  </si>
+  <si>
+    <t>39173</t>
+  </si>
+  <si>
+    <t>39174</t>
+  </si>
+  <si>
+    <t>39175</t>
+  </si>
+  <si>
+    <t>39176</t>
+  </si>
+  <si>
+    <t>39177</t>
+  </si>
+  <si>
+    <t>39178</t>
+  </si>
+  <si>
+    <t>39179</t>
+  </si>
+  <si>
+    <t>39180</t>
+  </si>
+  <si>
+    <t>39181</t>
+  </si>
+  <si>
+    <t>39182</t>
+  </si>
+  <si>
+    <t>39183</t>
+  </si>
+  <si>
+    <t>39184</t>
+  </si>
+  <si>
+    <t>39185</t>
+  </si>
+  <si>
+    <t>39186</t>
+  </si>
+  <si>
+    <t>39187</t>
+  </si>
+  <si>
+    <t>39188</t>
+  </si>
+  <si>
+    <t>39189</t>
+  </si>
+  <si>
+    <t>39190</t>
+  </si>
+  <si>
+    <t>39191</t>
+  </si>
+  <si>
+    <t>39192</t>
+  </si>
+  <si>
+    <t>39193</t>
+  </si>
+  <si>
+    <t>39194</t>
+  </si>
+  <si>
+    <t>39195</t>
+  </si>
+  <si>
+    <t>39196</t>
+  </si>
+  <si>
+    <t>39197</t>
+  </si>
+  <si>
+    <t>39198</t>
+  </si>
+  <si>
+    <t>39199</t>
+  </si>
+  <si>
+    <t>39200</t>
+  </si>
+  <si>
+    <t>39201</t>
+  </si>
+  <si>
+    <t>39202</t>
+  </si>
+  <si>
+    <t>39203</t>
+  </si>
+  <si>
+    <t>39204</t>
+  </si>
+  <si>
+    <t>39205</t>
+  </si>
+  <si>
+    <t>39206</t>
+  </si>
+  <si>
+    <t>39207</t>
+  </si>
+  <si>
+    <t>39208</t>
+  </si>
+  <si>
+    <t>39209</t>
+  </si>
+  <si>
+    <t>39210</t>
+  </si>
+  <si>
+    <t>39211</t>
+  </si>
+  <si>
+    <t>39212</t>
+  </si>
+  <si>
+    <t>39213</t>
+  </si>
+  <si>
+    <t>39214</t>
+  </si>
+  <si>
+    <t>39215</t>
+  </si>
+  <si>
+    <t>39216</t>
+  </si>
+  <si>
+    <t>39217</t>
+  </si>
+  <si>
+    <t>39218</t>
+  </si>
+  <si>
+    <t>39219</t>
+  </si>
+  <si>
+    <t>39220</t>
+  </si>
+  <si>
+    <t>39221</t>
+  </si>
+  <si>
+    <t>39222</t>
+  </si>
+  <si>
+    <t>39223</t>
+  </si>
+  <si>
+    <t>39224</t>
+  </si>
+  <si>
+    <t>39225</t>
+  </si>
+  <si>
+    <t>39226</t>
+  </si>
+  <si>
+    <t>39227</t>
+  </si>
+  <si>
+    <t>39228</t>
+  </si>
+  <si>
+    <t>39229</t>
+  </si>
+  <si>
+    <t>39230</t>
+  </si>
+  <si>
+    <t>39231</t>
+  </si>
+  <si>
+    <t>39232</t>
+  </si>
+  <si>
+    <t>39233</t>
+  </si>
+  <si>
+    <t>39234</t>
+  </si>
+  <si>
+    <t>39235</t>
+  </si>
+  <si>
+    <t>39236</t>
+  </si>
+  <si>
+    <t>39237</t>
+  </si>
+  <si>
+    <t>39238</t>
+  </si>
+  <si>
+    <t>39239</t>
+  </si>
+  <si>
+    <t>39240</t>
+  </si>
+  <si>
+    <t>39241</t>
+  </si>
+  <si>
+    <t>39242</t>
+  </si>
+  <si>
+    <t>39243</t>
+  </si>
+  <si>
+    <t>39244</t>
+  </si>
+  <si>
+    <t>39245</t>
+  </si>
+  <si>
+    <t>39246</t>
+  </si>
+  <si>
+    <t>39247</t>
+  </si>
+  <si>
+    <t>39248</t>
+  </si>
+  <si>
+    <t>39249</t>
+  </si>
+  <si>
+    <t>39250</t>
+  </si>
+  <si>
+    <t>39251</t>
+  </si>
+  <si>
+    <t>39252</t>
+  </si>
+  <si>
+    <t>39253</t>
+  </si>
+  <si>
+    <t>39254</t>
+  </si>
+  <si>
+    <t>39255</t>
+  </si>
+  <si>
+    <t>39256</t>
+  </si>
+  <si>
+    <t>39257</t>
+  </si>
+  <si>
+    <t>39258</t>
+  </si>
+  <si>
+    <t>39259</t>
+  </si>
+  <si>
+    <t>39260</t>
+  </si>
+  <si>
+    <t>39261</t>
+  </si>
+  <si>
+    <t>39262</t>
+  </si>
+  <si>
+    <t>39263</t>
+  </si>
+  <si>
+    <t>39264</t>
+  </si>
+  <si>
+    <t>39265</t>
+  </si>
+  <si>
+    <t>39266</t>
+  </si>
+  <si>
+    <t>39267</t>
+  </si>
+  <si>
+    <t>39268</t>
+  </si>
+  <si>
+    <t>39269</t>
+  </si>
+  <si>
+    <t>39270</t>
+  </si>
+  <si>
+    <t>39271</t>
+  </si>
+  <si>
+    <t>39272</t>
+  </si>
+  <si>
+    <t>39273</t>
+  </si>
+  <si>
+    <t>39274</t>
+  </si>
+  <si>
+    <t>39275</t>
+  </si>
+  <si>
+    <t>39276</t>
+  </si>
+  <si>
+    <t>39277</t>
+  </si>
+  <si>
+    <t>39278</t>
+  </si>
+  <si>
+    <t>39279</t>
+  </si>
+  <si>
+    <t>39280</t>
+  </si>
+  <si>
+    <t>39281</t>
+  </si>
+  <si>
+    <t>39282</t>
+  </si>
+  <si>
+    <t>39283</t>
+  </si>
+  <si>
+    <t>39284</t>
+  </si>
+  <si>
+    <t>39285</t>
+  </si>
+  <si>
+    <t>39286</t>
+  </si>
+  <si>
+    <t>39287</t>
+  </si>
+  <si>
+    <t>39288</t>
+  </si>
+  <si>
+    <t>39289</t>
+  </si>
+  <si>
+    <t>39290</t>
+  </si>
+  <si>
+    <t>39291</t>
+  </si>
+  <si>
+    <t>39292</t>
+  </si>
+  <si>
+    <t>39293</t>
+  </si>
+  <si>
+    <t>39294</t>
+  </si>
+  <si>
+    <t>39295</t>
+  </si>
+  <si>
+    <t>39296</t>
+  </si>
+  <si>
+    <t>39297</t>
+  </si>
+  <si>
+    <t>39298</t>
+  </si>
+  <si>
+    <t>39299</t>
+  </si>
+  <si>
+    <t>39300</t>
+  </si>
+  <si>
+    <t>39301</t>
+  </si>
+  <si>
+    <t>39302</t>
+  </si>
+  <si>
+    <t>39303</t>
+  </si>
+  <si>
+    <t>39304</t>
+  </si>
+  <si>
+    <t>39305</t>
+  </si>
+  <si>
+    <t>39306</t>
+  </si>
+  <si>
+    <t>39307</t>
+  </si>
+  <si>
+    <t>39308</t>
+  </si>
+  <si>
+    <t>39309</t>
+  </si>
+  <si>
+    <t>39310</t>
+  </si>
+  <si>
+    <t>39311</t>
+  </si>
+  <si>
+    <t>39312</t>
+  </si>
+  <si>
+    <t>39313</t>
+  </si>
+  <si>
+    <t>39314</t>
+  </si>
+  <si>
+    <t>39315</t>
+  </si>
+  <si>
+    <t>39316</t>
+  </si>
+  <si>
+    <t>39317</t>
+  </si>
+  <si>
+    <t>39318</t>
+  </si>
+  <si>
+    <t>39319</t>
+  </si>
+  <si>
+    <t>39320</t>
+  </si>
+  <si>
+    <t>39321</t>
+  </si>
+  <si>
+    <t>39322</t>
+  </si>
+  <si>
+    <t>39323</t>
+  </si>
+  <si>
+    <t>39324</t>
+  </si>
+  <si>
+    <t>39325</t>
+  </si>
+  <si>
+    <t>39326</t>
+  </si>
+  <si>
+    <t>39327</t>
+  </si>
+  <si>
+    <t>39328</t>
+  </si>
+  <si>
+    <t>39329</t>
+  </si>
+  <si>
+    <t>39330</t>
+  </si>
+  <si>
+    <t>39331</t>
+  </si>
+  <si>
+    <t>39332</t>
+  </si>
+  <si>
+    <t>39333</t>
+  </si>
+  <si>
+    <t>39334</t>
+  </si>
+  <si>
+    <t>39335</t>
+  </si>
+  <si>
+    <t>39336</t>
+  </si>
+  <si>
+    <t>39337</t>
+  </si>
+  <si>
+    <t>39338</t>
+  </si>
+  <si>
+    <t>39339</t>
+  </si>
+  <si>
+    <t>39340</t>
+  </si>
+  <si>
+    <t>39341</t>
+  </si>
+  <si>
+    <t>39342</t>
+  </si>
+  <si>
+    <t>39343</t>
+  </si>
+  <si>
+    <t>39344</t>
+  </si>
+  <si>
+    <t>39345</t>
+  </si>
+  <si>
+    <t>39346</t>
+  </si>
+  <si>
+    <t>39347</t>
+  </si>
+  <si>
+    <t>39348</t>
+  </si>
+  <si>
+    <t>39349</t>
+  </si>
+  <si>
+    <t>39350</t>
+  </si>
+  <si>
+    <t>39351</t>
+  </si>
+  <si>
+    <t>39352</t>
+  </si>
+  <si>
+    <t>39353</t>
+  </si>
+  <si>
+    <t>39354</t>
+  </si>
+  <si>
+    <t>39355</t>
+  </si>
+  <si>
+    <t>39356</t>
+  </si>
+  <si>
+    <t>39357</t>
+  </si>
+  <si>
+    <t>39358</t>
+  </si>
+  <si>
+    <t>39359</t>
+  </si>
+  <si>
+    <t>39360</t>
+  </si>
+  <si>
+    <t>39361</t>
+  </si>
+  <si>
+    <t>39362</t>
+  </si>
+  <si>
+    <t>39363</t>
+  </si>
+  <si>
+    <t>39364</t>
+  </si>
+  <si>
+    <t>39365</t>
+  </si>
+  <si>
+    <t>39366</t>
+  </si>
+  <si>
+    <t>39367</t>
+  </si>
+  <si>
+    <t>39368</t>
+  </si>
+  <si>
+    <t>39369</t>
+  </si>
+  <si>
+    <t>39370</t>
+  </si>
+  <si>
+    <t>39371</t>
+  </si>
+  <si>
+    <t>39372</t>
+  </si>
+  <si>
+    <t>39373</t>
+  </si>
+  <si>
+    <t>39374</t>
+  </si>
+  <si>
+    <t>39375</t>
+  </si>
+  <si>
+    <t>39376</t>
+  </si>
+  <si>
+    <t>39377</t>
+  </si>
+  <si>
+    <t>39378</t>
+  </si>
+  <si>
+    <t>39379</t>
+  </si>
+  <si>
+    <t>39380</t>
+  </si>
+  <si>
+    <t>39381</t>
+  </si>
+  <si>
+    <t>39382</t>
+  </si>
+  <si>
+    <t>39383</t>
+  </si>
+  <si>
+    <t>39384</t>
+  </si>
+  <si>
+    <t>39385</t>
+  </si>
+  <si>
+    <t>39386</t>
+  </si>
+  <si>
+    <t>39387</t>
+  </si>
+  <si>
+    <t>39388</t>
+  </si>
+  <si>
+    <t>39389</t>
+  </si>
+  <si>
+    <t>39390</t>
+  </si>
+  <si>
+    <t>39391</t>
+  </si>
+  <si>
+    <t>39392</t>
+  </si>
+  <si>
+    <t>39393</t>
+  </si>
+  <si>
+    <t>39394</t>
+  </si>
+  <si>
+    <t>39395</t>
+  </si>
+  <si>
+    <t>39396</t>
+  </si>
+  <si>
+    <t>39397</t>
+  </si>
+  <si>
+    <t>39398</t>
+  </si>
+  <si>
+    <t>39399</t>
+  </si>
+  <si>
+    <t>39400</t>
+  </si>
+  <si>
+    <t>39401</t>
+  </si>
+  <si>
+    <t>39402</t>
+  </si>
+  <si>
+    <t>39403</t>
+  </si>
+  <si>
+    <t>39404</t>
+  </si>
+  <si>
+    <t>39405</t>
+  </si>
+  <si>
+    <t>39406</t>
+  </si>
+  <si>
+    <t>39407</t>
+  </si>
+  <si>
+    <t>39408</t>
+  </si>
+  <si>
+    <t>39409</t>
+  </si>
+  <si>
+    <t>39410</t>
+  </si>
+  <si>
+    <t>39411</t>
+  </si>
+  <si>
+    <t>39412</t>
+  </si>
+  <si>
+    <t>39413</t>
+  </si>
+  <si>
+    <t>39414</t>
+  </si>
+  <si>
+    <t>39415</t>
+  </si>
+  <si>
+    <t>39416</t>
+  </si>
+  <si>
+    <t>39417</t>
+  </si>
+  <si>
+    <t>39418</t>
+  </si>
+  <si>
+    <t>39419</t>
+  </si>
+  <si>
+    <t>39420</t>
+  </si>
+  <si>
+    <t>39421</t>
+  </si>
+  <si>
+    <t>39422</t>
+  </si>
+  <si>
+    <t>39423</t>
+  </si>
+  <si>
+    <t>39424</t>
+  </si>
+  <si>
+    <t>39425</t>
+  </si>
+  <si>
+    <t>39426</t>
+  </si>
+  <si>
+    <t>39427</t>
+  </si>
+  <si>
+    <t>39428</t>
+  </si>
+  <si>
+    <t>39429</t>
+  </si>
+  <si>
+    <t>39430</t>
+  </si>
+  <si>
+    <t>39431</t>
+  </si>
+  <si>
+    <t>39432</t>
+  </si>
+  <si>
+    <t>39433</t>
+  </si>
+  <si>
+    <t>39434</t>
+  </si>
+  <si>
+    <t>39435</t>
+  </si>
+  <si>
+    <t>39436</t>
+  </si>
+  <si>
+    <t>39437</t>
+  </si>
+  <si>
+    <t>39438</t>
+  </si>
+  <si>
+    <t>39439</t>
+  </si>
+  <si>
+    <t>39440</t>
+  </si>
+  <si>
+    <t>39441</t>
+  </si>
+  <si>
+    <t>39442</t>
+  </si>
+  <si>
+    <t>39443</t>
+  </si>
+  <si>
+    <t>39444</t>
+  </si>
+  <si>
+    <t>39445</t>
+  </si>
+  <si>
+    <t>39446</t>
+  </si>
+  <si>
+    <t>39447</t>
+  </si>
+  <si>
+    <t>39448</t>
+  </si>
+  <si>
+    <t>39449</t>
+  </si>
+  <si>
+    <t>39450</t>
+  </si>
+  <si>
+    <t>39451</t>
+  </si>
+  <si>
+    <t>39452</t>
+  </si>
+  <si>
+    <t>39453</t>
+  </si>
+  <si>
+    <t>39454</t>
+  </si>
+  <si>
+    <t>39455</t>
+  </si>
+  <si>
+    <t>39456</t>
+  </si>
+  <si>
+    <t>39457</t>
+  </si>
+  <si>
+    <t>39458</t>
+  </si>
+  <si>
+    <t>39459</t>
+  </si>
+  <si>
+    <t>39460</t>
+  </si>
+  <si>
+    <t>39461</t>
+  </si>
+  <si>
+    <t>39462</t>
+  </si>
+  <si>
+    <t>39463</t>
+  </si>
+  <si>
+    <t>39464</t>
+  </si>
+  <si>
+    <t>39465</t>
+  </si>
+  <si>
+    <t>39466</t>
+  </si>
+  <si>
+    <t>39467</t>
+  </si>
+  <si>
+    <t>39468</t>
+  </si>
+  <si>
+    <t>39469</t>
+  </si>
+  <si>
+    <t>39470</t>
+  </si>
+  <si>
+    <t>39471</t>
+  </si>
+  <si>
+    <t>39472</t>
+  </si>
+  <si>
+    <t>39473</t>
+  </si>
+  <si>
+    <t>39474</t>
+  </si>
+  <si>
+    <t>39475</t>
+  </si>
+  <si>
+    <t>39476</t>
+  </si>
+  <si>
+    <t>39477</t>
+  </si>
+  <si>
+    <t>39478</t>
+  </si>
+  <si>
+    <t>39479</t>
+  </si>
+  <si>
+    <t>39480</t>
+  </si>
+  <si>
+    <t>39481</t>
+  </si>
+  <si>
+    <t>39482</t>
+  </si>
+  <si>
+    <t>39483</t>
+  </si>
+  <si>
+    <t>39484</t>
+  </si>
+  <si>
+    <t>39485</t>
+  </si>
+  <si>
+    <t>39486</t>
+  </si>
+  <si>
+    <t>39487</t>
+  </si>
+  <si>
+    <t>39488</t>
+  </si>
+  <si>
+    <t>39489</t>
+  </si>
+  <si>
+    <t>39490</t>
+  </si>
+  <si>
+    <t>39491</t>
+  </si>
+  <si>
+    <t>39492</t>
+  </si>
+  <si>
+    <t>39493</t>
+  </si>
+  <si>
+    <t>39494</t>
+  </si>
+  <si>
+    <t>39495</t>
+  </si>
+  <si>
+    <t>39496</t>
+  </si>
+  <si>
+    <t>39497</t>
+  </si>
+  <si>
+    <t>39498</t>
+  </si>
+  <si>
+    <t>39499</t>
+  </si>
+  <si>
+    <t>39500</t>
+  </si>
+  <si>
+    <t>39501</t>
+  </si>
+  <si>
+    <t>39502</t>
+  </si>
+  <si>
+    <t>39503</t>
+  </si>
+  <si>
+    <t>39504</t>
+  </si>
+  <si>
+    <t>39505</t>
+  </si>
+  <si>
+    <t>39506</t>
+  </si>
+  <si>
+    <t>39507</t>
+  </si>
+  <si>
+    <t>39508</t>
+  </si>
+  <si>
+    <t>39509</t>
+  </si>
+  <si>
+    <t>39510</t>
+  </si>
+  <si>
+    <t>39511</t>
+  </si>
+  <si>
+    <t>39512</t>
+  </si>
+  <si>
+    <t>39513</t>
+  </si>
+  <si>
+    <t>39514</t>
+  </si>
+  <si>
+    <t>39515</t>
+  </si>
+  <si>
+    <t>39516</t>
+  </si>
+  <si>
+    <t>39517</t>
+  </si>
+  <si>
+    <t>39518</t>
+  </si>
+  <si>
+    <t>39519</t>
+  </si>
+  <si>
+    <t>39520</t>
+  </si>
+  <si>
+    <t>39521</t>
+  </si>
+  <si>
+    <t>39522</t>
+  </si>
+  <si>
+    <t>39523</t>
+  </si>
+  <si>
+    <t>39524</t>
+  </si>
+  <si>
+    <t>39525</t>
+  </si>
+  <si>
+    <t>39526</t>
+  </si>
+  <si>
+    <t>39527</t>
+  </si>
+  <si>
+    <t>39528</t>
+  </si>
+  <si>
+    <t>39529</t>
+  </si>
+  <si>
+    <t>39530</t>
+  </si>
+  <si>
+    <t>39531</t>
+  </si>
+  <si>
+    <t>39532</t>
+  </si>
+  <si>
+    <t>39533</t>
+  </si>
+  <si>
+    <t>39534</t>
+  </si>
+  <si>
+    <t>39535</t>
+  </si>
+  <si>
+    <t>39536</t>
+  </si>
+  <si>
+    <t>39537</t>
+  </si>
+  <si>
+    <t>39538</t>
+  </si>
+  <si>
+    <t>39539</t>
+  </si>
+  <si>
+    <t>39540</t>
+  </si>
+  <si>
+    <t>39541</t>
+  </si>
+  <si>
+    <t>39542</t>
+  </si>
+  <si>
+    <t>39543</t>
+  </si>
+  <si>
+    <t>39544</t>
+  </si>
+  <si>
+    <t>39545</t>
+  </si>
+  <si>
+    <t>39546</t>
+  </si>
+  <si>
+    <t>39547</t>
+  </si>
+  <si>
+    <t>39548</t>
+  </si>
+  <si>
+    <t>39549</t>
+  </si>
+  <si>
+    <t>39550</t>
+  </si>
+  <si>
+    <t>39551</t>
+  </si>
+  <si>
+    <t>39552</t>
+  </si>
+  <si>
+    <t>39553</t>
+  </si>
+  <si>
+    <t>39554</t>
+  </si>
+  <si>
+    <t>39555</t>
+  </si>
+  <si>
+    <t>39556</t>
+  </si>
+  <si>
+    <t>39557</t>
+  </si>
+  <si>
+    <t>39558</t>
+  </si>
+  <si>
+    <t>39559</t>
+  </si>
+  <si>
+    <t>39560</t>
+  </si>
+  <si>
+    <t>39561</t>
+  </si>
+  <si>
+    <t>39562</t>
+  </si>
+  <si>
+    <t>39563</t>
+  </si>
+  <si>
+    <t>39564</t>
+  </si>
+  <si>
+    <t>39565</t>
+  </si>
+  <si>
+    <t>39566</t>
+  </si>
+  <si>
+    <t>39567</t>
+  </si>
+  <si>
+    <t>39568</t>
+  </si>
+  <si>
+    <t>39569</t>
+  </si>
+  <si>
+    <t>39570</t>
+  </si>
+  <si>
+    <t>39571</t>
+  </si>
+  <si>
+    <t>39572</t>
+  </si>
+  <si>
+    <t>39573</t>
+  </si>
+  <si>
+    <t>39574</t>
+  </si>
+  <si>
+    <t>39575</t>
+  </si>
+  <si>
+    <t>39576</t>
+  </si>
+  <si>
+    <t>39577</t>
+  </si>
+  <si>
+    <t>39578</t>
+  </si>
+  <si>
+    <t>39579</t>
+  </si>
+  <si>
+    <t>39580</t>
+  </si>
+  <si>
+    <t>39581</t>
+  </si>
+  <si>
+    <t>39582</t>
+  </si>
+  <si>
+    <t>39583</t>
+  </si>
+  <si>
+    <t>39584</t>
+  </si>
+  <si>
+    <t>39585</t>
+  </si>
+  <si>
+    <t>39586</t>
+  </si>
+  <si>
+    <t>39587</t>
+  </si>
+  <si>
+    <t>39588</t>
+  </si>
+  <si>
+    <t>39589</t>
+  </si>
+  <si>
+    <t>39590</t>
+  </si>
+  <si>
+    <t>39591</t>
+  </si>
+  <si>
+    <t>39592</t>
+  </si>
+  <si>
+    <t>39593</t>
+  </si>
+  <si>
+    <t>39594</t>
+  </si>
+  <si>
+    <t>39595</t>
+  </si>
+  <si>
+    <t>39596</t>
+  </si>
+  <si>
+    <t>39597</t>
+  </si>
+  <si>
+    <t>39598</t>
+  </si>
+  <si>
+    <t>39599</t>
+  </si>
+  <si>
+    <t>39600</t>
+  </si>
+  <si>
+    <t>39601</t>
+  </si>
+  <si>
+    <t>39602</t>
+  </si>
+  <si>
+    <t>39603</t>
+  </si>
+  <si>
+    <t>39604</t>
+  </si>
+  <si>
+    <t>39605</t>
+  </si>
+  <si>
+    <t>39606</t>
+  </si>
+  <si>
+    <t>39607</t>
+  </si>
+  <si>
+    <t>39608</t>
+  </si>
+  <si>
+    <t>39609</t>
+  </si>
+  <si>
+    <t>39610</t>
+  </si>
+  <si>
+    <t>39611</t>
+  </si>
+  <si>
+    <t>39612</t>
+  </si>
+  <si>
+    <t>39613</t>
+  </si>
+  <si>
+    <t>39614</t>
+  </si>
+  <si>
+    <t>39615</t>
+  </si>
+  <si>
+    <t>39616</t>
+  </si>
+  <si>
+    <t>39617</t>
+  </si>
+  <si>
+    <t>39618</t>
+  </si>
+  <si>
+    <t>39619</t>
+  </si>
+  <si>
+    <t>39620</t>
+  </si>
+  <si>
+    <t>39621</t>
+  </si>
+  <si>
+    <t>39622</t>
+  </si>
+  <si>
+    <t>39623</t>
+  </si>
+  <si>
+    <t>39624</t>
+  </si>
+  <si>
+    <t>39625</t>
+  </si>
+  <si>
+    <t>39626</t>
+  </si>
+  <si>
+    <t>39627</t>
+  </si>
+  <si>
+    <t>39628</t>
+  </si>
+  <si>
+    <t>39629</t>
+  </si>
+  <si>
+    <t>39630</t>
+  </si>
+  <si>
+    <t>39631</t>
+  </si>
+  <si>
+    <t>39632</t>
+  </si>
+  <si>
+    <t>39633</t>
+  </si>
+  <si>
+    <t>39634</t>
+  </si>
+  <si>
+    <t>39635</t>
+  </si>
+  <si>
+    <t>39636</t>
+  </si>
+  <si>
+    <t>39637</t>
+  </si>
+  <si>
+    <t>39638</t>
+  </si>
+  <si>
+    <t>39639</t>
+  </si>
+  <si>
+    <t>39640</t>
+  </si>
+  <si>
+    <t>39641</t>
+  </si>
+  <si>
+    <t>39642</t>
+  </si>
+  <si>
+    <t>39643</t>
+  </si>
+  <si>
+    <t>39644</t>
+  </si>
+  <si>
+    <t>39645</t>
+  </si>
+  <si>
+    <t>39646</t>
+  </si>
+  <si>
+    <t>39647</t>
+  </si>
+  <si>
+    <t>39648</t>
+  </si>
+  <si>
+    <t>39649</t>
+  </si>
+  <si>
+    <t>39650</t>
+  </si>
+  <si>
+    <t>39651</t>
+  </si>
+  <si>
+    <t>39652</t>
+  </si>
+  <si>
+    <t>39653</t>
+  </si>
+  <si>
+    <t>39654</t>
+  </si>
+  <si>
+    <t>39655</t>
+  </si>
+  <si>
+    <t>39656</t>
+  </si>
+  <si>
+    <t>39657</t>
+  </si>
+  <si>
+    <t>39658</t>
+  </si>
+  <si>
+    <t>39659</t>
+  </si>
+  <si>
+    <t>39660</t>
+  </si>
+  <si>
+    <t>39661</t>
+  </si>
+  <si>
+    <t>39662</t>
+  </si>
+  <si>
+    <t>39663</t>
+  </si>
+  <si>
+    <t>39664</t>
+  </si>
+  <si>
+    <t>39665</t>
+  </si>
+  <si>
+    <t>39666</t>
+  </si>
+  <si>
+    <t>39667</t>
+  </si>
+  <si>
+    <t>39668</t>
+  </si>
+  <si>
+    <t>39669</t>
+  </si>
+  <si>
+    <t>39670</t>
+  </si>
+  <si>
+    <t>39671</t>
+  </si>
+  <si>
+    <t>39672</t>
+  </si>
+  <si>
+    <t>39673</t>
+  </si>
+  <si>
+    <t>39674</t>
+  </si>
+  <si>
+    <t>39675</t>
+  </si>
+  <si>
+    <t>39676</t>
+  </si>
+  <si>
+    <t>39677</t>
+  </si>
+  <si>
+    <t>39678</t>
+  </si>
+  <si>
+    <t>39679</t>
+  </si>
+  <si>
+    <t>39680</t>
+  </si>
+  <si>
+    <t>39681</t>
+  </si>
+  <si>
+    <t>39682</t>
+  </si>
+  <si>
+    <t>39683</t>
+  </si>
+  <si>
+    <t>39684</t>
+  </si>
+  <si>
+    <t>39685</t>
+  </si>
+  <si>
+    <t>39686</t>
+  </si>
+  <si>
+    <t>39687</t>
+  </si>
+  <si>
+    <t>39688</t>
+  </si>
+  <si>
+    <t>39689</t>
+  </si>
+  <si>
+    <t>39690</t>
+  </si>
+  <si>
+    <t>39691</t>
+  </si>
+  <si>
+    <t>39692</t>
+  </si>
+  <si>
+    <t>39693</t>
+  </si>
+  <si>
+    <t>39694</t>
+  </si>
+  <si>
+    <t>39695</t>
+  </si>
+  <si>
+    <t>39696</t>
+  </si>
+  <si>
+    <t>39697</t>
+  </si>
+  <si>
+    <t>39698</t>
+  </si>
+  <si>
+    <t>39699</t>
+  </si>
+  <si>
+    <t>39700</t>
+  </si>
+  <si>
+    <t>39701</t>
+  </si>
+  <si>
+    <t>39702</t>
+  </si>
+  <si>
+    <t>39703</t>
+  </si>
+  <si>
+    <t>39704</t>
+  </si>
+  <si>
+    <t>39705</t>
+  </si>
+  <si>
+    <t>39706</t>
+  </si>
+  <si>
+    <t>39707</t>
+  </si>
+  <si>
+    <t>39708</t>
+  </si>
+  <si>
+    <t>39709</t>
+  </si>
+  <si>
+    <t>39710</t>
+  </si>
+  <si>
+    <t>39711</t>
+  </si>
+  <si>
+    <t>39712</t>
+  </si>
+  <si>
+    <t>39713</t>
+  </si>
+  <si>
+    <t>39714</t>
+  </si>
+  <si>
+    <t>39715</t>
+  </si>
+  <si>
+    <t>39716</t>
+  </si>
+  <si>
+    <t>39717</t>
+  </si>
+  <si>
+    <t>39718</t>
+  </si>
+  <si>
+    <t>39719</t>
+  </si>
+  <si>
+    <t>39720</t>
+  </si>
+  <si>
+    <t>39721</t>
+  </si>
+  <si>
+    <t>39722</t>
+  </si>
+  <si>
+    <t>39723</t>
+  </si>
+  <si>
+    <t>39724</t>
+  </si>
+  <si>
+    <t>39725</t>
+  </si>
+  <si>
+    <t>39726</t>
+  </si>
+  <si>
+    <t>39727</t>
+  </si>
+  <si>
+    <t>39728</t>
+  </si>
+  <si>
+    <t>39729</t>
+  </si>
+  <si>
+    <t>39730</t>
+  </si>
+  <si>
+    <t>39731</t>
+  </si>
+  <si>
+    <t>39732</t>
+  </si>
+  <si>
+    <t>39733</t>
+  </si>
+  <si>
+    <t>39734</t>
+  </si>
+  <si>
+    <t>39735</t>
+  </si>
+  <si>
+    <t>39736</t>
+  </si>
+  <si>
+    <t>39737</t>
+  </si>
+  <si>
+    <t>39738</t>
+  </si>
+  <si>
+    <t>39739</t>
+  </si>
+  <si>
+    <t>39740</t>
+  </si>
+  <si>
+    <t>39741</t>
+  </si>
+  <si>
+    <t>39742</t>
+  </si>
+  <si>
+    <t>39743</t>
+  </si>
+  <si>
+    <t>39744</t>
+  </si>
+  <si>
+    <t>39745</t>
+  </si>
+  <si>
+    <t>39746</t>
+  </si>
+  <si>
+    <t>39747</t>
+  </si>
+  <si>
+    <t>39748</t>
+  </si>
+  <si>
+    <t>39749</t>
+  </si>
+  <si>
+    <t>39750</t>
+  </si>
+  <si>
+    <t>39751</t>
+  </si>
+  <si>
+    <t>39752</t>
+  </si>
+  <si>
+    <t>39753</t>
+  </si>
+  <si>
+    <t>39754</t>
+  </si>
+  <si>
+    <t>39755</t>
+  </si>
+  <si>
+    <t>39756</t>
+  </si>
+  <si>
+    <t>39757</t>
+  </si>
+  <si>
+    <t>39758</t>
+  </si>
+  <si>
+    <t>39759</t>
+  </si>
+  <si>
+    <t>39760</t>
+  </si>
+  <si>
+    <t>39761</t>
+  </si>
+  <si>
+    <t>39762</t>
+  </si>
+  <si>
+    <t>39763</t>
+  </si>
+  <si>
+    <t>39764</t>
+  </si>
+  <si>
+    <t>39765</t>
+  </si>
+  <si>
+    <t>39766</t>
+  </si>
+  <si>
+    <t>39767</t>
+  </si>
+  <si>
+    <t>39768</t>
+  </si>
+  <si>
+    <t>39769</t>
+  </si>
+  <si>
+    <t>39770</t>
+  </si>
+  <si>
+    <t>39771</t>
+  </si>
+  <si>
+    <t>39772</t>
+  </si>
+  <si>
+    <t>39773</t>
+  </si>
+  <si>
+    <t>39774</t>
+  </si>
+  <si>
+    <t>39775</t>
+  </si>
+  <si>
+    <t>39776</t>
+  </si>
+  <si>
+    <t>39777</t>
+  </si>
+  <si>
+    <t>39778</t>
+  </si>
+  <si>
+    <t>39779</t>
+  </si>
+  <si>
+    <t>39780</t>
+  </si>
+  <si>
+    <t>39781</t>
+  </si>
+  <si>
+    <t>39782</t>
+  </si>
+  <si>
+    <t>39783</t>
+  </si>
+  <si>
+    <t>39784</t>
+  </si>
+  <si>
+    <t>39785</t>
+  </si>
+  <si>
+    <t>39786</t>
+  </si>
+  <si>
+    <t>39787</t>
+  </si>
+  <si>
+    <t>39788</t>
+  </si>
+  <si>
+    <t>39789</t>
+  </si>
+  <si>
+    <t>39790</t>
+  </si>
+  <si>
+    <t>39791</t>
+  </si>
+  <si>
+    <t>39792</t>
+  </si>
+  <si>
+    <t>39793</t>
+  </si>
+  <si>
+    <t>39794</t>
+  </si>
+  <si>
+    <t>39795</t>
+  </si>
+  <si>
+    <t>39796</t>
+  </si>
+  <si>
+    <t>39797</t>
+  </si>
+  <si>
+    <t>39798</t>
+  </si>
+  <si>
+    <t>39799</t>
+  </si>
+  <si>
+    <t>39800</t>
+  </si>
+  <si>
+    <t>39801</t>
+  </si>
+  <si>
+    <t>39802</t>
+  </si>
+  <si>
+    <t>39803</t>
+  </si>
+  <si>
+    <t>39804</t>
+  </si>
+  <si>
+    <t>39805</t>
+  </si>
+  <si>
+    <t>39806</t>
+  </si>
+  <si>
+    <t>39807</t>
+  </si>
+  <si>
+    <t>39808</t>
+  </si>
+  <si>
+    <t>39809</t>
+  </si>
+  <si>
+    <t>39810</t>
+  </si>
+  <si>
+    <t>39811</t>
+  </si>
+  <si>
+    <t>39812</t>
+  </si>
+  <si>
+    <t>39813</t>
+  </si>
+  <si>
+    <t>39814</t>
+  </si>
+  <si>
+    <t>39815</t>
+  </si>
+  <si>
+    <t>39816</t>
+  </si>
+  <si>
+    <t>39817</t>
+  </si>
+  <si>
+    <t>39818</t>
+  </si>
+  <si>
+    <t>39819</t>
+  </si>
+  <si>
+    <t>39820</t>
+  </si>
+  <si>
+    <t>39821</t>
+  </si>
+  <si>
+    <t>39822</t>
+  </si>
+  <si>
+    <t>39823</t>
+  </si>
+  <si>
+    <t>39824</t>
+  </si>
+  <si>
+    <t>39825</t>
+  </si>
+  <si>
+    <t>39826</t>
+  </si>
+  <si>
+    <t>39827</t>
+  </si>
+  <si>
+    <t>39828</t>
+  </si>
+  <si>
+    <t>39829</t>
+  </si>
+  <si>
+    <t>39830</t>
+  </si>
+  <si>
+    <t>39831</t>
+  </si>
+  <si>
+    <t>39832</t>
+  </si>
+  <si>
+    <t>39833</t>
+  </si>
+  <si>
+    <t>39834</t>
+  </si>
+  <si>
+    <t>39835</t>
+  </si>
+  <si>
+    <t>39836</t>
+  </si>
+  <si>
+    <t>39837</t>
+  </si>
+  <si>
+    <t>39838</t>
+  </si>
+  <si>
+    <t>39839</t>
+  </si>
+  <si>
+    <t>39840</t>
+  </si>
+  <si>
+    <t>39841</t>
+  </si>
+  <si>
+    <t>39842</t>
+  </si>
+  <si>
+    <t>39843</t>
+  </si>
+  <si>
+    <t>39844</t>
+  </si>
+  <si>
+    <t>39845</t>
+  </si>
+  <si>
+    <t>39846</t>
+  </si>
+  <si>
+    <t>39847</t>
+  </si>
+  <si>
+    <t>39848</t>
+  </si>
+  <si>
+    <t>39849</t>
+  </si>
+  <si>
+    <t>39850</t>
+  </si>
+  <si>
+    <t>39851</t>
+  </si>
+  <si>
+    <t>39852</t>
+  </si>
+  <si>
+    <t>39853</t>
+  </si>
+  <si>
+    <t>39854</t>
+  </si>
+  <si>
+    <t>39855</t>
+  </si>
+  <si>
+    <t>39856</t>
+  </si>
+  <si>
+    <t>39857</t>
+  </si>
+  <si>
+    <t>39858</t>
+  </si>
+  <si>
+    <t>39859</t>
+  </si>
+  <si>
+    <t>39860</t>
+  </si>
+  <si>
+    <t>39861</t>
+  </si>
+  <si>
+    <t>39862</t>
+  </si>
+  <si>
+    <t>39863</t>
+  </si>
+  <si>
+    <t>39864</t>
+  </si>
+  <si>
+    <t>39865</t>
+  </si>
+  <si>
+    <t>39866</t>
+  </si>
+  <si>
+    <t>39867</t>
+  </si>
+  <si>
+    <t>39868</t>
+  </si>
+  <si>
+    <t>39869</t>
+  </si>
+  <si>
+    <t>39870</t>
+  </si>
+  <si>
+    <t>39871</t>
+  </si>
+  <si>
+    <t>39872</t>
+  </si>
+  <si>
+    <t>39873</t>
+  </si>
+  <si>
+    <t>39874</t>
+  </si>
+  <si>
+    <t>39875</t>
+  </si>
+  <si>
+    <t>39876</t>
+  </si>
+  <si>
+    <t>39877</t>
+  </si>
+  <si>
+    <t>39878</t>
+  </si>
+  <si>
+    <t>39879</t>
+  </si>
+  <si>
+    <t>39880</t>
+  </si>
+  <si>
+    <t>39881</t>
+  </si>
+  <si>
+    <t>39882</t>
+  </si>
+  <si>
+    <t>39883</t>
+  </si>
+  <si>
+    <t>39884</t>
+  </si>
+  <si>
+    <t>39885</t>
+  </si>
+  <si>
+    <t>39886</t>
+  </si>
+  <si>
+    <t>39887</t>
+  </si>
+  <si>
+    <t>39888</t>
+  </si>
+  <si>
+    <t>39889</t>
+  </si>
+  <si>
+    <t>39890</t>
+  </si>
+  <si>
+    <t>39891</t>
+  </si>
+  <si>
+    <t>39892</t>
+  </si>
+  <si>
+    <t>39893</t>
+  </si>
+  <si>
+    <t>39894</t>
+  </si>
+  <si>
+    <t>39895</t>
+  </si>
+  <si>
+    <t>39896</t>
+  </si>
+  <si>
+    <t>39897</t>
+  </si>
+  <si>
+    <t>39898</t>
+  </si>
+  <si>
+    <t>39899</t>
+  </si>
+  <si>
+    <t>39900</t>
+  </si>
+  <si>
+    <t>39901</t>
+  </si>
+  <si>
+    <t>39902</t>
+  </si>
+  <si>
+    <t>39903</t>
+  </si>
+  <si>
+    <t>39904</t>
+  </si>
+  <si>
+    <t>39905</t>
+  </si>
+  <si>
+    <t>39906</t>
+  </si>
+  <si>
+    <t>39907</t>
+  </si>
+  <si>
+    <t>39908</t>
+  </si>
+  <si>
+    <t>39909</t>
+  </si>
+  <si>
+    <t>39910</t>
+  </si>
+  <si>
+    <t>39911</t>
+  </si>
+  <si>
+    <t>39912</t>
+  </si>
+  <si>
+    <t>39913</t>
+  </si>
+  <si>
+    <t>39914</t>
+  </si>
+  <si>
+    <t>39915</t>
+  </si>
+  <si>
+    <t>39916</t>
+  </si>
+  <si>
+    <t>39917</t>
+  </si>
+  <si>
+    <t>39918</t>
+  </si>
+  <si>
+    <t>39919</t>
+  </si>
+  <si>
+    <t>39920</t>
+  </si>
+  <si>
+    <t>39921</t>
+  </si>
+  <si>
+    <t>39922</t>
+  </si>
+  <si>
+    <t>39923</t>
+  </si>
+  <si>
+    <t>39924</t>
+  </si>
+  <si>
+    <t>39925</t>
+  </si>
+  <si>
+    <t>39926</t>
+  </si>
+  <si>
+    <t>39927</t>
+  </si>
+  <si>
+    <t>39928</t>
+  </si>
+  <si>
+    <t>39929</t>
+  </si>
+  <si>
+    <t>39930</t>
+  </si>
+  <si>
+    <t>39931</t>
+  </si>
+  <si>
+    <t>39932</t>
+  </si>
+  <si>
+    <t>39933</t>
+  </si>
+  <si>
+    <t>39934</t>
+  </si>
+  <si>
+    <t>39935</t>
+  </si>
+  <si>
+    <t>39936</t>
+  </si>
+  <si>
+    <t>39937</t>
+  </si>
+  <si>
+    <t>39938</t>
+  </si>
+  <si>
+    <t>39939</t>
+  </si>
+  <si>
+    <t>39940</t>
+  </si>
+  <si>
+    <t>39941</t>
+  </si>
+  <si>
+    <t>39942</t>
+  </si>
+  <si>
+    <t>39943</t>
+  </si>
+  <si>
+    <t>39944</t>
+  </si>
+  <si>
+    <t>39945</t>
+  </si>
+  <si>
+    <t>39946</t>
+  </si>
+  <si>
+    <t>39947</t>
+  </si>
+  <si>
+    <t>39948</t>
+  </si>
+  <si>
+    <t>39949</t>
+  </si>
+  <si>
+    <t>39950</t>
+  </si>
+  <si>
+    <t>39951</t>
+  </si>
+  <si>
+    <t>39952</t>
+  </si>
+  <si>
+    <t>39953</t>
+  </si>
+  <si>
+    <t>39954</t>
+  </si>
+  <si>
+    <t>39955</t>
+  </si>
+  <si>
+    <t>39956</t>
+  </si>
+  <si>
+    <t>39957</t>
+  </si>
+  <si>
+    <t>39958</t>
+  </si>
+  <si>
+    <t>39959</t>
+  </si>
+  <si>
+    <t>39960</t>
+  </si>
+  <si>
+    <t>39961</t>
+  </si>
+  <si>
+    <t>39962</t>
+  </si>
+  <si>
+    <t>39963</t>
+  </si>
+  <si>
+    <t>39964</t>
+  </si>
+  <si>
+    <t>39965</t>
+  </si>
+  <si>
+    <t>39966</t>
+  </si>
+  <si>
+    <t>39967</t>
+  </si>
+  <si>
+    <t>39968</t>
+  </si>
+  <si>
+    <t>39969</t>
+  </si>
+  <si>
+    <t>39970</t>
+  </si>
+  <si>
+    <t>39971</t>
+  </si>
+  <si>
+    <t>39972</t>
+  </si>
+  <si>
+    <t>39973</t>
+  </si>
+  <si>
+    <t>39974</t>
+  </si>
+  <si>
+    <t>39975</t>
+  </si>
+  <si>
+    <t>39976</t>
+  </si>
+  <si>
+    <t>39977</t>
+  </si>
+  <si>
+    <t>39978</t>
+  </si>
+  <si>
+    <t>39979</t>
+  </si>
+  <si>
+    <t>39980</t>
+  </si>
+  <si>
+    <t>39981</t>
+  </si>
+  <si>
+    <t>39982</t>
+  </si>
+  <si>
+    <t>39983</t>
+  </si>
+  <si>
+    <t>39984</t>
+  </si>
+  <si>
+    <t>39985</t>
+  </si>
+  <si>
+    <t>39986</t>
+  </si>
+  <si>
+    <t>39987</t>
+  </si>
+  <si>
+    <t>39988</t>
+  </si>
+  <si>
+    <t>39989</t>
+  </si>
+  <si>
+    <t>39990</t>
+  </si>
+  <si>
+    <t>39991</t>
+  </si>
+  <si>
+    <t>39992</t>
+  </si>
+  <si>
+    <t>39993</t>
+  </si>
+  <si>
+    <t>39994</t>
+  </si>
+  <si>
+    <t>39995</t>
+  </si>
+  <si>
+    <t>39996</t>
+  </si>
+  <si>
+    <t>39997</t>
+  </si>
+  <si>
+    <t>39998</t>
+  </si>
+  <si>
+    <t>39999</t>
+  </si>
+  <si>
+    <t>40000</t>
   </si>
 </sst>
 </file>
@@ -3421,10 +3424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1001"/>
+  <dimension ref="A1:N1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A1001"/>
+      <selection activeCell="A1001" sqref="A1001"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8487,6 +8490,11 @@
         <v>1013</v>
       </c>
     </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1002" s="2" t="s">
+        <v>1014</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
